--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -676,10 +676,10 @@
         <v>1.24</v>
       </c>
       <c r="I2" t="n">
-        <v>9.800000000000001</v>
+        <v>600</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
         <v>5.4</v>
@@ -805,7 +805,7 @@
         <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="H3" t="n">
         <v>3.25</v>
@@ -814,7 +814,7 @@
         <v>3.85</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
         <v>4.4</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="G4" t="n">
         <v>1.81</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I4" t="n">
         <v>5.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1075,16 +1075,16 @@
         <v>1.37</v>
       </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H5" t="n">
-        <v>5.5</v>
+        <v>1.09</v>
       </c>
       <c r="I5" t="n">
         <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
         <v>6.4</v>
@@ -1105,7 +1105,7 @@
         <v>2.04</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G6" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="H6" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I6" t="n">
         <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.86</v>
+        <v>2.7</v>
       </c>
       <c r="K6" t="n">
         <v>4.4</v>
@@ -1240,7 +1240,7 @@
         <v>1.92</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>1.73</v>
       </c>
       <c r="G7" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
         <v>410</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>1.07</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G3" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="H3" t="n">
         <v>3.25</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G4" t="n">
         <v>1.81</v>
@@ -946,13 +946,13 @@
         <v>4.4</v>
       </c>
       <c r="I4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K4" t="n">
         <v>5.6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1075,16 +1075,16 @@
         <v>1.37</v>
       </c>
       <c r="G5" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="H5" t="n">
-        <v>1.09</v>
+        <v>8.6</v>
       </c>
       <c r="I5" t="n">
         <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
         <v>6.4</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1213,13 +1213,13 @@
         <v>3.25</v>
       </c>
       <c r="H6" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I6" t="n">
         <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>4.4</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G7" t="n">
         <v>2.06</v>
@@ -1351,13 +1351,13 @@
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>410</v>
+        <v>85</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>1.94</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1480,7 +1480,7 @@
         <v>1.56</v>
       </c>
       <c r="G8" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H8" t="n">
         <v>4.7</v>
@@ -1492,7 +1492,7 @@
         <v>4.3</v>
       </c>
       <c r="K8" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>1.07</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,10 +676,10 @@
         <v>1.24</v>
       </c>
       <c r="I2" t="n">
-        <v>600</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
         <v>5.4</v>
@@ -805,16 +805,16 @@
         <v>2.12</v>
       </c>
       <c r="G3" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
         <v>3.85</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
         <v>4.4</v>
@@ -952,7 +952,7 @@
         <v>4.3</v>
       </c>
       <c r="K4" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>1.37</v>
       </c>
       <c r="G5" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="H5" t="n">
         <v>8.6</v>
@@ -1084,7 +1084,7 @@
         <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="K5" t="n">
         <v>6.4</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
         <v>2.52</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J6" t="n">
         <v>3.4</v>
@@ -1354,7 +1354,7 @@
         <v>5.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K7" t="n">
         <v>85</v>
@@ -1468,31 +1468,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.56</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
-        <v>1.71</v>
+        <v>2.98</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>2.66</v>
       </c>
       <c r="I8" t="n">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="K8" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.49</v>
+        <v>1.86</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1588,135 +1588,270 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>English National League</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Hartlepool</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Gateshead</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Scottish Premiership</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>2026-01-20</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>16:45:00</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Livingston</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>St Mirren</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="F10" t="n">
         <v>3</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>3.2</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>2.5</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>2.66</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>3.4</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K10" t="n">
         <v>3.55</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>1.07</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>2.04</v>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G2" t="n">
         <v>1.66</v>
       </c>
       <c r="H2" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="I2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G3" t="n">
         <v>2.38</v>
@@ -814,10 +814,10 @@
         <v>3.85</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="G5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="H5" t="n">
         <v>8.6</v>
@@ -1087,7 +1087,7 @@
         <v>4.7</v>
       </c>
       <c r="K5" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>2.64</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
         <v>2.52</v>
@@ -1219,10 +1219,10 @@
         <v>3.05</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>2.02</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="G7" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
         <v>5.3</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.94</v>
+        <v>2.14</v>
       </c>
       <c r="Q7" t="n">
         <v>1.71</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="G8" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H8" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.4</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="G9" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="H9" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="I9" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J9" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K9" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="Q9" t="n">
         <v>1.51</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -700,7 +700,7 @@
         <v>1.98</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>4.4</v>
       </c>
       <c r="I4" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J4" t="n">
         <v>4.3</v>
@@ -1210,7 +1210,7 @@
         <v>2.64</v>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H6" t="n">
         <v>2.52</v>
@@ -1375,7 +1375,7 @@
         <v>2.14</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="G9" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H9" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I9" t="n">
         <v>6.6</v>
@@ -1627,7 +1627,7 @@
         <v>4.4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q9" t="n">
         <v>1.51</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.07</v>
+        <v>1.73</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,28 +673,28 @@
         <v>1.66</v>
       </c>
       <c r="H2" t="n">
-        <v>1.28</v>
+        <v>5.9</v>
       </c>
       <c r="I2" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
         <v>1.98</v>
@@ -703,82 +703,82 @@
         <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="G3" t="n">
-        <v>2.38</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>1.59</v>
       </c>
       <c r="I3" t="n">
-        <v>3.85</v>
+        <v>1.62</v>
       </c>
       <c r="J3" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>1.98</v>
+        <v>2.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="4">
@@ -928,31 +928,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.66</v>
+        <v>2.1</v>
       </c>
       <c r="G4" t="n">
-        <v>1.81</v>
+        <v>2.38</v>
       </c>
       <c r="H4" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5.3</v>
+        <v>3.85</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.7</v>
+        <v>1.98</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.46</v>
+        <v>1.82</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
       <c r="G5" t="n">
-        <v>1.48</v>
+        <v>1.81</v>
       </c>
       <c r="H5" t="n">
-        <v>8.6</v>
+        <v>4.4</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>5.7</v>
       </c>
       <c r="J5" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="K5" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.16</v>
+        <v>2.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.68</v>
+        <v>1.46</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,66 +1193,66 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.64</v>
+        <v>7.2</v>
       </c>
       <c r="G6" t="n">
-        <v>3.05</v>
+        <v>7.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.52</v>
+        <v>1.41</v>
       </c>
       <c r="I6" t="n">
-        <v>3.05</v>
+        <v>1.42</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>6.4</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>2.02</v>
+        <v>3.35</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.77</v>
+        <v>1.37</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,64 +1261,64 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,31 +1333,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.73</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>2.04</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>2.5</v>
       </c>
       <c r="I7" t="n">
-        <v>5.3</v>
+        <v>2.66</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>85</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.14</v>
+        <v>1.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.62</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1468,31 +1468,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.26</v>
+        <v>1.58</v>
       </c>
       <c r="G8" t="n">
-        <v>2.96</v>
+        <v>1.67</v>
       </c>
       <c r="H8" t="n">
-        <v>2.68</v>
+        <v>5.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>4.4</v>
       </c>
       <c r="K8" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.7</v>
+        <v>2.46</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.86</v>
+        <v>1.51</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1603,31 +1603,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.59</v>
+        <v>2.26</v>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>2.96</v>
       </c>
       <c r="H9" t="n">
-        <v>5.4</v>
+        <v>2.66</v>
       </c>
       <c r="I9" t="n">
-        <v>6.6</v>
+        <v>4.1</v>
       </c>
       <c r="J9" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>5.3</v>
+        <v>950</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.48</v>
+        <v>1.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.51</v>
+        <v>1.86</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,121 +1738,1336 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>English National League</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Southend</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Eastleigh</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>English National League</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Boreham Wood</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Scunthorpe</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Olympiakos</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>FC Copenhagen</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Sporting Lisbon</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Paris St-G</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>210</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H18" t="n">
+        <v>11</v>
+      </c>
+      <c r="I18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>7</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S19" t="n">
         <v>3</v>
       </c>
-      <c r="G10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0</v>
+      <c r="T19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G2" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="H2" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
         <v>4.8</v>
@@ -691,7 +691,7 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -709,7 +709,7 @@
         <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U2" t="n">
         <v>1.9</v>
@@ -718,7 +718,7 @@
         <v>1.14</v>
       </c>
       <c r="W2" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="X2" t="n">
         <v>17.5</v>
@@ -751,7 +751,7 @@
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
         <v>120</v>
@@ -760,7 +760,7 @@
         <v>18</v>
       </c>
       <c r="AK2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL2" t="n">
         <v>38</v>
@@ -805,13 +805,13 @@
         <v>5.5</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="I3" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="J3" t="n">
         <v>4.7</v>
@@ -820,37 +820,37 @@
         <v>4.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R3" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S3" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="T3" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V3" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="W3" t="n">
         <v>1.2</v>
@@ -862,25 +862,25 @@
         <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA3" t="n">
         <v>16</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC3" t="n">
         <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AG3" t="n">
         <v>22</v>
@@ -889,25 +889,25 @@
         <v>20</v>
       </c>
       <c r="AI3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AK3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL3" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN3" t="n">
         <v>70</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="4">
@@ -937,34 +937,34 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G4" t="n">
         <v>2.38</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
         <v>1.98</v>
@@ -973,76 +973,76 @@
         <v>1.82</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="H5" t="n">
         <v>4.4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="J5" t="n">
         <v>4.3</v>
       </c>
       <c r="K5" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P5" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -1210,109 +1210,109 @@
         <v>7.2</v>
       </c>
       <c r="G6" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H6" t="n">
         <v>1.41</v>
       </c>
       <c r="I6" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="J6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K6" t="n">
         <v>6.4</v>
       </c>
-      <c r="K6" t="n">
-        <v>6.8</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
         <v>1.37</v>
       </c>
       <c r="R6" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="S6" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="T6" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U6" t="n">
         <v>2.5</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X6" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AB6" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AC6" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI6" t="n">
         <v>24</v>
       </c>
-      <c r="AI6" t="n">
-        <v>28</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>530</v>
+        <v>55</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="7">
@@ -1375,7 +1375,7 @@
         <v>1.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="G8" t="n">
         <v>1.67</v>
@@ -1486,13 +1486,13 @@
         <v>5.4</v>
       </c>
       <c r="I8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J8" t="n">
         <v>4.4</v>
       </c>
       <c r="K8" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.64</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="H10" t="n">
-        <v>2.52</v>
+        <v>2.28</v>
       </c>
       <c r="I10" t="n">
-        <v>2.88</v>
+        <v>2.46</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G12" t="n">
         <v>2.02</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
         <v>5.2</v>
@@ -2032,7 +2032,7 @@
         <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2185,13 +2185,13 @@
         <v>2.18</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R13" t="n">
         <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="T13" t="n">
         <v>1.64</v>
@@ -2215,16 +2215,16 @@
         <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC13" t="n">
         <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
         <v>34</v>
@@ -2233,7 +2233,7 @@
         <v>20</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
         <v>17</v>
@@ -2245,7 +2245,7 @@
         <v>42</v>
       </c>
       <c r="AK13" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
         <v>42</v>
@@ -2257,7 +2257,7 @@
         <v>19.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -2296,7 +2296,7 @@
         <v>1.9</v>
       </c>
       <c r="I14" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="J14" t="n">
         <v>3.75</v>
@@ -2314,22 +2314,22 @@
         <v>3.55</v>
       </c>
       <c r="O14" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P14" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R14" t="n">
         <v>1.33</v>
       </c>
       <c r="S14" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T14" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U14" t="n">
         <v>2.02</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="H15" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="I15" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="J15" t="n">
         <v>3.55</v>
@@ -2455,16 +2455,16 @@
         <v>1.92</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R15" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S15" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T15" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U15" t="n">
         <v>2.2</v>
@@ -2482,7 +2482,7 @@
         <v>11.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA15" t="n">
         <v>44</v>
@@ -2500,7 +2500,7 @@
         <v>30</v>
       </c>
       <c r="AF15" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG15" t="n">
         <v>13.5</v>
@@ -2527,7 +2527,7 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J16" t="n">
         <v>4.3</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.4</v>
       </c>
       <c r="K16" t="n">
         <v>4.6</v>
@@ -2590,19 +2590,19 @@
         <v>2.44</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R16" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S16" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T16" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U16" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>12.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA16" t="n">
         <v>22</v>
@@ -2632,28 +2632,28 @@
         <v>10.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG16" t="n">
         <v>18.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI16" t="n">
         <v>28</v>
       </c>
       <c r="AJ16" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AL16" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="n">
         <v>85</v>
@@ -2707,7 +2707,7 @@
         <v>4.7</v>
       </c>
       <c r="K17" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>1.15</v>
       </c>
       <c r="P17" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="Q17" t="n">
         <v>1.49</v>
@@ -2761,7 +2761,7 @@
         <v>15</v>
       </c>
       <c r="AC17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
         <v>30</v>
@@ -2785,7 +2785,7 @@
         <v>17.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL17" t="n">
         <v>36</v>
@@ -2857,22 +2857,22 @@
         <v>1.12</v>
       </c>
       <c r="P18" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q18" t="n">
         <v>1.37</v>
       </c>
       <c r="R18" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="S18" t="n">
         <v>1.95</v>
       </c>
       <c r="T18" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U18" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2905,28 +2905,28 @@
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK18" t="n">
         <v>12.5</v>
       </c>
-      <c r="AK18" t="n">
-        <v>14</v>
-      </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN18" t="n">
         <v>3.6</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="G19" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="H19" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I19" t="n">
         <v>2.66</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.7</v>
       </c>
       <c r="J19" t="n">
         <v>3.7</v>
@@ -2995,7 +2995,7 @@
         <v>2.12</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R19" t="n">
         <v>1.44</v>
@@ -3004,10 +3004,10 @@
         <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U19" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,58 +3016,58 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AA19" t="n">
         <v>48</v>
       </c>
       <c r="AB19" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AF19" t="n">
         <v>23</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AK19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL19" t="n">
         <v>44</v>
       </c>
       <c r="AM19" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,7 +676,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
@@ -691,7 +691,7 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -703,7 +703,7 @@
         <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S2" t="n">
         <v>3.05</v>
@@ -712,7 +712,7 @@
         <v>1.91</v>
       </c>
       <c r="U2" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V2" t="n">
         <v>1.14</v>
@@ -730,7 +730,7 @@
         <v>80</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB2" t="n">
         <v>10</v>
@@ -742,7 +742,7 @@
         <v>28</v>
       </c>
       <c r="AE2" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF2" t="n">
         <v>11.5</v>
@@ -754,10 +754,10 @@
         <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK2" t="n">
         <v>17.5</v>
@@ -766,13 +766,13 @@
         <v>38</v>
       </c>
       <c r="AM2" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN2" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AO2" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
@@ -805,16 +805,16 @@
         <v>5.5</v>
       </c>
       <c r="G3" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H3" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="I3" t="n">
         <v>1.63</v>
       </c>
       <c r="J3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K3" t="n">
         <v>4.9</v>
@@ -832,10 +832,10 @@
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R3" t="n">
         <v>1.55</v>
@@ -847,13 +847,13 @@
         <v>1.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V3" t="n">
         <v>2.58</v>
       </c>
       <c r="W3" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X3" t="n">
         <v>22</v>
@@ -862,7 +862,7 @@
         <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA3" t="n">
         <v>16</v>
@@ -874,13 +874,13 @@
         <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AG3" t="n">
         <v>22</v>
@@ -904,7 +904,7 @@
         <v>90</v>
       </c>
       <c r="AN3" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AO3" t="n">
         <v>7.4</v>
@@ -949,7 +949,7 @@
         <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
@@ -982,7 +982,7 @@
         <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V4" t="n">
         <v>1.35</v>
@@ -1099,7 +1099,7 @@
         <v>5.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P5" t="n">
         <v>2.68</v>
@@ -1207,88 +1207,88 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="I6" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="J6" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K6" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="O6" t="n">
         <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q6" t="n">
         <v>1.37</v>
       </c>
       <c r="R6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
         <v>1.95</v>
       </c>
       <c r="T6" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V6" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="W6" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="X6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AC6" t="n">
         <v>14.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH6" t="n">
         <v>20</v>
@@ -1297,22 +1297,22 @@
         <v>24</v>
       </c>
       <c r="AJ6" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="AK6" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AL6" t="n">
         <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="G7" t="n">
         <v>3.2</v>
@@ -1351,109 +1351,109 @@
         <v>2.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
         <v>3.55</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q7" t="n">
         <v>2.12</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Inverness CT</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="G8" t="n">
-        <v>1.67</v>
+        <v>9</v>
       </c>
       <c r="H8" t="n">
-        <v>5.4</v>
+        <v>1.53</v>
       </c>
       <c r="I8" t="n">
-        <v>6.4</v>
+        <v>1.65</v>
       </c>
       <c r="J8" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V8" t="n">
         <v>2.46</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="9">
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G9" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="H9" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="I9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
         <v>950</v>
@@ -1645,7 +1645,7 @@
         <v>1.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="G10" t="n">
-        <v>3.45</v>
+        <v>1.67</v>
       </c>
       <c r="H10" t="n">
-        <v>2.28</v>
+        <v>5.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.46</v>
+        <v>6.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>5.3</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.06</v>
+        <v>2.48</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="G11" t="n">
-        <v>1.48</v>
+        <v>3.6</v>
       </c>
       <c r="H11" t="n">
-        <v>8.6</v>
+        <v>2.22</v>
       </c>
       <c r="I11" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X11" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y11" t="n">
         <v>12</v>
       </c>
-      <c r="J11" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.73</v>
+        <v>1.37</v>
       </c>
       <c r="G12" t="n">
-        <v>2.02</v>
+        <v>1.47</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>8.6</v>
       </c>
       <c r="I12" t="n">
-        <v>5.2</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="K12" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.64</v>
+        <v>1.72</v>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
-        <v>2.74</v>
+        <v>4.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.78</v>
+        <v>5.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="R13" t="n">
         <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>2.96</v>
+        <v>2.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="U13" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X13" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="AA13" t="n">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="AB13" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF13" t="n">
         <v>13</v>
       </c>
-      <c r="AE13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>20</v>
       </c>
-      <c r="AG13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>42</v>
-      </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN13" t="n">
-        <v>19.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO13" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.4</v>
+        <v>2.76</v>
       </c>
       <c r="G14" t="n">
-        <v>4.7</v>
+        <v>2.78</v>
       </c>
       <c r="H14" t="n">
-        <v>1.9</v>
+        <v>2.66</v>
       </c>
       <c r="I14" t="n">
-        <v>1.92</v>
+        <v>2.7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="P14" t="n">
-        <v>1.86</v>
+        <v>2.12</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.14</v>
+        <v>1.82</v>
       </c>
       <c r="R14" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.89</v>
+        <v>1.68</v>
       </c>
       <c r="U14" t="n">
-        <v>2.02</v>
+        <v>2.36</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X14" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD14" t="n">
         <v>12</v>
       </c>
-      <c r="AA14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB14" t="n">
+      <c r="AE14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH14" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC14" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>21</v>
-      </c>
       <c r="AI14" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK14" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AL14" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN14" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.86</v>
+        <v>4.6</v>
       </c>
       <c r="G15" t="n">
-        <v>2.88</v>
+        <v>4.8</v>
       </c>
       <c r="H15" t="n">
-        <v>2.68</v>
+        <v>1.91</v>
       </c>
       <c r="I15" t="n">
-        <v>2.7</v>
+        <v>1.93</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K15" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="P15" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="R15" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="S15" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="T15" t="n">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="U15" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="X15" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z15" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG15" t="n">
         <v>20</v>
       </c>
-      <c r="AG15" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AJ15" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="AK15" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.4</v>
+        <v>2.86</v>
       </c>
       <c r="G16" t="n">
-        <v>4.7</v>
+        <v>2.88</v>
       </c>
       <c r="H16" t="n">
-        <v>1.78</v>
+        <v>2.68</v>
       </c>
       <c r="I16" t="n">
-        <v>1.81</v>
+        <v>2.7</v>
       </c>
       <c r="J16" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>2.44</v>
+        <v>1.88</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.64</v>
+        <v>2.02</v>
       </c>
       <c r="R16" t="n">
-        <v>1.57</v>
+        <v>1.34</v>
       </c>
       <c r="S16" t="n">
-        <v>2.62</v>
+        <v>3.65</v>
       </c>
       <c r="T16" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="U16" t="n">
-        <v>2.46</v>
+        <v>2.16</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X16" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="AB16" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AF16" t="n">
-        <v>38</v>
+        <v>18.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
         <v>17.5</v>
       </c>
       <c r="AI16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN16" t="n">
         <v>28</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>38</v>
-      </c>
       <c r="AO16" t="n">
-        <v>8.800000000000001</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="G17" t="n">
-        <v>1.62</v>
+        <v>4.6</v>
       </c>
       <c r="H17" t="n">
-        <v>5.8</v>
+        <v>1.83</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>1.84</v>
       </c>
       <c r="J17" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>6.6</v>
+        <v>5.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="P17" t="n">
-        <v>2.92</v>
+        <v>2.46</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.49</v>
+        <v>1.64</v>
       </c>
       <c r="R17" t="n">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="S17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V17" t="n">
         <v>2.18</v>
       </c>
-      <c r="T17" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="X17" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Y17" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>13.5</v>
+        <v>38</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17.5</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="AL17" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN17" t="n">
         <v>36</v>
       </c>
-      <c r="AM17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>5.6</v>
-      </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="18">
@@ -2818,73 +2818,73 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="G18" t="n">
-        <v>1.31</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
-        <v>11</v>
+        <v>5.8</v>
       </c>
       <c r="I18" t="n">
-        <v>12.5</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="K18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="P18" t="n">
-        <v>3.35</v>
+        <v>2.96</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="R18" t="n">
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
       <c r="S18" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="T18" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="U18" t="n">
-        <v>2.26</v>
+        <v>2.6</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2893,43 +2893,43 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC18" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
+        <v>210</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM18" t="n">
         <v>1000</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>95</v>
-      </c>
       <c r="AN18" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2953,121 +2953,256 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.78</v>
+        <v>1.3</v>
       </c>
       <c r="G19" t="n">
-        <v>2.84</v>
+        <v>1.32</v>
       </c>
       <c r="H19" t="n">
-        <v>2.64</v>
+        <v>11</v>
       </c>
       <c r="I19" t="n">
-        <v>2.66</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
-        <v>3.7</v>
+        <v>6.8</v>
       </c>
       <c r="K19" t="n">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>4.3</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="P19" t="n">
-        <v>2.12</v>
+        <v>3.35</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.82</v>
+        <v>1.37</v>
       </c>
       <c r="R19" t="n">
-        <v>1.44</v>
+        <v>1.97</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="T19" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="U19" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="X19" t="n">
-        <v>17.5</v>
+        <v>40</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.5</v>
+        <v>120</v>
       </c>
       <c r="AA19" t="n">
-        <v>48</v>
+        <v>400</v>
       </c>
       <c r="AB19" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.6</v>
+        <v>16</v>
       </c>
       <c r="AD19" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="AE19" t="n">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="AF19" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AJ19" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AL19" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>3.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>21</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Olympiakos</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:05:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Kairouan</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Stade Tunisien</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.55</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>1.64</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>3.9</v>
+        <v>1.24</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.98</v>
+        <v>1.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>1.39</v>
+        <v>1.12</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1.91</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>2.56</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:05:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.5</v>
+        <v>1.55</v>
       </c>
       <c r="G3" t="n">
-        <v>5.9</v>
+        <v>1.64</v>
       </c>
       <c r="H3" t="n">
-        <v>1.62</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>1.63</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K3" t="n">
         <v>4.8</v>
       </c>
-      <c r="K3" t="n">
-        <v>4.9</v>
-      </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>5.2</v>
+        <v>3.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
       <c r="S3" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="U3" t="n">
-        <v>2.24</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>2.58</v>
+        <v>1.14</v>
       </c>
       <c r="W3" t="n">
-        <v>1.21</v>
+        <v>2.56</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG3" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>22</v>
-      </c>
       <c r="AH3" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="AJ3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM3" t="n">
         <v>150</v>
       </c>
-      <c r="AK3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>90</v>
-      </c>
       <c r="AN3" t="n">
-        <v>60</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.4</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.12</v>
+        <v>5.5</v>
       </c>
       <c r="G4" t="n">
-        <v>2.38</v>
+        <v>5.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>1.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>1.63</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>1.98</v>
+        <v>5.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.55</v>
       </c>
       <c r="S4" t="n">
-        <v>1.83</v>
+        <v>2.74</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U4" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="V4" t="n">
-        <v>1.35</v>
+        <v>2.58</v>
       </c>
       <c r="W4" t="n">
-        <v>1.73</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH4" t="n">
         <v>20</v>
       </c>
-      <c r="Z4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>23</v>
-      </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="AK4" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="5">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.7</v>
+        <v>2.12</v>
       </c>
       <c r="G5" t="n">
-        <v>1.78</v>
+        <v>2.38</v>
       </c>
       <c r="H5" t="n">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>5.4</v>
+        <v>1.98</v>
       </c>
       <c r="O5" t="n">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>2.68</v>
+        <v>1.98</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.48</v>
+        <v>1.82</v>
       </c>
       <c r="R5" t="n">
-        <v>1.68</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>2.18</v>
+        <v>1.83</v>
       </c>
       <c r="T5" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>2.46</v>
+        <v>2.06</v>
       </c>
       <c r="V5" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>2.28</v>
+        <v>1.73</v>
       </c>
       <c r="X5" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Z5" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AA5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH5" t="n">
         <v>23</v>
       </c>
-      <c r="AE5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AK5" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="G6" t="n">
-        <v>8.4</v>
+        <v>1.78</v>
       </c>
       <c r="H6" t="n">
-        <v>1.38</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="J6" t="n">
-        <v>6.4</v>
+        <v>4.3</v>
       </c>
       <c r="K6" t="n">
-        <v>6.6</v>
+        <v>5.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>8.6</v>
+        <v>5.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>3.5</v>
+        <v>2.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="S6" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="T6" t="n">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="U6" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V6" t="n">
-        <v>3.55</v>
+        <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>1.13</v>
+        <v>2.28</v>
       </c>
       <c r="X6" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB6" t="n">
         <v>16</v>
       </c>
-      <c r="Z6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AC6" t="n">
         <v>13.5</v>
       </c>
-      <c r="AB6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="AK6" t="n">
-        <v>90</v>
+        <v>18.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>60</v>
+        <v>7.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.92</v>
+        <v>7.8</v>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2.5</v>
+        <v>1.38</v>
       </c>
       <c r="I7" t="n">
-        <v>2.76</v>
+        <v>1.39</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>6.4</v>
       </c>
       <c r="K7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V7" t="n">
         <v>3.55</v>
       </c>
-      <c r="L7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.6</v>
-      </c>
       <c r="W7" t="n">
-        <v>1.46</v>
+        <v>1.13</v>
       </c>
       <c r="X7" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
-        <v>42</v>
+        <v>13.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>11.5</v>
+        <v>44</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>30</v>
       </c>
       <c r="AH7" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="AJ7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN7" t="n">
         <v>60</v>
       </c>
-      <c r="AK7" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>42</v>
-      </c>
       <c r="AO7" t="n">
-        <v>30</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Inverness CT</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.7</v>
+        <v>2.92</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1.53</v>
+        <v>2.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.65</v>
+        <v>2.76</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>5.5</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="R8" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>2.64</v>
+        <v>3.85</v>
       </c>
       <c r="T8" t="n">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="U8" t="n">
-        <v>1.71</v>
+        <v>1.98</v>
       </c>
       <c r="V8" t="n">
-        <v>2.46</v>
+        <v>1.6</v>
       </c>
       <c r="W8" t="n">
-        <v>1.12</v>
+        <v>1.46</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AF8" t="n">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>14.5</v>
       </c>
       <c r="AH8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO8" t="n">
         <v>30</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>11.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.3</v>
+        <v>1.02</v>
       </c>
       <c r="G9" t="n">
-        <v>2.86</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>2.74</v>
+        <v>1.02</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>1.02</v>
       </c>
       <c r="K9" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.7</v>
+        <v>1.08</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Inverness CT</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.55</v>
+        <v>4.7</v>
       </c>
       <c r="G10" t="n">
-        <v>1.67</v>
+        <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>5.4</v>
+        <v>1.53</v>
       </c>
       <c r="I10" t="n">
-        <v>6.6</v>
+        <v>1.65</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>5.3</v>
+        <v>3.15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V10" t="n">
         <v>2.48</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.18</v>
-      </c>
       <c r="W10" t="n">
-        <v>2.48</v>
+        <v>1.12</v>
       </c>
       <c r="X10" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG10" t="n">
         <v>32</v>
       </c>
-      <c r="Y10" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AI10" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="AJ10" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>75</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.2</v>
+        <v>1.54</v>
       </c>
       <c r="G11" t="n">
-        <v>3.6</v>
+        <v>1.67</v>
       </c>
       <c r="H11" t="n">
-        <v>2.22</v>
+        <v>5.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.34</v>
+        <v>6.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.08</v>
+        <v>2.48</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.74</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="S11" t="n">
-        <v>2.88</v>
+        <v>2.22</v>
       </c>
       <c r="T11" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="U11" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.74</v>
+        <v>1.18</v>
       </c>
       <c r="W11" t="n">
-        <v>1.39</v>
+        <v>2.48</v>
       </c>
       <c r="X11" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>19</v>
       </c>
-      <c r="Y11" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI11" t="n">
+      <c r="AK11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL11" t="n">
         <v>34</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>46</v>
-      </c>
       <c r="AM11" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AN11" t="n">
-        <v>32</v>
+        <v>7.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.37</v>
+        <v>1.72</v>
       </c>
       <c r="G12" t="n">
-        <v>1.47</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
-        <v>8.6</v>
+        <v>4.4</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>5.3</v>
       </c>
       <c r="J12" t="n">
-        <v>4.7</v>
+        <v>3.85</v>
       </c>
       <c r="K12" t="n">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>2.16</v>
+        <v>4.3</v>
       </c>
       <c r="O12" t="n">
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.68</v>
       </c>
-      <c r="R12" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="V12" t="n">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="W12" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="X12" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.72</v>
+        <v>3.2</v>
       </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>4.4</v>
+        <v>2.22</v>
       </c>
       <c r="I13" t="n">
-        <v>5.2</v>
+        <v>2.36</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="R13" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="S13" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="T13" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="V13" t="n">
-        <v>1.24</v>
+        <v>1.73</v>
       </c>
       <c r="W13" t="n">
-        <v>2.1</v>
+        <v>1.39</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>48</v>
+        <v>16.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="AF13" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="n">
-        <v>18.5</v>
+        <v>38</v>
       </c>
       <c r="AL13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN13" t="n">
         <v>32</v>
       </c>
-      <c r="AM13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AO13" t="n">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.76</v>
+        <v>1.37</v>
       </c>
       <c r="G14" t="n">
-        <v>2.78</v>
+        <v>1.47</v>
       </c>
       <c r="H14" t="n">
-        <v>2.66</v>
+        <v>8.6</v>
       </c>
       <c r="I14" t="n">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="J14" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>4.3</v>
+        <v>2.16</v>
       </c>
       <c r="O14" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="R14" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>2.42</v>
       </c>
       <c r="T14" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.59</v>
+        <v>1.09</v>
       </c>
       <c r="W14" t="n">
-        <v>1.54</v>
+        <v>3.1</v>
       </c>
       <c r="X14" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH14" t="n">
         <v>38</v>
       </c>
-      <c r="AB14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AI14" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AL14" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AM14" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>25</v>
+        <v>8.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,126 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="G15" t="n">
-        <v>4.8</v>
+        <v>2.86</v>
       </c>
       <c r="H15" t="n">
-        <v>1.91</v>
+        <v>2.74</v>
       </c>
       <c r="I15" t="n">
-        <v>1.93</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>950</v>
       </c>
       <c r="L15" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.14</v>
+        <v>1.87</v>
       </c>
       <c r="R15" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="G16" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="H16" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="I16" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="K16" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>1.88</v>
+        <v>2.16</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="R16" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="T16" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="U16" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="V16" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X16" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA16" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
         <v>12</v>
       </c>
       <c r="AE16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK16" t="n">
         <v>29</v>
       </c>
-      <c r="AF16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>32</v>
-      </c>
       <c r="AL16" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AN16" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="G17" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H17" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="I17" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="J17" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L17" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="P17" t="n">
-        <v>2.46</v>
+        <v>1.85</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.64</v>
+        <v>2.16</v>
       </c>
       <c r="R17" t="n">
-        <v>1.58</v>
+        <v>1.32</v>
       </c>
       <c r="S17" t="n">
-        <v>2.6</v>
+        <v>3.95</v>
       </c>
       <c r="T17" t="n">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="U17" t="n">
-        <v>2.48</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="W17" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="X17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH17" t="n">
         <v>22</v>
       </c>
-      <c r="Y17" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AI17" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AJ17" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AK17" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AL17" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AM17" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AN17" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.6</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.58</v>
+        <v>2.92</v>
       </c>
       <c r="G18" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.6</v>
       </c>
-      <c r="H18" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.2</v>
-      </c>
       <c r="W18" t="n">
-        <v>2.66</v>
+        <v>1.51</v>
       </c>
       <c r="X18" t="n">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK18" t="n">
         <v>32</v>
       </c>
-      <c r="Z18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>210</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AL18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO18" t="n">
         <v>26</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="G19" t="n">
-        <v>1.32</v>
+        <v>4.6</v>
       </c>
       <c r="H19" t="n">
-        <v>11</v>
+        <v>1.81</v>
       </c>
       <c r="I19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X19" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y19" t="n">
         <v>12</v>
       </c>
-      <c r="J19" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>7</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N19" t="n">
-        <v>8</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W19" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="X19" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>60</v>
-      </c>
       <c r="Z19" t="n">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="AA19" t="n">
-        <v>400</v>
+        <v>21</v>
       </c>
       <c r="AB19" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AC19" t="n">
-        <v>16</v>
+        <v>9.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
-        <v>140</v>
+        <v>16.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>16.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="AL19" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.6</v>
+        <v>36</v>
       </c>
       <c r="AO19" t="n">
-        <v>120</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,391 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="X20" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>400</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>Olympiakos</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Leverkusen</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="F22" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.85</v>
       </c>
-      <c r="L20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M20" t="n">
+      <c r="L22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M22" t="n">
         <v>1.05</v>
       </c>
-      <c r="N20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="N22" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O22" t="n">
         <v>1.26</v>
       </c>
-      <c r="P20" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T20" t="n">
+      <c r="P22" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T22" t="n">
         <v>1.65</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U22" t="n">
         <v>2.4</v>
       </c>
-      <c r="V20" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="X20" t="n">
+      <c r="V22" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X22" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y20" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z20" t="n">
+      <c r="Y22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z22" t="n">
         <v>20</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA22" t="n">
         <v>44</v>
       </c>
-      <c r="AB20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC20" t="n">
+      <c r="AB22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC22" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD22" t="n">
         <v>12.5</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE22" t="n">
         <v>28</v>
       </c>
-      <c r="AF20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG20" t="n">
+      <c r="AF22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG22" t="n">
         <v>12</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH22" t="n">
         <v>16</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI22" t="n">
         <v>36</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ22" t="n">
         <v>38</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK22" t="n">
         <v>26</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL22" t="n">
         <v>36</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM22" t="n">
         <v>70</v>
       </c>
-      <c r="AN20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>30</v>
+      <c r="AN22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -814,7 +814,7 @@
         <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K3" t="n">
         <v>4.8</v>
@@ -856,58 +856,58 @@
         <v>2.56</v>
       </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Z3" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
         <v>10.5</v>
       </c>
-      <c r="AH3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AO3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -940,10 +940,10 @@
         <v>5.5</v>
       </c>
       <c r="G4" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="I4" t="n">
         <v>1.63</v>
@@ -970,7 +970,7 @@
         <v>2.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R4" t="n">
         <v>1.55</v>
@@ -982,25 +982,25 @@
         <v>1.74</v>
       </c>
       <c r="U4" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V4" t="n">
         <v>2.58</v>
       </c>
       <c r="W4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
         <v>10.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB4" t="n">
         <v>26</v>
@@ -1024,10 +1024,10 @@
         <v>20</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AK4" t="n">
         <v>70</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G5" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H5" t="n">
         <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1120,10 +1120,10 @@
         <v>2.06</v>
       </c>
       <c r="V5" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="W5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1231,7 +1231,7 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.14</v>
@@ -1246,7 +1246,7 @@
         <v>1.68</v>
       </c>
       <c r="S6" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="T6" t="n">
         <v>1.55</v>
@@ -1279,16 +1279,16 @@
         <v>13.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
         <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
         <v>19.5</v>
@@ -1309,7 +1309,7 @@
         <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AO6" t="n">
         <v>42</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="G7" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H7" t="n">
         <v>1.38</v>
@@ -1354,10 +1354,10 @@
         <v>1.39</v>
       </c>
       <c r="J7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K7" t="n">
         <v>6.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.22</v>
@@ -1384,10 +1384,10 @@
         <v>1.95</v>
       </c>
       <c r="T7" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U7" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V7" t="n">
         <v>3.55</v>
@@ -1408,7 +1408,7 @@
         <v>13.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AC7" t="n">
         <v>15</v>
@@ -1420,10 +1420,10 @@
         <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AG7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH7" t="n">
         <v>21</v>
@@ -1432,7 +1432,7 @@
         <v>24</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AK7" t="n">
         <v>90</v>
@@ -1486,7 +1486,7 @@
         <v>2.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="J8" t="n">
         <v>3.25</v>
@@ -1636,7 +1636,7 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
@@ -1645,13 +1645,13 @@
         <v>1.08</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="R9" t="n">
         <v>1.08</v>
       </c>
       <c r="S9" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="T9" t="n">
         <v>1.01</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="G10" t="n">
         <v>9</v>
@@ -1759,10 +1759,10 @@
         <v>1.65</v>
       </c>
       <c r="J10" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>5.5</v>
+        <v>85</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1780,7 +1780,7 @@
         <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="R10" t="n">
         <v>1.35</v>
@@ -1795,7 +1795,7 @@
         <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="W10" t="n">
         <v>1.12</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="G11" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H11" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1921,73 +1921,73 @@
         <v>1.6</v>
       </c>
       <c r="S11" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="T11" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="W11" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="X11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y11" t="n">
         <v>34</v>
       </c>
       <c r="Z11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA11" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AC11" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AD11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE11" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AK11" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM11" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.4</v>
+        <v>970</v>
       </c>
       <c r="AO11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -2047,7 +2047,7 @@
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q12" t="n">
         <v>1.67</v>
@@ -2083,10 +2083,10 @@
         <v>130</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AD12" t="n">
         <v>20</v>
@@ -2095,13 +2095,13 @@
         <v>70</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AI12" t="n">
         <v>70</v>
@@ -2110,7 +2110,7 @@
         <v>20</v>
       </c>
       <c r="AK12" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AL12" t="n">
         <v>32</v>
@@ -2119,7 +2119,7 @@
         <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AO12" t="n">
         <v>65</v>
@@ -2161,7 +2161,7 @@
         <v>2.22</v>
       </c>
       <c r="I13" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J13" t="n">
         <v>3.65</v>
@@ -2182,10 +2182,10 @@
         <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R13" t="n">
         <v>1.43</v>
@@ -2200,13 +2200,13 @@
         <v>2.24</v>
       </c>
       <c r="V13" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W13" t="n">
         <v>1.39</v>
       </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
         <v>12</v>
@@ -2215,13 +2215,13 @@
         <v>16.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB13" t="n">
         <v>16</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD13" t="n">
         <v>11.5</v>
@@ -2230,7 +2230,7 @@
         <v>24</v>
       </c>
       <c r="AF13" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AG13" t="n">
         <v>15.5</v>
@@ -2251,7 +2251,7 @@
         <v>46</v>
       </c>
       <c r="AM13" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN13" t="n">
         <v>32</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="G14" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="H14" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="J14" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="K14" t="n">
-        <v>5.7</v>
+        <v>7.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2323,22 +2323,22 @@
         <v>1.68</v>
       </c>
       <c r="R14" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S14" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="V14" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="W14" t="n">
-        <v>3.1</v>
+        <v>2.78</v>
       </c>
       <c r="X14" t="n">
         <v>29</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G15" t="n">
         <v>2.86</v>
       </c>
       <c r="H15" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="K15" t="n">
         <v>950</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="Q15" t="n">
         <v>1.87</v>
@@ -2563,10 +2563,10 @@
         <v>2.84</v>
       </c>
       <c r="H16" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="J16" t="n">
         <v>3.8</v>
@@ -2590,7 +2590,7 @@
         <v>2.16</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R16" t="n">
         <v>1.44</v>
@@ -2605,7 +2605,7 @@
         <v>2.36</v>
       </c>
       <c r="V16" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="W16" t="n">
         <v>1.54</v>
@@ -2620,7 +2620,7 @@
         <v>18</v>
       </c>
       <c r="AA16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB16" t="n">
         <v>13.5</v>
@@ -2632,7 +2632,7 @@
         <v>12</v>
       </c>
       <c r="AE16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF16" t="n">
         <v>19.5</v>
@@ -2662,7 +2662,7 @@
         <v>22</v>
       </c>
       <c r="AO16" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -2695,7 +2695,7 @@
         <v>4.5</v>
       </c>
       <c r="G17" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H17" t="n">
         <v>1.93</v>
@@ -2734,7 +2734,7 @@
         <v>3.95</v>
       </c>
       <c r="T17" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U17" t="n">
         <v>2</v>
@@ -2743,10 +2743,10 @@
         <v>2.04</v>
       </c>
       <c r="W17" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X17" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y17" t="n">
         <v>8.199999999999999</v>
@@ -2755,7 +2755,7 @@
         <v>10.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AB17" t="n">
         <v>14.5</v>
@@ -2836,7 +2836,7 @@
         <v>2.64</v>
       </c>
       <c r="I18" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J18" t="n">
         <v>3.5</v>
@@ -2845,25 +2845,25 @@
         <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P18" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R18" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S18" t="n">
         <v>3.65</v>
@@ -2875,7 +2875,7 @@
         <v>2.14</v>
       </c>
       <c r="V18" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W18" t="n">
         <v>1.51</v>
@@ -2890,10 +2890,10 @@
         <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
         <v>7.4</v>
@@ -2914,7 +2914,7 @@
         <v>17.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ18" t="n">
         <v>46</v>
@@ -2926,13 +2926,13 @@
         <v>44</v>
       </c>
       <c r="AM18" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN18" t="n">
         <v>29</v>
       </c>
       <c r="AO18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -2977,7 +2977,7 @@
         <v>4.3</v>
       </c>
       <c r="K19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
         <v>1.31</v>
@@ -2986,16 +2986,16 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R19" t="n">
         <v>1.58</v>
@@ -3016,7 +3016,7 @@
         <v>1.27</v>
       </c>
       <c r="X19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
         <v>12</v>
@@ -3025,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AA19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB19" t="n">
         <v>22</v>
@@ -3040,7 +3040,7 @@
         <v>16.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG19" t="n">
         <v>17.5</v>
@@ -3052,7 +3052,7 @@
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="n">
         <v>48</v>
@@ -3064,7 +3064,7 @@
         <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO19" t="n">
         <v>8.4</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G20" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="H20" t="n">
         <v>5.6</v>
@@ -3139,16 +3139,16 @@
         <v>2.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U20" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V20" t="n">
         <v>1.2</v>
       </c>
       <c r="W20" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="X20" t="n">
         <v>30</v>
@@ -3199,7 +3199,7 @@
         <v>65</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AO20" t="n">
         <v>42</v>
@@ -3265,16 +3265,16 @@
         <v>3.45</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R21" t="n">
         <v>1.97</v>
       </c>
       <c r="S21" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="T21" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U21" t="n">
         <v>2.2</v>
@@ -3289,7 +3289,7 @@
         <v>40</v>
       </c>
       <c r="Y21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z21" t="n">
         <v>120</v>
@@ -3319,7 +3319,7 @@
         <v>25</v>
       </c>
       <c r="AI21" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ21" t="n">
         <v>12</v>
@@ -3328,7 +3328,7 @@
         <v>12</v>
       </c>
       <c r="AL21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM21" t="n">
         <v>95</v>
@@ -3337,7 +3337,7 @@
         <v>3.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
@@ -3400,13 +3400,13 @@
         <v>2.22</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R22" t="n">
         <v>1.47</v>
       </c>
       <c r="S22" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T22" t="n">
         <v>1.65</v>
@@ -3421,7 +3421,7 @@
         <v>1.6</v>
       </c>
       <c r="X22" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y22" t="n">
         <v>13.5</v>
@@ -3451,7 +3451,7 @@
         <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI22" t="n">
         <v>36</v>
@@ -3469,7 +3469,7 @@
         <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO22" t="n">
         <v>21</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -808,10 +808,10 @@
         <v>1.64</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J3" t="n">
         <v>4.2</v>
@@ -832,7 +832,7 @@
         <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q3" t="n">
         <v>1.85</v>
@@ -841,7 +841,7 @@
         <v>1.39</v>
       </c>
       <c r="S3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
         <v>1.91</v>
@@ -856,7 +856,7 @@
         <v>2.56</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
         <v>29</v>
@@ -871,7 +871,7 @@
         <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -883,7 +883,7 @@
         <v>13.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH3" t="n">
         <v>29</v>
@@ -895,16 +895,16 @@
         <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -940,7 +940,7 @@
         <v>5.5</v>
       </c>
       <c r="G4" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H4" t="n">
         <v>1.61</v>
@@ -958,7 +958,7 @@
         <v>1.32</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
         <v>5.2</v>
@@ -970,13 +970,13 @@
         <v>2.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R4" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S4" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="T4" t="n">
         <v>1.74</v>
@@ -988,7 +988,7 @@
         <v>2.58</v>
       </c>
       <c r="W4" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
@@ -1000,7 +1000,7 @@
         <v>10.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB4" t="n">
         <v>26</v>
@@ -1279,16 +1279,16 @@
         <v>13.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
         <v>19.5</v>
@@ -1309,7 +1309,7 @@
         <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AO6" t="n">
         <v>42</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="H7" t="n">
         <v>1.38</v>
@@ -1357,7 +1357,7 @@
         <v>6.2</v>
       </c>
       <c r="K7" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.22</v>
@@ -1399,7 +1399,7 @@
         <v>40</v>
       </c>
       <c r="Y7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z7" t="n">
         <v>12</v>
@@ -1537,7 +1537,7 @@
         <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AA8" t="n">
         <v>42</v>
@@ -1561,7 +1561,7 @@
         <v>14.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AI8" t="n">
         <v>50</v>
@@ -1573,7 +1573,7 @@
         <v>42</v>
       </c>
       <c r="AL8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
         <v>130</v>
@@ -1762,7 +1762,7 @@
         <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>85</v>
+        <v>950</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,22 +1771,22 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="O10" t="n">
         <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
         <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="T10" t="n">
         <v>1.96</v>
@@ -1801,31 +1801,31 @@
         <v>1.12</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="Y10" t="n">
         <v>9.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AA10" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AB10" t="n">
         <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AD10" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG10" t="n">
         <v>32</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
     </row>
     <row r="11">
@@ -1882,49 +1882,49 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="G11" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="H11" t="n">
         <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
         <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O11" t="n">
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
         <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S11" t="n">
         <v>2.16</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="U11" t="n">
         <v>1.01</v>
@@ -1933,61 +1933,61 @@
         <v>1.16</v>
       </c>
       <c r="W11" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="X11" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2164,7 +2164,7 @@
         <v>2.34</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K13" t="n">
         <v>3.9</v>
@@ -2182,10 +2182,10 @@
         <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R13" t="n">
         <v>1.43</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="G14" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="H14" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="I14" t="n">
-        <v>65</v>
+        <v>12.5</v>
       </c>
       <c r="J14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K14" t="n">
         <v>7.4</v>
@@ -2323,43 +2323,43 @@
         <v>1.68</v>
       </c>
       <c r="R14" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="S14" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="T14" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U14" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V14" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="W14" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="X14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y14" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
         <v>16</v>
       </c>
       <c r="AD14" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
@@ -2371,7 +2371,7 @@
         <v>14.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G17" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H17" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I17" t="n">
         <v>1.93</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.95</v>
       </c>
       <c r="J17" t="n">
         <v>3.7</v>
@@ -2722,16 +2722,16 @@
         <v>1.37</v>
       </c>
       <c r="P17" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R17" t="n">
         <v>1.32</v>
       </c>
       <c r="S17" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T17" t="n">
         <v>1.94</v>
@@ -2740,7 +2740,7 @@
         <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W17" t="n">
         <v>1.27</v>
@@ -2797,7 +2797,7 @@
         <v>80</v>
       </c>
       <c r="AO17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -3004,7 +3004,7 @@
         <v>2.62</v>
       </c>
       <c r="T19" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U19" t="n">
         <v>2.48</v>
@@ -3106,13 +3106,13 @@
         <v>5.6</v>
       </c>
       <c r="I20" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J20" t="n">
         <v>4.9</v>
       </c>
       <c r="K20" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
         <v>1.26</v>
@@ -3142,7 +3142,7 @@
         <v>1.58</v>
       </c>
       <c r="U20" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="V20" t="n">
         <v>1.2</v>
@@ -3184,7 +3184,7 @@
         <v>17</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ20" t="n">
         <v>17</v>
@@ -3202,7 +3202,7 @@
         <v>5.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G21" t="n">
         <v>1.3</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.31</v>
       </c>
       <c r="H21" t="n">
         <v>11</v>
       </c>
       <c r="I21" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K21" t="n">
         <v>7.2</v>
@@ -3268,13 +3268,13 @@
         <v>1.39</v>
       </c>
       <c r="R21" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="S21" t="n">
         <v>1.97</v>
       </c>
       <c r="T21" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U21" t="n">
         <v>2.2</v>
@@ -3283,7 +3283,7 @@
         <v>1.09</v>
       </c>
       <c r="W21" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="X21" t="n">
         <v>40</v>
@@ -3292,10 +3292,10 @@
         <v>55</v>
       </c>
       <c r="Z21" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AA21" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
         <v>15</v>
@@ -3319,10 +3319,10 @@
         <v>25</v>
       </c>
       <c r="AI21" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK21" t="n">
         <v>12</v>
@@ -3331,7 +3331,7 @@
         <v>25</v>
       </c>
       <c r="AM21" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
         <v>3.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -808,10 +808,10 @@
         <v>1.64</v>
       </c>
       <c r="H3" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J3" t="n">
         <v>4.2</v>
@@ -850,7 +850,7 @@
         <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W3" t="n">
         <v>2.56</v>
@@ -859,7 +859,7 @@
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,31 +868,31 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AC3" t="n">
         <v>970</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AG3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>970</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>21</v>
       </c>
       <c r="AK3" t="n">
         <v>970</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="G4" t="n">
         <v>5.9</v>
@@ -958,16 +958,16 @@
         <v>1.32</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q4" t="n">
         <v>1.68</v>
@@ -976,7 +976,7 @@
         <v>1.56</v>
       </c>
       <c r="S4" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T4" t="n">
         <v>1.74</v>
@@ -991,7 +991,7 @@
         <v>1.2</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
@@ -1027,7 +1027,7 @@
         <v>28</v>
       </c>
       <c r="AJ4" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AK4" t="n">
         <v>70</v>
@@ -1042,7 +1042,7 @@
         <v>65</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="5">
@@ -1075,10 +1075,10 @@
         <v>2.16</v>
       </c>
       <c r="G5" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
         <v>3.65</v>
@@ -1213,7 +1213,7 @@
         <v>1.78</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
         <v>5.3</v>
@@ -1234,7 +1234,7 @@
         <v>5.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
         <v>2.68</v>
@@ -1246,10 +1246,10 @@
         <v>1.68</v>
       </c>
       <c r="S6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U6" t="n">
         <v>2.46</v>
@@ -1267,28 +1267,28 @@
         <v>30</v>
       </c>
       <c r="Z6" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AA6" t="n">
         <v>120</v>
       </c>
       <c r="AB6" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AC6" t="n">
         <v>13.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF6" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
         <v>19.5</v>
@@ -1306,13 +1306,13 @@
         <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AO6" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -1378,16 +1378,16 @@
         <v>1.37</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S7" t="n">
         <v>1.95</v>
       </c>
       <c r="T7" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U7" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V7" t="n">
         <v>3.55</v>
@@ -1396,7 +1396,7 @@
         <v>1.13</v>
       </c>
       <c r="X7" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y7" t="n">
         <v>15.5</v>
@@ -1420,7 +1420,7 @@
         <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AG7" t="n">
         <v>32</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G8" t="n">
         <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I8" t="n">
         <v>2.72</v>
@@ -1546,7 +1546,7 @@
         <v>11.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
         <v>13</v>
@@ -1651,7 +1651,7 @@
         <v>1.08</v>
       </c>
       <c r="S9" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="T9" t="n">
         <v>1.01</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="G10" t="n">
         <v>9</v>
@@ -1756,22 +1756,22 @@
         <v>1.53</v>
       </c>
       <c r="I10" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="J10" t="n">
         <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>950</v>
+        <v>5.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="O10" t="n">
         <v>1.3</v>
@@ -1795,16 +1795,16 @@
         <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="W10" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="X10" t="n">
         <v>970</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="Z10" t="n">
         <v>970</v>
@@ -1813,7 +1813,7 @@
         <v>970</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC10" t="n">
         <v>970</v>
@@ -1822,16 +1822,16 @@
         <v>970</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AF10" t="n">
         <v>70</v>
       </c>
       <c r="AG10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI10" t="n">
         <v>48</v>
@@ -1900,22 +1900,22 @@
         <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O11" t="n">
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R11" t="n">
         <v>1.61</v>
@@ -1924,7 +1924,7 @@
         <v>2.16</v>
       </c>
       <c r="T11" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
         <v>1.01</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G13" t="n">
         <v>3.6</v>
@@ -2161,13 +2161,13 @@
         <v>2.22</v>
       </c>
       <c r="I13" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2182,25 +2182,25 @@
         <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R13" t="n">
         <v>1.43</v>
       </c>
       <c r="S13" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T13" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U13" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V13" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="W13" t="n">
         <v>1.39</v>
@@ -2215,13 +2215,13 @@
         <v>16.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB13" t="n">
         <v>16</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD13" t="n">
         <v>11.5</v>
@@ -2230,7 +2230,7 @@
         <v>24</v>
       </c>
       <c r="AF13" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AG13" t="n">
         <v>15.5</v>
@@ -2248,13 +2248,13 @@
         <v>38</v>
       </c>
       <c r="AL13" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO13" t="n">
         <v>16</v>
@@ -2296,7 +2296,7 @@
         <v>6.8</v>
       </c>
       <c r="I14" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="J14" t="n">
         <v>4.4</v>
@@ -2332,16 +2332,16 @@
         <v>1.71</v>
       </c>
       <c r="U14" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="V14" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W14" t="n">
         <v>2.72</v>
       </c>
       <c r="X14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="n">
         <v>40</v>
@@ -2353,7 +2353,7 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" t="n">
         <v>16</v>
@@ -2365,7 +2365,7 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG14" t="n">
         <v>14.5</v>
@@ -2560,16 +2560,16 @@
         <v>2.8</v>
       </c>
       <c r="G16" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="H16" t="n">
         <v>2.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J16" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
         <v>3.85</v>
@@ -2581,7 +2581,7 @@
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.27</v>
@@ -2602,7 +2602,7 @@
         <v>1.68</v>
       </c>
       <c r="U16" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V16" t="n">
         <v>1.61</v>
@@ -2620,7 +2620,7 @@
         <v>18</v>
       </c>
       <c r="AA16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="n">
         <v>13.5</v>
@@ -2647,7 +2647,7 @@
         <v>36</v>
       </c>
       <c r="AJ16" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK16" t="n">
         <v>29</v>
@@ -2698,7 +2698,7 @@
         <v>4.8</v>
       </c>
       <c r="H17" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="I17" t="n">
         <v>1.93</v>
@@ -2722,7 +2722,7 @@
         <v>1.37</v>
       </c>
       <c r="P17" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q17" t="n">
         <v>2.14</v>
@@ -2734,7 +2734,7 @@
         <v>3.9</v>
       </c>
       <c r="T17" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U17" t="n">
         <v>2</v>
@@ -2743,7 +2743,7 @@
         <v>2.06</v>
       </c>
       <c r="W17" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X17" t="n">
         <v>12.5</v>
@@ -2758,7 +2758,7 @@
         <v>22</v>
       </c>
       <c r="AB17" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
         <v>8</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="I18" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="J18" t="n">
         <v>3.5</v>
@@ -2845,49 +2845,49 @@
         <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="O18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R18" t="n">
         <v>1.34</v>
       </c>
-      <c r="P18" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.36</v>
-      </c>
       <c r="S18" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U18" t="n">
         <v>2.14</v>
       </c>
       <c r="V18" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="W18" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X18" t="n">
         <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA18" t="n">
         <v>38</v>
@@ -2914,22 +2914,22 @@
         <v>17.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL18" t="n">
         <v>46</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>44</v>
       </c>
       <c r="AM18" t="n">
         <v>95</v>
       </c>
       <c r="AN18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO18" t="n">
         <v>25</v>
@@ -2965,13 +2965,13 @@
         <v>4.5</v>
       </c>
       <c r="G19" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H19" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="I19" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="J19" t="n">
         <v>4.3</v>
@@ -2986,13 +2986,13 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O19" t="n">
         <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q19" t="n">
         <v>1.65</v>
@@ -3040,7 +3040,7 @@
         <v>16.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG19" t="n">
         <v>17.5</v>
@@ -3049,7 +3049,7 @@
         <v>16.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ19" t="n">
         <v>100</v>
@@ -3064,7 +3064,7 @@
         <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO19" t="n">
         <v>8.4</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="G20" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="H20" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="J20" t="n">
         <v>4.9</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L20" t="n">
         <v>1.26</v>
@@ -3136,19 +3136,19 @@
         <v>1.8</v>
       </c>
       <c r="S20" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T20" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U20" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="V20" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W20" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="X20" t="n">
         <v>30</v>
@@ -3163,16 +3163,16 @@
         <v>150</v>
       </c>
       <c r="AB20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC20" t="n">
         <v>11.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF20" t="n">
         <v>12.5</v>
@@ -3181,13 +3181,13 @@
         <v>10</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK20" t="n">
         <v>14</v>
@@ -3199,10 +3199,10 @@
         <v>65</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AO20" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="G21" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="H21" t="n">
         <v>11</v>
       </c>
       <c r="I21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J21" t="n">
         <v>6.8</v>
       </c>
       <c r="K21" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L21" t="n">
         <v>1.22</v>
@@ -3262,28 +3262,28 @@
         <v>1.12</v>
       </c>
       <c r="P21" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q21" t="n">
         <v>1.39</v>
       </c>
       <c r="R21" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S21" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="T21" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V21" t="n">
         <v>1.09</v>
       </c>
       <c r="W21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="X21" t="n">
         <v>40</v>
@@ -3292,13 +3292,13 @@
         <v>55</v>
       </c>
       <c r="Z21" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC21" t="n">
         <v>16</v>
@@ -3307,7 +3307,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF21" t="n">
         <v>11</v>
@@ -3319,7 +3319,7 @@
         <v>25</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AJ21" t="n">
         <v>11.5</v>
@@ -3334,7 +3334,7 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="AO21" t="n">
         <v>110</v>
@@ -3388,7 +3388,7 @@
         <v>1.36</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
         <v>4.6</v>
@@ -3472,7 +3472,7 @@
         <v>18.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -808,16 +808,16 @@
         <v>1.64</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="I3" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J3" t="n">
         <v>4.2</v>
       </c>
       <c r="K3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,10 +826,10 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P3" t="n">
         <v>1.99</v>
@@ -850,46 +850,46 @@
         <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W3" t="n">
         <v>2.56</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="n">
         <v>28</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AB3" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="AC3" t="n">
         <v>970</v>
       </c>
       <c r="AD3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF3" t="n">
         <v>970</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ3" t="n">
         <v>970</v>
@@ -898,16 +898,16 @@
         <v>970</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN3" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I4" t="n">
         <v>1.61</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.63</v>
       </c>
       <c r="J4" t="n">
         <v>4.8</v>
@@ -970,7 +970,7 @@
         <v>2.42</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
         <v>1.56</v>
@@ -979,19 +979,19 @@
         <v>2.68</v>
       </c>
       <c r="T4" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U4" t="n">
         <v>2.22</v>
       </c>
       <c r="V4" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="W4" t="n">
         <v>1.2</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
@@ -1000,10 +1000,10 @@
         <v>10.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC4" t="n">
         <v>10.5</v>
@@ -1027,7 +1027,7 @@
         <v>28</v>
       </c>
       <c r="AJ4" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AK4" t="n">
         <v>70</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,88 +1096,88 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>1.98</v>
+        <v>3.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
         <v>1.98</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>1.83</v>
+        <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="U5" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="V5" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF5" t="n">
         <v>15</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AG5" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK5" t="n">
         <v>23</v>
       </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
+      <c r="AL5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO5" t="n">
         <v>40</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1213,7 +1213,7 @@
         <v>1.78</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I6" t="n">
         <v>5.3</v>
@@ -1222,7 +1222,7 @@
         <v>4.3</v>
       </c>
       <c r="K6" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,28 +1231,28 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q6" t="n">
         <v>1.48</v>
       </c>
       <c r="R6" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S6" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="T6" t="n">
         <v>1.56</v>
       </c>
       <c r="U6" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="V6" t="n">
         <v>1.25</v>
@@ -1264,22 +1264,22 @@
         <v>34</v>
       </c>
       <c r="Y6" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Z6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA6" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="n">
         <v>14.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
         <v>55</v>
@@ -1291,7 +1291,7 @@
         <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI6" t="n">
         <v>55</v>
@@ -1300,13 +1300,13 @@
         <v>22</v>
       </c>
       <c r="AK6" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN6" t="n">
         <v>6.8</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="G7" t="n">
         <v>8.6</v>
       </c>
       <c r="H7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.38</v>
       </c>
-      <c r="I7" t="n">
-        <v>1.39</v>
-      </c>
       <c r="J7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K7" t="n">
         <v>6.6</v>
@@ -1372,7 +1372,7 @@
         <v>1.12</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q7" t="n">
         <v>1.37</v>
@@ -1381,16 +1381,16 @@
         <v>2.02</v>
       </c>
       <c r="S7" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="T7" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U7" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="V7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="W7" t="n">
         <v>1.13</v>
@@ -1399,7 +1399,7 @@
         <v>42</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z7" t="n">
         <v>12</v>
@@ -1411,7 +1411,7 @@
         <v>48</v>
       </c>
       <c r="AC7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
@@ -1420,7 +1420,7 @@
         <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="n">
         <v>32</v>
@@ -1447,7 +1447,7 @@
         <v>60</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8">
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="G8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.25</v>
       </c>
       <c r="K8" t="n">
         <v>3.55</v>
@@ -1510,7 +1510,7 @@
         <v>1.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
         <v>1.28</v>
@@ -1522,16 +1522,16 @@
         <v>1.8</v>
       </c>
       <c r="U8" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="W8" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
         <v>10.5</v>
@@ -1549,7 +1549,7 @@
         <v>7.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AE8" t="n">
         <v>34</v>
@@ -1576,13 +1576,13 @@
         <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO8" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1771,13 +1771,13 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="Q10" t="n">
         <v>1.8</v>
@@ -1813,7 +1813,7 @@
         <v>970</v>
       </c>
       <c r="AB10" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AC10" t="n">
         <v>970</v>
@@ -1882,43 +1882,43 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="G11" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="H11" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K11" t="n">
         <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="R11" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
         <v>2.16</v>
@@ -1930,10 +1930,10 @@
         <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W11" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2167,7 +2167,7 @@
         <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2203,7 +2203,7 @@
         <v>1.73</v>
       </c>
       <c r="W13" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
@@ -2287,37 +2287,37 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="G14" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="H14" t="n">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="J14" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="K14" t="n">
-        <v>7.4</v>
+        <v>5.7</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="O14" t="n">
         <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q14" t="n">
         <v>1.68</v>
@@ -2329,70 +2329,70 @@
         <v>2.44</v>
       </c>
       <c r="T14" t="n">
-        <v>1.71</v>
+        <v>1.97</v>
       </c>
       <c r="U14" t="n">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="V14" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="W14" t="n">
-        <v>2.72</v>
+        <v>3.1</v>
       </c>
       <c r="X14" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Y14" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z14" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AB14" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC14" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC14" t="n">
-        <v>16</v>
-      </c>
       <c r="AD14" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AF14" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AG14" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
         <v>36</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AL14" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="n">
-        <v>8.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G16" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="H16" t="n">
         <v>2.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="J16" t="n">
         <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L16" t="n">
         <v>1.37</v>
@@ -2593,7 +2593,7 @@
         <v>1.83</v>
       </c>
       <c r="R16" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S16" t="n">
         <v>3.1</v>
@@ -2605,10 +2605,10 @@
         <v>2.34</v>
       </c>
       <c r="V16" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W16" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X16" t="n">
         <v>16.5</v>
@@ -2620,7 +2620,7 @@
         <v>18</v>
       </c>
       <c r="AA16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB16" t="n">
         <v>13.5</v>
@@ -2647,7 +2647,7 @@
         <v>36</v>
       </c>
       <c r="AJ16" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK16" t="n">
         <v>29</v>
@@ -2698,7 +2698,7 @@
         <v>4.8</v>
       </c>
       <c r="H17" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="I17" t="n">
         <v>1.93</v>
@@ -2719,10 +2719,10 @@
         <v>3.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q17" t="n">
         <v>2.14</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H18" t="n">
         <v>2.6</v>
       </c>
       <c r="I18" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="J18" t="n">
         <v>3.5</v>
@@ -2851,34 +2851,34 @@
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O18" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
         <v>1.34</v>
       </c>
       <c r="S18" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U18" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V18" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W18" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="X18" t="n">
         <v>13</v>
@@ -2887,7 +2887,7 @@
         <v>10.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA18" t="n">
         <v>38</v>
@@ -2923,13 +2923,13 @@
         <v>34</v>
       </c>
       <c r="AL18" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM18" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN18" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO18" t="n">
         <v>25</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G19" t="n">
         <v>4.7</v>
@@ -2986,19 +2986,19 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q19" t="n">
         <v>1.65</v>
       </c>
       <c r="R19" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S19" t="n">
         <v>2.62</v>
@@ -3007,10 +3007,10 @@
         <v>1.64</v>
       </c>
       <c r="U19" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="V19" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W19" t="n">
         <v>1.27</v>
@@ -3034,7 +3034,7 @@
         <v>9.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE19" t="n">
         <v>16.5</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="G20" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I20" t="n">
         <v>6.2</v>
@@ -3127,13 +3127,13 @@
         <v>1.15</v>
       </c>
       <c r="P20" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
         <v>1.48</v>
       </c>
       <c r="R20" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S20" t="n">
         <v>2.18</v>
@@ -3142,13 +3142,13 @@
         <v>1.6</v>
       </c>
       <c r="U20" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="V20" t="n">
         <v>1.19</v>
       </c>
       <c r="W20" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="X20" t="n">
         <v>30</v>
@@ -3163,16 +3163,16 @@
         <v>150</v>
       </c>
       <c r="AB20" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD20" t="n">
         <v>23</v>
       </c>
       <c r="AE20" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF20" t="n">
         <v>12.5</v>
@@ -3187,7 +3187,7 @@
         <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK20" t="n">
         <v>14</v>
@@ -3199,7 +3199,7 @@
         <v>65</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AO20" t="n">
         <v>46</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G21" t="n">
         <v>1.32</v>
@@ -3244,7 +3244,7 @@
         <v>11.5</v>
       </c>
       <c r="J21" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="K21" t="n">
         <v>7</v>
@@ -3271,19 +3271,19 @@
         <v>1.97</v>
       </c>
       <c r="S21" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="T21" t="n">
         <v>1.73</v>
       </c>
       <c r="U21" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V21" t="n">
         <v>1.09</v>
       </c>
       <c r="W21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="X21" t="n">
         <v>40</v>
@@ -3319,10 +3319,10 @@
         <v>25</v>
       </c>
       <c r="AI21" t="n">
-        <v>990</v>
+        <v>95</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
         <v>12</v>
@@ -3331,13 +3331,13 @@
         <v>25</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
@@ -3430,7 +3430,7 @@
         <v>20</v>
       </c>
       <c r="AA22" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB22" t="n">
         <v>13.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -754,7 +754,7 @@
         <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -766,7 +766,7 @@
         <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.55</v>
+        <v>1.16</v>
       </c>
       <c r="G3" t="n">
-        <v>1.64</v>
+        <v>980</v>
       </c>
       <c r="H3" t="n">
-        <v>6.4</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>1.16</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9</v>
+        <v>980</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,61 +826,61 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.85</v>
+        <v>1.01</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>1.99</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
         <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="T3" t="n">
-        <v>1.91</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W3" t="n">
-        <v>2.56</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AC3" t="n">
         <v>970</v>
       </c>
       <c r="AD3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
         <v>970</v>
@@ -889,25 +889,25 @@
         <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
         <v>970</v>
       </c>
       <c r="AL3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AO3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -943,13 +943,13 @@
         <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="I4" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K4" t="n">
         <v>5</v>
@@ -964,7 +964,7 @@
         <v>5.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P4" t="n">
         <v>2.42</v>
@@ -973,25 +973,25 @@
         <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
         <v>2.68</v>
       </c>
       <c r="T4" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="U4" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="V4" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="W4" t="n">
         <v>1.2</v>
       </c>
       <c r="X4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>15.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
         <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="n">
         <v>22</v>
@@ -1033,7 +1033,7 @@
         <v>70</v>
       </c>
       <c r="AL4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM4" t="n">
         <v>90</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>1.35</v>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>980</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>1.09</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>980</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>1.8</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>980</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,88 +1096,88 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.8</v>
+        <v>1.39</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>1.98</v>
+        <v>1.39</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.84</v>
+        <v>1.24</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="S5" t="n">
-        <v>3.1</v>
+        <v>1.24</v>
       </c>
       <c r="T5" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="X5" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Z5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA5" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AH5" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="G6" t="n">
         <v>1.78</v>
       </c>
       <c r="H6" t="n">
-        <v>4.6</v>
+        <v>1.27</v>
       </c>
       <c r="I6" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>4.3</v>
+        <v>1.09</v>
       </c>
       <c r="K6" t="n">
-        <v>4.9</v>
+        <v>950</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,88 +1231,88 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>1.01</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>2.7</v>
+        <v>1.22</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.48</v>
+        <v>1.13</v>
       </c>
       <c r="R6" t="n">
-        <v>1.69</v>
+        <v>1.21</v>
       </c>
       <c r="S6" t="n">
-        <v>2.16</v>
+        <v>1.13</v>
       </c>
       <c r="T6" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W6" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="X6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AA6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="I7" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="J7" t="n">
         <v>6.4</v>
       </c>
       <c r="K7" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L7" t="n">
         <v>1.22</v>
@@ -1369,10 +1369,10 @@
         <v>8.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P7" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
         <v>1.37</v>
@@ -1381,16 +1381,16 @@
         <v>2.02</v>
       </c>
       <c r="S7" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="T7" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U7" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="W7" t="n">
         <v>1.13</v>
@@ -1399,7 +1399,7 @@
         <v>42</v>
       </c>
       <c r="Y7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z7" t="n">
         <v>12</v>
@@ -1408,7 +1408,7 @@
         <v>13.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
         <v>15.5</v>
@@ -1420,7 +1420,7 @@
         <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
         <v>32</v>
@@ -1432,7 +1432,7 @@
         <v>24</v>
       </c>
       <c r="AJ7" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="AK7" t="n">
         <v>90</v>
@@ -1444,10 +1444,10 @@
         <v>75</v>
       </c>
       <c r="AN7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="8">
@@ -1477,76 +1477,76 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="G8" t="n">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="H8" t="n">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="I8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J8" t="n">
         <v>2.76</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.42</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>1.02</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.74</v>
+        <v>1.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>1.1</v>
       </c>
       <c r="S8" t="n">
-        <v>3.85</v>
+        <v>1.01</v>
       </c>
       <c r="T8" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W8" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Z8" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="AD8" t="n">
         <v>970</v>
@@ -1555,34 +1555,34 @@
         <v>34</v>
       </c>
       <c r="AF8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AH8" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
         <v>50</v>
       </c>
       <c r="AJ8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1645,7 +1645,7 @@
         <v>1.08</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="R9" t="n">
         <v>1.08</v>
@@ -1747,58 +1747,58 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.1</v>
+        <v>1.09</v>
       </c>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="n">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="I10" t="n">
-        <v>1.66</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>1.02</v>
       </c>
       <c r="K10" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>3.5</v>
+        <v>1.08</v>
       </c>
       <c r="O10" t="n">
         <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>1.9</v>
+        <v>1.08</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.35</v>
+        <v>1.08</v>
       </c>
       <c r="S10" t="n">
-        <v>2.78</v>
+        <v>1.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>2.5</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
         <v>970</v>
@@ -1807,13 +1807,13 @@
         <v>970</v>
       </c>
       <c r="Z10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
         <v>970</v>
@@ -1825,16 +1825,16 @@
         <v>970</v>
       </c>
       <c r="AF10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG10" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI10" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.58</v>
+        <v>1.18</v>
       </c>
       <c r="G11" t="n">
-        <v>1.71</v>
+        <v>980</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>1.05</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>980</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>1.18</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>980</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,22 +1906,22 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>5.6</v>
+        <v>1.01</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.62</v>
+        <v>1.15</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.49</v>
+        <v>1.16</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.08</v>
       </c>
       <c r="S11" t="n">
-        <v>2.16</v>
+        <v>1.16</v>
       </c>
       <c r="T11" t="n">
         <v>1.01</v>
@@ -1933,7 +1933,7 @@
         <v>1.17</v>
       </c>
       <c r="W11" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H12" t="n">
         <v>4.4</v>
       </c>
       <c r="I12" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
         <v>4.6</v>
@@ -2041,46 +2041,46 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="O12" t="n">
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.16</v>
+        <v>1.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.23</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>1.08</v>
       </c>
       <c r="S12" t="n">
-        <v>2.7</v>
+        <v>1.23</v>
       </c>
       <c r="T12" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA12" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
         <v>970</v>
@@ -2089,10 +2089,10 @@
         <v>970</v>
       </c>
       <c r="AD12" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF12" t="n">
         <v>970</v>
@@ -2107,7 +2107,7 @@
         <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
         <v>970</v>
@@ -2116,13 +2116,13 @@
         <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
         <v>970</v>
       </c>
       <c r="AO12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -2155,88 +2155,88 @@
         <v>3.15</v>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="H13" t="n">
         <v>2.22</v>
       </c>
       <c r="I13" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J13" t="n">
         <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>85</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="O13" t="n">
         <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.08</v>
+        <v>1.22</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.75</v>
+        <v>1.26</v>
       </c>
       <c r="R13" t="n">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="S13" t="n">
-        <v>2.86</v>
+        <v>1.26</v>
       </c>
       <c r="T13" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W13" t="n">
         <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD13" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AE13" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
         <v>26</v>
       </c>
       <c r="AG13" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
         <v>34</v>
@@ -2245,19 +2245,19 @@
         <v>60</v>
       </c>
       <c r="AK13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL13" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO13" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.41</v>
+        <v>1.11</v>
       </c>
       <c r="G14" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="H14" t="n">
-        <v>8.800000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="I14" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="J14" t="n">
-        <v>4.8</v>
+        <v>1.01</v>
       </c>
       <c r="K14" t="n">
-        <v>5.7</v>
+        <v>980</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>2.18</v>
+        <v>1.08</v>
       </c>
       <c r="O14" t="n">
         <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>2.18</v>
+        <v>1.08</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.68</v>
+        <v>1.23</v>
       </c>
       <c r="R14" t="n">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="S14" t="n">
-        <v>2.44</v>
+        <v>1.23</v>
       </c>
       <c r="T14" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
         <v>1.1</v>
       </c>
       <c r="W14" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="X14" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Y14" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z14" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AC14" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AD14" t="n">
         <v>44</v>
       </c>
       <c r="AE14" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AH14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI14" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AK14" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AL14" t="n">
         <v>48</v>
       </c>
       <c r="AM14" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.4</v>
+        <v>970</v>
       </c>
       <c r="AO14" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.32</v>
+        <v>1.04</v>
       </c>
       <c r="G15" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
-        <v>2.76</v>
+        <v>1.04</v>
       </c>
       <c r="I15" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.9</v>
+        <v>1.01</v>
       </c>
       <c r="K15" t="n">
         <v>950</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.68</v>
+        <v>1.15</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G16" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="I16" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="J16" t="n">
         <v>3.75</v>
@@ -2575,7 +2575,7 @@
         <v>3.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
@@ -2590,7 +2590,7 @@
         <v>2.16</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R16" t="n">
         <v>1.45</v>
@@ -2605,37 +2605,37 @@
         <v>2.34</v>
       </c>
       <c r="V16" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="W16" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X16" t="n">
-        <v>16.5</v>
+        <v>100</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC16" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE16" t="n">
         <v>26</v>
       </c>
       <c r="AF16" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG16" t="n">
         <v>12.5</v>
@@ -2647,7 +2647,7 @@
         <v>36</v>
       </c>
       <c r="AJ16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK16" t="n">
         <v>29</v>
@@ -2659,10 +2659,10 @@
         <v>75</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="17">
@@ -2716,28 +2716,28 @@
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O17" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P17" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="R17" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T17" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V17" t="n">
         <v>2.06</v>
@@ -2746,31 +2746,31 @@
         <v>1.26</v>
       </c>
       <c r="X17" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA17" t="n">
         <v>22</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC17" t="n">
         <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG17" t="n">
         <v>19</v>
@@ -2779,7 +2779,7 @@
         <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="n">
         <v>110</v>
@@ -2797,7 +2797,7 @@
         <v>80</v>
       </c>
       <c r="AO17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="18">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
         <v>3.05</v>
@@ -2866,22 +2866,22 @@
         <v>1.34</v>
       </c>
       <c r="S18" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T18" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U18" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V18" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W18" t="n">
         <v>1.49</v>
       </c>
       <c r="X18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y18" t="n">
         <v>10.5</v>
@@ -2971,7 +2971,7 @@
         <v>1.8</v>
       </c>
       <c r="I19" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="J19" t="n">
         <v>4.3</v>
@@ -2992,25 +2992,25 @@
         <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R19" t="n">
         <v>1.59</v>
       </c>
       <c r="S19" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T19" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="U19" t="n">
         <v>2.44</v>
       </c>
       <c r="V19" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="W19" t="n">
         <v>1.27</v>
@@ -3019,7 +3019,7 @@
         <v>21</v>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z19" t="n">
         <v>13</v>
@@ -3028,7 +3028,7 @@
         <v>20</v>
       </c>
       <c r="AB19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
         <v>9.6</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="G20" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J20" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
         <v>5.1</v>
@@ -3148,22 +3148,22 @@
         <v>1.19</v>
       </c>
       <c r="W20" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="X20" t="n">
         <v>30</v>
       </c>
       <c r="Y20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA20" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC20" t="n">
         <v>12</v>
@@ -3172,7 +3172,7 @@
         <v>23</v>
       </c>
       <c r="AE20" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF20" t="n">
         <v>12.5</v>
@@ -3187,7 +3187,7 @@
         <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK20" t="n">
         <v>14</v>
@@ -3196,10 +3196,10 @@
         <v>24</v>
       </c>
       <c r="AM20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AO20" t="n">
         <v>46</v>
@@ -3238,10 +3238,10 @@
         <v>1.32</v>
       </c>
       <c r="H21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="J21" t="n">
         <v>6.6</v>
@@ -3274,13 +3274,13 @@
         <v>1.98</v>
       </c>
       <c r="T21" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U21" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V21" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W21" t="n">
         <v>4.1</v>
@@ -3289,13 +3289,13 @@
         <v>40</v>
       </c>
       <c r="Y21" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z21" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AB21" t="n">
         <v>14.5</v>
@@ -3304,10 +3304,10 @@
         <v>16</v>
       </c>
       <c r="AD21" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE21" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF21" t="n">
         <v>11</v>
@@ -3319,7 +3319,7 @@
         <v>25</v>
       </c>
       <c r="AI21" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ21" t="n">
         <v>12</v>
@@ -3331,13 +3331,13 @@
         <v>25</v>
       </c>
       <c r="AM21" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AO21" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G22" t="n">
         <v>2.6</v>
       </c>
-      <c r="G22" t="n">
-        <v>2.64</v>
-      </c>
       <c r="H22" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="I22" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J22" t="n">
         <v>3.8</v>
@@ -3409,25 +3409,25 @@
         <v>3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="U22" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="V22" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W22" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X22" t="n">
         <v>17.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z22" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA22" t="n">
         <v>42</v>
@@ -3469,7 +3469,7 @@
         <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO22" t="n">
         <v>20</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.16</v>
+        <v>1.54</v>
       </c>
       <c r="G3" t="n">
-        <v>980</v>
+        <v>1.64</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>6.4</v>
       </c>
       <c r="I3" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="J3" t="n">
-        <v>1.16</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>980</v>
+        <v>4.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>1.98</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="S3" t="n">
-        <v>1.85</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V3" t="n">
         <v>1.15</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
         <v>27</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AB3" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
         <v>30</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG3" t="n">
         <v>970</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK3" t="n">
         <v>970</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN3" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="H4" t="n">
         <v>1.58</v>
@@ -949,10 +949,10 @@
         <v>1.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.32</v>
@@ -961,28 +961,28 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R4" t="n">
         <v>1.57</v>
       </c>
       <c r="S4" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T4" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="U4" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
         <v>2.66</v>
@@ -1003,19 +1003,19 @@
         <v>15.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AE4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG4" t="n">
         <v>22</v>
@@ -1033,7 +1033,7 @@
         <v>70</v>
       </c>
       <c r="AL4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM4" t="n">
         <v>90</v>
@@ -1042,7 +1042,7 @@
         <v>65</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.35</v>
+        <v>2.08</v>
       </c>
       <c r="G5" t="n">
-        <v>980</v>
+        <v>2.26</v>
       </c>
       <c r="H5" t="n">
-        <v>1.09</v>
+        <v>3.35</v>
       </c>
       <c r="I5" t="n">
-        <v>980</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>1.39</v>
+        <v>4.4</v>
       </c>
       <c r="O5" t="n">
         <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>1.39</v>
+        <v>2.16</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.24</v>
+        <v>1.69</v>
       </c>
       <c r="R5" t="n">
-        <v>1.21</v>
+        <v>1.46</v>
       </c>
       <c r="S5" t="n">
-        <v>1.24</v>
+        <v>2.74</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="X5" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AC5" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF5" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G6" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="H6" t="n">
-        <v>1.27</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="J6" t="n">
-        <v>1.09</v>
+        <v>4.4</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>1.22</v>
+        <v>2.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.13</v>
+        <v>1.47</v>
       </c>
       <c r="R6" t="n">
-        <v>1.21</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>1.13</v>
+        <v>2.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="V6" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="X6" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Y6" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB6" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AC6" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -1345,13 +1345,13 @@
         <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="H7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.38</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.39</v>
       </c>
       <c r="J7" t="n">
         <v>6.4</v>
@@ -1369,7 +1369,7 @@
         <v>8.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P7" t="n">
         <v>3.5</v>
@@ -1381,7 +1381,7 @@
         <v>2.02</v>
       </c>
       <c r="S7" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="T7" t="n">
         <v>1.62</v>
@@ -1390,16 +1390,16 @@
         <v>2.48</v>
       </c>
       <c r="V7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="W7" t="n">
         <v>1.13</v>
       </c>
       <c r="X7" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z7" t="n">
         <v>12</v>
@@ -1408,19 +1408,19 @@
         <v>13.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AC7" t="n">
         <v>15.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="n">
         <v>32</v>
@@ -1432,7 +1432,7 @@
         <v>24</v>
       </c>
       <c r="AJ7" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
         <v>90</v>
@@ -1444,10 +1444,10 @@
         <v>75</v>
       </c>
       <c r="AN7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="8">
@@ -1477,52 +1477,52 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G8" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
         <v>2.66</v>
       </c>
       <c r="I8" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K8" t="n">
         <v>3.55</v>
       </c>
-      <c r="J8" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>1.02</v>
+        <v>3.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.1</v>
+        <v>1.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V8" t="n">
         <v>1.56</v>
@@ -1531,25 +1531,25 @@
         <v>1.53</v>
       </c>
       <c r="X8" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z8" t="n">
         <v>970</v>
       </c>
-      <c r="Y8" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB8" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AE8" t="n">
         <v>34</v>
@@ -1558,10 +1558,10 @@
         <v>21</v>
       </c>
       <c r="AG8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH8" t="n">
         <v>970</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>1000</v>
       </c>
       <c r="AI8" t="n">
         <v>50</v>
@@ -1573,13 +1573,13 @@
         <v>40</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AO8" t="n">
         <v>32</v>
@@ -1636,13 +1636,13 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.08</v>
+        <v>1.7</v>
       </c>
       <c r="Q9" t="n">
         <v>1.32</v>
@@ -1747,73 +1747,73 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.09</v>
+        <v>5.2</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>1.66</v>
       </c>
       <c r="J10" t="n">
-        <v>1.02</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
         <v>4.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>1.08</v>
+        <v>3.15</v>
       </c>
       <c r="O10" t="n">
         <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>1.08</v>
+        <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.3</v>
+        <v>1.76</v>
       </c>
       <c r="R10" t="n">
-        <v>1.08</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>1.3</v>
+        <v>2.66</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="X10" t="n">
         <v>970</v>
       </c>
       <c r="Y10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z10" t="n">
         <v>970</v>
       </c>
-      <c r="Z10" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
         <v>970</v>
@@ -1825,16 +1825,16 @@
         <v>970</v>
       </c>
       <c r="AF10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AI10" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.18</v>
+        <v>1.6</v>
       </c>
       <c r="G11" t="n">
-        <v>980</v>
+        <v>1.68</v>
       </c>
       <c r="H11" t="n">
-        <v>1.05</v>
+        <v>5.2</v>
       </c>
       <c r="I11" t="n">
-        <v>980</v>
+        <v>6.2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.18</v>
+        <v>4.6</v>
       </c>
       <c r="K11" t="n">
-        <v>980</v>
+        <v>5.2</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,88 +1906,88 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>1.15</v>
+        <v>2.58</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.16</v>
+        <v>1.45</v>
       </c>
       <c r="R11" t="n">
-        <v>1.08</v>
+        <v>1.64</v>
       </c>
       <c r="S11" t="n">
-        <v>1.16</v>
+        <v>2.08</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -2017,52 +2017,52 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="G12" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="O12" t="n">
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>1.16</v>
+        <v>2.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.23</v>
+        <v>1.68</v>
       </c>
       <c r="R12" t="n">
-        <v>1.08</v>
+        <v>1.46</v>
       </c>
       <c r="S12" t="n">
-        <v>1.23</v>
+        <v>2.72</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
         <v>1.25</v>
@@ -2071,16 +2071,16 @@
         <v>2.12</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z12" t="n">
         <v>46</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB12" t="n">
         <v>970</v>
@@ -2089,10 +2089,10 @@
         <v>970</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE12" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF12" t="n">
         <v>970</v>
@@ -2107,7 +2107,7 @@
         <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK12" t="n">
         <v>970</v>
@@ -2116,13 +2116,13 @@
         <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN12" t="n">
         <v>970</v>
       </c>
       <c r="AO12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="G13" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H13" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="I13" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="J13" t="n">
         <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>85</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="O13" t="n">
         <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>1.22</v>
+        <v>2.06</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="R13" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="S13" t="n">
-        <v>1.26</v>
+        <v>2.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="V13" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="W13" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X13" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB13" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK13" t="n">
         <v>36</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO13" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.11</v>
+        <v>1.41</v>
       </c>
       <c r="G14" t="n">
         <v>1.46</v>
       </c>
       <c r="H14" t="n">
-        <v>1.09</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="J14" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="K14" t="n">
-        <v>980</v>
+        <v>5.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>1.08</v>
+        <v>4.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>1.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.23</v>
+        <v>1.68</v>
       </c>
       <c r="R14" t="n">
-        <v>1.08</v>
+        <v>1.46</v>
       </c>
       <c r="S14" t="n">
-        <v>1.23</v>
+        <v>2.74</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V14" t="n">
         <v>1.1</v>
       </c>
       <c r="W14" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="X14" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>390</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD14" t="n">
         <v>40</v>
       </c>
-      <c r="Z14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD14" t="n">
+      <c r="AE14" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL14" t="n">
         <v>44</v>
       </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>48</v>
-      </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="n">
-        <v>970</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>2.34</v>
       </c>
       <c r="G15" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.2</v>
       </c>
-      <c r="H15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.01</v>
-      </c>
       <c r="K15" t="n">
-        <v>950</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.15</v>
+        <v>1.66</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="G16" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="H16" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="J16" t="n">
         <v>3.75</v>
@@ -2575,7 +2575,7 @@
         <v>3.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
@@ -2587,40 +2587,40 @@
         <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R16" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S16" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U16" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V16" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="W16" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X16" t="n">
-        <v>100</v>
+        <v>17.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z16" t="n">
         <v>17.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB16" t="n">
         <v>14</v>
@@ -2632,10 +2632,10 @@
         <v>11.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG16" t="n">
         <v>12.5</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="G17" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H17" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="I17" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="J17" t="n">
         <v>3.7</v>
@@ -2722,7 +2722,7 @@
         <v>1.35</v>
       </c>
       <c r="P17" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q17" t="n">
         <v>2.08</v>
@@ -2731,19 +2731,19 @@
         <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U17" t="n">
         <v>2.02</v>
       </c>
       <c r="V17" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="W17" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X17" t="n">
         <v>13.5</v>
@@ -2758,7 +2758,7 @@
         <v>22</v>
       </c>
       <c r="AB17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
         <v>8</v>
@@ -2773,10 +2773,10 @@
         <v>34</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
         <v>38</v>
@@ -2788,13 +2788,13 @@
         <v>65</v>
       </c>
       <c r="AL17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN17" t="n">
         <v>75</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>80</v>
       </c>
       <c r="AO17" t="n">
         <v>14.5</v>
@@ -2833,7 +2833,7 @@
         <v>3.05</v>
       </c>
       <c r="H18" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I18" t="n">
         <v>2.64</v>
@@ -2851,28 +2851,28 @@
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P18" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R18" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S18" t="n">
         <v>3.85</v>
       </c>
       <c r="T18" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U18" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V18" t="n">
         <v>1.61</v>
@@ -2911,7 +2911,7 @@
         <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
         <v>44</v>
@@ -2920,7 +2920,7 @@
         <v>48</v>
       </c>
       <c r="AK18" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL18" t="n">
         <v>48</v>
@@ -2929,10 +2929,10 @@
         <v>100</v>
       </c>
       <c r="AN18" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
@@ -2971,10 +2971,10 @@
         <v>1.8</v>
       </c>
       <c r="I19" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="J19" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K19" t="n">
         <v>4.4</v>
@@ -2986,13 +2986,13 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="O19" t="n">
         <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="Q19" t="n">
         <v>1.64</v>
@@ -3004,13 +3004,13 @@
         <v>2.6</v>
       </c>
       <c r="T19" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="U19" t="n">
         <v>2.44</v>
       </c>
       <c r="V19" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="W19" t="n">
         <v>1.27</v>
@@ -3019,7 +3019,7 @@
         <v>21</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
         <v>13</v>
@@ -3028,7 +3028,7 @@
         <v>20</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC19" t="n">
         <v>9.6</v>
@@ -3043,7 +3043,7 @@
         <v>38</v>
       </c>
       <c r="AG19" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH19" t="n">
         <v>16.5</v>
@@ -3052,7 +3052,7 @@
         <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK19" t="n">
         <v>48</v>
@@ -3067,7 +3067,7 @@
         <v>40</v>
       </c>
       <c r="AO19" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="G20" t="n">
         <v>1.57</v>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I20" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J20" t="n">
         <v>5</v>
@@ -3127,7 +3127,7 @@
         <v>1.15</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="Q20" t="n">
         <v>1.48</v>
@@ -3136,22 +3136,22 @@
         <v>1.81</v>
       </c>
       <c r="S20" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="T20" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U20" t="n">
         <v>2.56</v>
       </c>
       <c r="V20" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W20" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="X20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y20" t="n">
         <v>34</v>
@@ -3184,7 +3184,7 @@
         <v>17.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="n">
         <v>16</v>
@@ -3199,7 +3199,7 @@
         <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AO20" t="n">
         <v>46</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G21" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="H21" t="n">
         <v>10</v>
@@ -3244,7 +3244,7 @@
         <v>10.5</v>
       </c>
       <c r="J21" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K21" t="n">
         <v>7</v>
@@ -3256,7 +3256,7 @@
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
         <v>1.12</v>
@@ -3268,40 +3268,40 @@
         <v>1.39</v>
       </c>
       <c r="R21" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S21" t="n">
         <v>1.98</v>
       </c>
       <c r="T21" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U21" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V21" t="n">
         <v>1.1</v>
       </c>
       <c r="W21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="X21" t="n">
         <v>40</v>
       </c>
       <c r="Y21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z21" t="n">
         <v>110</v>
       </c>
       <c r="AA21" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="AB21" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC21" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD21" t="n">
         <v>38</v>
@@ -3316,7 +3316,7 @@
         <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI21" t="n">
         <v>90</v>
@@ -3325,7 +3325,7 @@
         <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AL21" t="n">
         <v>25</v>
@@ -3334,7 +3334,7 @@
         <v>90</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AO21" t="n">
         <v>85</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G22" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="H22" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I22" t="n">
         <v>2.8</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.82</v>
       </c>
       <c r="J22" t="n">
         <v>3.8</v>
@@ -3397,7 +3397,7 @@
         <v>1.26</v>
       </c>
       <c r="P22" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q22" t="n">
         <v>1.79</v>
@@ -3406,25 +3406,25 @@
         <v>1.47</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T22" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="U22" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V22" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W22" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="X22" t="n">
         <v>17.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z22" t="n">
         <v>19.5</v>
@@ -3433,7 +3433,7 @@
         <v>42</v>
       </c>
       <c r="AB22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC22" t="n">
         <v>8.199999999999999</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -691,7 +691,7 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="G3" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H3" t="n">
         <v>6.4</v>
@@ -832,7 +832,7 @@
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
         <v>1.81</v>
@@ -862,31 +862,31 @@
         <v>27</v>
       </c>
       <c r="Z3" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AA3" t="n">
         <v>260</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE3" t="n">
         <v>130</v>
       </c>
       <c r="AF3" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
         <v>120</v>
@@ -895,16 +895,16 @@
         <v>18</v>
       </c>
       <c r="AK3" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AM3" t="n">
         <v>160</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AO3" t="n">
         <v>160</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="G4" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K4" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.32</v>
@@ -961,7 +961,7 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.21</v>
@@ -982,16 +982,16 @@
         <v>1.76</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V4" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="W4" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
@@ -1000,10 +1000,10 @@
         <v>10.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
@@ -1012,13 +1012,13 @@
         <v>9.6</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
         <v>20</v>
@@ -1030,19 +1030,19 @@
         <v>160</v>
       </c>
       <c r="AK4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL4" t="n">
         <v>70</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>65</v>
       </c>
       <c r="AM4" t="n">
         <v>90</v>
       </c>
       <c r="AN4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO4" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="5">
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="G5" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1105,7 +1105,7 @@
         <v>2.16</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
         <v>1.46</v>
@@ -1114,16 +1114,16 @@
         <v>2.74</v>
       </c>
       <c r="T5" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="U5" t="n">
         <v>2.3</v>
       </c>
       <c r="V5" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X5" t="n">
         <v>23</v>
@@ -1147,7 +1147,7 @@
         <v>17.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF5" t="n">
         <v>17.5</v>
@@ -1171,13 +1171,13 @@
         <v>36</v>
       </c>
       <c r="AM5" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN5" t="n">
         <v>15</v>
       </c>
       <c r="AO5" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G6" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H6" t="n">
         <v>5</v>
@@ -1219,10 +1219,10 @@
         <v>5.9</v>
       </c>
       <c r="J6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L6" t="n">
         <v>1.22</v>
@@ -1240,13 +1240,13 @@
         <v>2.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R6" t="n">
         <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="T6" t="n">
         <v>1.58</v>
@@ -1255,13 +1255,13 @@
         <v>2.4</v>
       </c>
       <c r="V6" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W6" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X6" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="n">
         <v>34</v>
@@ -1273,19 +1273,19 @@
         <v>130</v>
       </c>
       <c r="AB6" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AC6" t="n">
         <v>13.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
         <v>12.5</v>
@@ -1294,19 +1294,19 @@
         <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
         <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN6" t="n">
         <v>6.4</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="G7" t="n">
         <v>8.6</v>
@@ -1357,7 +1357,7 @@
         <v>6.4</v>
       </c>
       <c r="K7" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.22</v>
@@ -1372,7 +1372,7 @@
         <v>1.12</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q7" t="n">
         <v>1.37</v>
@@ -1384,7 +1384,7 @@
         <v>1.94</v>
       </c>
       <c r="T7" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U7" t="n">
         <v>2.48</v>
@@ -1396,7 +1396,7 @@
         <v>1.13</v>
       </c>
       <c r="X7" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y7" t="n">
         <v>16</v>
@@ -1414,7 +1414,7 @@
         <v>15.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
@@ -1483,52 +1483,52 @@
         <v>2.9</v>
       </c>
       <c r="H8" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I8" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R8" t="n">
         <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U8" t="n">
         <v>1.98</v>
       </c>
       <c r="V8" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="W8" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X8" t="n">
         <v>14</v>
@@ -1537,7 +1537,7 @@
         <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AA8" t="n">
         <v>44</v>
@@ -1570,7 +1570,7 @@
         <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="n">
         <v>55</v>
@@ -1579,7 +1579,7 @@
         <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO8" t="n">
         <v>32</v>
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.02</v>
+        <v>1.89</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>2.16</v>
       </c>
       <c r="H9" t="n">
-        <v>1.02</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="J9" t="n">
-        <v>1.02</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>1.7</v>
+        <v>3.15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.32</v>
+        <v>1.96</v>
       </c>
       <c r="R9" t="n">
-        <v>1.08</v>
+        <v>1.31</v>
       </c>
       <c r="S9" t="n">
-        <v>1.32</v>
+        <v>3.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="W9" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -1777,16 +1777,16 @@
         <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="R10" t="n">
         <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="T10" t="n">
         <v>1.96</v>
@@ -1795,7 +1795,7 @@
         <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="W10" t="n">
         <v>1.14</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G11" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I11" t="n">
         <v>6.2</v>
       </c>
       <c r="J11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K11" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,7 +1906,7 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.17</v>
@@ -1915,19 +1915,19 @@
         <v>2.58</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
         <v>1.64</v>
       </c>
       <c r="S11" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="T11" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V11" t="n">
         <v>1.2</v>
@@ -2017,28 +2017,28 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="G12" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="H12" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
         <v>5.2</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.28</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
         <v>3.9</v>
@@ -2047,7 +2047,7 @@
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q12" t="n">
         <v>1.68</v>
@@ -2059,13 +2059,13 @@
         <v>2.72</v>
       </c>
       <c r="T12" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W12" t="n">
         <v>2.12</v>
@@ -2080,7 +2080,7 @@
         <v>46</v>
       </c>
       <c r="AA12" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB12" t="n">
         <v>970</v>
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="J13" t="n">
         <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2182,7 +2182,7 @@
         <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q13" t="n">
         <v>1.75</v>
@@ -2191,49 +2191,49 @@
         <v>1.42</v>
       </c>
       <c r="S13" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T13" t="n">
         <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V13" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="W13" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X13" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA13" t="n">
         <v>34</v>
       </c>
       <c r="AB13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC13" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH13" t="n">
         <v>17</v>
@@ -2245,19 +2245,19 @@
         <v>55</v>
       </c>
       <c r="AK13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM13" t="n">
         <v>80</v>
       </c>
       <c r="AN13" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -2290,13 +2290,13 @@
         <v>1.41</v>
       </c>
       <c r="G14" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="H14" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="I14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J14" t="n">
         <v>4.8</v>
@@ -2305,7 +2305,7 @@
         <v>5.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2317,28 +2317,28 @@
         <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R14" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S14" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T14" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U14" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V14" t="n">
         <v>1.1</v>
       </c>
       <c r="W14" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="X14" t="n">
         <v>24</v>
@@ -2347,13 +2347,13 @@
         <v>36</v>
       </c>
       <c r="Z14" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AA14" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
         <v>14</v>
@@ -2362,13 +2362,13 @@
         <v>40</v>
       </c>
       <c r="AE14" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="n">
         <v>10</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
         <v>32</v>
@@ -2377,13 +2377,13 @@
         <v>140</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AK14" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM14" t="n">
         <v>170</v>
@@ -2392,7 +2392,7 @@
         <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="G15" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I15" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>1.66</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H16" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I16" t="n">
         <v>2.5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.52</v>
       </c>
       <c r="J16" t="n">
         <v>3.75</v>
@@ -2575,28 +2575,28 @@
         <v>3.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O16" t="n">
         <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q16" t="n">
         <v>1.8</v>
       </c>
       <c r="R16" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T16" t="n">
         <v>1.67</v>
@@ -2605,10 +2605,10 @@
         <v>2.38</v>
       </c>
       <c r="V16" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="W16" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="X16" t="n">
         <v>17.5</v>
@@ -2617,10 +2617,10 @@
         <v>12.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB16" t="n">
         <v>14</v>
@@ -2644,13 +2644,13 @@
         <v>15.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ16" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL16" t="n">
         <v>38</v>
@@ -2662,7 +2662,7 @@
         <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="17">
@@ -2698,10 +2698,10 @@
         <v>4.7</v>
       </c>
       <c r="H17" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="I17" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="J17" t="n">
         <v>3.7</v>
@@ -2716,31 +2716,31 @@
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O17" t="n">
         <v>1.35</v>
       </c>
       <c r="P17" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q17" t="n">
         <v>2.08</v>
       </c>
       <c r="R17" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T17" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U17" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V17" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W17" t="n">
         <v>1.27</v>
@@ -2773,7 +2773,7 @@
         <v>34</v>
       </c>
       <c r="AG17" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
         <v>20</v>
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I18" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="O18" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="P18" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="R18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S18" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="U18" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W18" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA18" t="n">
         <v>38</v>
       </c>
       <c r="AB18" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD18" t="n">
         <v>12</v>
       </c>
       <c r="AE18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AJ18" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AK18" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AO18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="G19" t="n">
         <v>4.7</v>
       </c>
       <c r="H19" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I19" t="n">
         <v>1.82</v>
@@ -2980,13 +2980,13 @@
         <v>4.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O19" t="n">
         <v>1.21</v>
@@ -3001,13 +3001,13 @@
         <v>1.59</v>
       </c>
       <c r="S19" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T19" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U19" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V19" t="n">
         <v>2.2</v>
@@ -3016,7 +3016,7 @@
         <v>1.27</v>
       </c>
       <c r="X19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y19" t="n">
         <v>12</v>
@@ -3052,7 +3052,7 @@
         <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="n">
         <v>48</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G20" t="n">
         <v>1.55</v>
       </c>
-      <c r="G20" t="n">
-        <v>1.57</v>
-      </c>
       <c r="H20" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I20" t="n">
         <v>6.6</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K20" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.26</v>
@@ -3121,25 +3121,25 @@
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O20" t="n">
         <v>1.15</v>
       </c>
       <c r="P20" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R20" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S20" t="n">
         <v>2.16</v>
       </c>
       <c r="T20" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U20" t="n">
         <v>2.56</v>
@@ -3148,13 +3148,13 @@
         <v>1.18</v>
       </c>
       <c r="W20" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="X20" t="n">
         <v>29</v>
       </c>
       <c r="Y20" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z20" t="n">
         <v>60</v>
@@ -3169,10 +3169,10 @@
         <v>12</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF20" t="n">
         <v>12.5</v>
@@ -3181,16 +3181,16 @@
         <v>10</v>
       </c>
       <c r="AH20" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI20" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ20" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL20" t="n">
         <v>24</v>
@@ -3199,10 +3199,10 @@
         <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AO20" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -3256,7 +3256,7 @@
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="O21" t="n">
         <v>1.12</v>
@@ -3265,16 +3265,16 @@
         <v>3.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R21" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="S21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U21" t="n">
         <v>2.28</v>
@@ -3295,10 +3295,10 @@
         <v>110</v>
       </c>
       <c r="AA21" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="AB21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC21" t="n">
         <v>15.5</v>
@@ -3313,7 +3313,7 @@
         <v>11</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH21" t="n">
         <v>24</v>
@@ -3397,7 +3397,7 @@
         <v>1.26</v>
       </c>
       <c r="P22" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q22" t="n">
         <v>1.79</v>
@@ -3406,13 +3406,13 @@
         <v>1.47</v>
       </c>
       <c r="S22" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U22" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V22" t="n">
         <v>1.55</v>
@@ -3445,7 +3445,7 @@
         <v>28</v>
       </c>
       <c r="AF22" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG22" t="n">
         <v>12</v>
@@ -3469,10 +3469,10 @@
         <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>2.08</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>2.72</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N2" t="n">
-        <v>1.25</v>
+        <v>2.12</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="S2" t="n">
         <v>1.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI2" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AM2" t="n">
         <v>500</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="G3" t="n">
         <v>1.63</v>
@@ -814,10 +814,10 @@
         <v>7.8</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L3" t="n">
         <v>1.3</v>
@@ -826,13 +826,13 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q3" t="n">
         <v>1.81</v>
@@ -841,37 +841,37 @@
         <v>1.38</v>
       </c>
       <c r="S3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U3" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V3" t="n">
         <v>1.15</v>
       </c>
       <c r="W3" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="n">
         <v>27</v>
       </c>
       <c r="Z3" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA3" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AB3" t="n">
         <v>10</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
         <v>32</v>
@@ -892,7 +892,7 @@
         <v>120</v>
       </c>
       <c r="AJ3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK3" t="n">
         <v>21</v>
@@ -904,7 +904,7 @@
         <v>160</v>
       </c>
       <c r="AN3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO3" t="n">
         <v>160</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="G4" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="J4" t="n">
         <v>4.9</v>
@@ -970,28 +970,28 @@
         <v>2.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
         <v>1.57</v>
       </c>
       <c r="S4" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T4" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U4" t="n">
         <v>2.22</v>
       </c>
       <c r="V4" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="W4" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
@@ -1000,25 +1000,25 @@
         <v>10.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
         <v>20</v>
@@ -1030,7 +1030,7 @@
         <v>160</v>
       </c>
       <c r="AK4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL4" t="n">
         <v>70</v>
@@ -1039,10 +1039,10 @@
         <v>90</v>
       </c>
       <c r="AN4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1075,7 +1075,7 @@
         <v>2.14</v>
       </c>
       <c r="G5" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
@@ -1084,7 +1084,7 @@
         <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
@@ -1123,7 +1123,7 @@
         <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X5" t="n">
         <v>23</v>
@@ -1174,7 +1174,7 @@
         <v>75</v>
       </c>
       <c r="AN5" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AO5" t="n">
         <v>32</v>
@@ -1210,7 +1210,7 @@
         <v>1.64</v>
       </c>
       <c r="G6" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
         <v>5</v>
@@ -1222,7 +1222,7 @@
         <v>4.5</v>
       </c>
       <c r="K6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.22</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G7" t="n">
         <v>8.4</v>
       </c>
-      <c r="G7" t="n">
-        <v>8.6</v>
-      </c>
       <c r="H7" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="I7" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="J7" t="n">
         <v>6.4</v>
@@ -1387,10 +1387,10 @@
         <v>1.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="W7" t="n">
         <v>1.13</v>
@@ -1432,7 +1432,7 @@
         <v>24</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AK7" t="n">
         <v>90</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="G8" t="n">
         <v>2.9</v>
       </c>
       <c r="H8" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="I8" t="n">
         <v>2.8</v>
@@ -1492,7 +1492,7 @@
         <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L8" t="n">
         <v>1.46</v>
@@ -1507,25 +1507,25 @@
         <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q8" t="n">
         <v>2.12</v>
       </c>
       <c r="R8" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="T8" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="U8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W8" t="n">
         <v>1.52</v>
@@ -1573,10 +1573,10 @@
         <v>38</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="n">
         <v>38</v>
@@ -1612,28 +1612,28 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G9" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
         <v>3.15</v>
@@ -1642,19 +1642,19 @@
         <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q9" t="n">
         <v>1.96</v>
       </c>
       <c r="R9" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S9" t="n">
-        <v>3.2</v>
+        <v>2.26</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
         <v>2</v>
@@ -1663,7 +1663,7 @@
         <v>1.26</v>
       </c>
       <c r="W9" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="X9" t="n">
         <v>970</v>
@@ -1684,10 +1684,10 @@
         <v>970</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF9" t="n">
         <v>970</v>
@@ -1702,13 +1702,13 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="G10" t="n">
         <v>9</v>
@@ -1756,10 +1756,10 @@
         <v>1.53</v>
       </c>
       <c r="I10" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
         <v>4.9</v>
@@ -1786,7 +1786,7 @@
         <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="T10" t="n">
         <v>1.96</v>
@@ -1795,7 +1795,7 @@
         <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="W10" t="n">
         <v>1.14</v>
@@ -1885,10 +1885,10 @@
         <v>1.61</v>
       </c>
       <c r="G11" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H11" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I11" t="n">
         <v>6.2</v>
@@ -1912,16 +1912,16 @@
         <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="T11" t="n">
         <v>1.61</v>
@@ -1945,7 +1945,7 @@
         <v>60</v>
       </c>
       <c r="AA11" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB11" t="n">
         <v>15.5</v>
@@ -1984,10 +1984,10 @@
         <v>90</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="G12" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I12" t="n">
         <v>5.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K12" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.28</v>
@@ -2065,10 +2065,10 @@
         <v>2.18</v>
       </c>
       <c r="V12" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X12" t="n">
         <v>21</v>
@@ -2098,7 +2098,7 @@
         <v>970</v>
       </c>
       <c r="AG12" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
         <v>970</v>
@@ -2107,7 +2107,7 @@
         <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK12" t="n">
         <v>970</v>
@@ -2155,19 +2155,19 @@
         <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H13" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="I13" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="J13" t="n">
         <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.31</v>
@@ -2200,7 +2200,7 @@
         <v>2.26</v>
       </c>
       <c r="V13" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W13" t="n">
         <v>1.44</v>
@@ -2290,10 +2290,10 @@
         <v>1.41</v>
       </c>
       <c r="G14" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="H14" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="I14" t="n">
         <v>10.5</v>
@@ -2302,10 +2302,10 @@
         <v>4.8</v>
       </c>
       <c r="K14" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2317,28 +2317,28 @@
         <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R14" t="n">
         <v>1.47</v>
       </c>
       <c r="S14" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T14" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U14" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="V14" t="n">
         <v>1.1</v>
       </c>
       <c r="W14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="X14" t="n">
         <v>24</v>
@@ -2347,10 +2347,10 @@
         <v>36</v>
       </c>
       <c r="Z14" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AA14" t="n">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="AB14" t="n">
         <v>10.5</v>
@@ -2377,13 +2377,13 @@
         <v>140</v>
       </c>
       <c r="AJ14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK14" t="n">
         <v>17.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM14" t="n">
         <v>170</v>
@@ -2392,7 +2392,7 @@
         <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15">
@@ -2425,19 +2425,19 @@
         <v>2.4</v>
       </c>
       <c r="G15" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="H15" t="n">
         <v>3.05</v>
       </c>
       <c r="I15" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="J15" t="n">
         <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G16" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="I16" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="J16" t="n">
         <v>3.75</v>
@@ -2581,10 +2581,10 @@
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
         <v>2.2</v>
@@ -2596,7 +2596,7 @@
         <v>1.47</v>
       </c>
       <c r="S16" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
         <v>1.67</v>
@@ -2605,10 +2605,10 @@
         <v>2.38</v>
       </c>
       <c r="V16" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="W16" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="X16" t="n">
         <v>17.5</v>
@@ -2617,7 +2617,7 @@
         <v>12.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA16" t="n">
         <v>34</v>
@@ -2629,16 +2629,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
         <v>24</v>
       </c>
       <c r="AF16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
         <v>15.5</v>
@@ -2659,10 +2659,10 @@
         <v>75</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="G17" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H17" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="I17" t="n">
         <v>1.96</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K17" t="n">
         <v>3.75</v>
@@ -2725,13 +2725,13 @@
         <v>1.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R17" t="n">
         <v>1.34</v>
       </c>
       <c r="S17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T17" t="n">
         <v>1.9</v>
@@ -2770,10 +2770,10 @@
         <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH17" t="n">
         <v>20</v>
@@ -2836,7 +2836,7 @@
         <v>2.64</v>
       </c>
       <c r="I18" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J18" t="n">
         <v>3.35</v>
@@ -2857,7 +2857,7 @@
         <v>1.41</v>
       </c>
       <c r="P18" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q18" t="n">
         <v>2.26</v>
@@ -2866,25 +2866,25 @@
         <v>1.3</v>
       </c>
       <c r="S18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T18" t="n">
         <v>1.89</v>
       </c>
       <c r="U18" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V18" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W18" t="n">
         <v>1.47</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z18" t="n">
         <v>15.5</v>
@@ -2908,7 +2908,7 @@
         <v>18.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH18" t="n">
         <v>19</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G19" t="n">
         <v>4.7</v>
@@ -2992,25 +2992,25 @@
         <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q19" t="n">
         <v>1.64</v>
       </c>
       <c r="R19" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S19" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T19" t="n">
         <v>1.65</v>
       </c>
       <c r="U19" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V19" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W19" t="n">
         <v>1.27</v>
@@ -3022,7 +3022,7 @@
         <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA19" t="n">
         <v>20</v>
@@ -3097,25 +3097,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="G20" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="H20" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I20" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
         <v>5.1</v>
       </c>
-      <c r="K20" t="n">
-        <v>5.2</v>
-      </c>
       <c r="L20" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -3124,19 +3124,19 @@
         <v>7.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="R20" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S20" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="T20" t="n">
         <v>1.62</v>
@@ -3145,49 +3145,49 @@
         <v>2.56</v>
       </c>
       <c r="V20" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="W20" t="n">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="X20" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Y20" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AA20" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AB20" t="n">
         <v>14</v>
       </c>
       <c r="AC20" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI20" t="n">
         <v>70</v>
       </c>
-      <c r="AF20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>60</v>
-      </c>
       <c r="AJ20" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK20" t="n">
         <v>13.5</v>
@@ -3196,13 +3196,13 @@
         <v>24</v>
       </c>
       <c r="AM20" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AO20" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
     </row>
     <row r="21">
@@ -3256,25 +3256,25 @@
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="O21" t="n">
         <v>1.12</v>
       </c>
       <c r="P21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R21" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T21" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U21" t="n">
         <v>2.28</v>
@@ -3298,7 +3298,7 @@
         <v>350</v>
       </c>
       <c r="AB21" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC21" t="n">
         <v>15.5</v>
@@ -3313,10 +3313,10 @@
         <v>11</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
         <v>90</v>
@@ -3334,10 +3334,10 @@
         <v>90</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G22" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H22" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="I22" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="J22" t="n">
         <v>3.8</v>
@@ -3400,7 +3400,7 @@
         <v>2.22</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R22" t="n">
         <v>1.47</v>
@@ -3412,16 +3412,16 @@
         <v>1.66</v>
       </c>
       <c r="U22" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V22" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W22" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X22" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y22" t="n">
         <v>13.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -691,7 +691,7 @@
         <v>1.12</v>
       </c>
       <c r="N2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="O2" t="n">
         <v>1.56</v>
@@ -712,13 +712,13 @@
         <v>2.3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="V2" t="n">
         <v>1.92</v>
       </c>
       <c r="W2" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X2" t="n">
         <v>9.199999999999999</v>
@@ -811,7 +811,7 @@
         <v>6.4</v>
       </c>
       <c r="I3" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J3" t="n">
         <v>4.3</v>
@@ -820,34 +820,34 @@
         <v>4.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q3" t="n">
         <v>1.81</v>
       </c>
       <c r="R3" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="U3" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V3" t="n">
         <v>1.15</v>
@@ -859,19 +859,19 @@
         <v>20</v>
       </c>
       <c r="Y3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AB3" t="n">
         <v>10</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
         <v>32</v>
@@ -883,31 +883,31 @@
         <v>11.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
         <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL3" t="n">
         <v>46</v>
       </c>
       <c r="AM3" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN3" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="G4" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I4" t="n">
         <v>1.6</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.62</v>
       </c>
       <c r="J4" t="n">
         <v>4.9</v>
       </c>
       <c r="K4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
         <v>1.32</v>
@@ -961,7 +961,7 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O4" t="n">
         <v>1.21</v>
@@ -970,25 +970,25 @@
         <v>2.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S4" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="T4" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="W4" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
         <v>25</v>
@@ -1000,22 +1000,22 @@
         <v>10.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="n">
         <v>22</v>
@@ -1030,7 +1030,7 @@
         <v>160</v>
       </c>
       <c r="AK4" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL4" t="n">
         <v>70</v>
@@ -1042,7 +1042,7 @@
         <v>65</v>
       </c>
       <c r="AO4" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="5">
@@ -1072,109 +1072,109 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="G5" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="J5" t="n">
         <v>3.7</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.29</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="R5" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="S5" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="T5" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U5" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V5" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z5" t="n">
         <v>32</v>
       </c>
       <c r="AA5" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB5" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL5" t="n">
         <v>32</v>
       </c>
-      <c r="AK5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>36</v>
-      </c>
       <c r="AM5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN5" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO5" t="n">
         <v>32</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="I6" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="J6" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L6" t="n">
         <v>1.22</v>
@@ -1231,13 +1231,13 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O6" t="n">
         <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="Q6" t="n">
         <v>1.48</v>
@@ -1249,16 +1249,16 @@
         <v>2.16</v>
       </c>
       <c r="T6" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U6" t="n">
         <v>2.4</v>
       </c>
       <c r="V6" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="W6" t="n">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="X6" t="n">
         <v>32</v>
@@ -1273,16 +1273,16 @@
         <v>130</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="n">
         <v>14</v>
@@ -1291,13 +1291,13 @@
         <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
         <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>16</v>
@@ -1309,7 +1309,7 @@
         <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="AO6" t="n">
         <v>50</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G7" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G7" t="n">
-        <v>8.4</v>
-      </c>
       <c r="H7" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="I7" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="J7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K7" t="n">
         <v>6.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.22</v>
@@ -1366,40 +1366,40 @@
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.12</v>
       </c>
       <c r="P7" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="R7" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="S7" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="T7" t="n">
         <v>1.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V7" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="W7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X7" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z7" t="n">
         <v>12</v>
@@ -1411,7 +1411,7 @@
         <v>48</v>
       </c>
       <c r="AC7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
@@ -1420,10 +1420,10 @@
         <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH7" t="n">
         <v>21</v>
@@ -1444,10 +1444,10 @@
         <v>75</v>
       </c>
       <c r="AN7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="8">
@@ -1483,16 +1483,16 @@
         <v>2.9</v>
       </c>
       <c r="H8" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
         <v>1.46</v>
@@ -1501,31 +1501,31 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O8" t="n">
         <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T8" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V8" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W8" t="n">
         <v>1.52</v>
@@ -1579,7 +1579,7 @@
         <v>130</v>
       </c>
       <c r="AN8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO8" t="n">
         <v>32</v>
@@ -1621,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J9" t="n">
         <v>3.5</v>
@@ -1702,7 +1702,7 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK9" t="n">
         <v>25</v>
@@ -1750,16 +1750,16 @@
         <v>5.5</v>
       </c>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="I10" t="n">
         <v>1.65</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
         <v>4.9</v>
@@ -1777,10 +1777,10 @@
         <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R10" t="n">
         <v>1.35</v>
@@ -1789,13 +1789,13 @@
         <v>2.66</v>
       </c>
       <c r="T10" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U10" t="n">
         <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="W10" t="n">
         <v>1.14</v>
@@ -1831,7 +1831,7 @@
         <v>32</v>
       </c>
       <c r="AH10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI10" t="n">
         <v>48</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="G11" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="H11" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="I11" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J11" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K11" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1912,10 +1912,10 @@
         <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R11" t="n">
         <v>1.65</v>
@@ -1924,19 +1924,19 @@
         <v>2.24</v>
       </c>
       <c r="T11" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="U11" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W11" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="X11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y11" t="n">
         <v>34</v>
@@ -1948,43 +1948,43 @@
         <v>150</v>
       </c>
       <c r="AB11" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AC11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE11" t="n">
         <v>75</v>
       </c>
       <c r="AF11" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI11" t="n">
         <v>70</v>
       </c>
       <c r="AJ11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK11" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM11" t="n">
         <v>90</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO11" t="n">
         <v>60</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="G12" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
         <v>4.6</v>
@@ -2029,16 +2029,16 @@
         <v>5.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.28</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
         <v>3.9</v>
@@ -2065,10 +2065,10 @@
         <v>2.18</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W12" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X12" t="n">
         <v>21</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="G13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
         <v>2.34</v>
@@ -2167,43 +2167,43 @@
         <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="R13" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="T13" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="U13" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="V13" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W13" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
@@ -2239,10 +2239,10 @@
         <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK13" t="n">
         <v>34</v>
@@ -2251,13 +2251,13 @@
         <v>42</v>
       </c>
       <c r="AM13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="14">
@@ -2344,16 +2344,16 @@
         <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Z14" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AA14" t="n">
         <v>380</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC14" t="n">
         <v>14</v>
@@ -2368,7 +2368,7 @@
         <v>10</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
         <v>32</v>
@@ -2377,7 +2377,7 @@
         <v>140</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK14" t="n">
         <v>17.5</v>
@@ -2437,7 +2437,7 @@
         <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="H16" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="I16" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="J16" t="n">
         <v>3.75</v>
@@ -2581,7 +2581,7 @@
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O16" t="n">
         <v>1.26</v>
@@ -2596,7 +2596,7 @@
         <v>1.47</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T16" t="n">
         <v>1.67</v>
@@ -2605,40 +2605,40 @@
         <v>2.38</v>
       </c>
       <c r="V16" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="W16" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="X16" t="n">
         <v>17.5</v>
       </c>
       <c r="Y16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG16" t="n">
         <v>12.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13</v>
       </c>
       <c r="AH16" t="n">
         <v>15.5</v>
@@ -2647,7 +2647,7 @@
         <v>34</v>
       </c>
       <c r="AJ16" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AK16" t="n">
         <v>30</v>
@@ -2659,10 +2659,10 @@
         <v>75</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G17" t="n">
         <v>4.6</v>
       </c>
       <c r="H17" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="I17" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.75</v>
       </c>
       <c r="L17" t="n">
         <v>1.45</v>
@@ -2716,37 +2716,37 @@
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P17" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T17" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U17" t="n">
         <v>2.04</v>
       </c>
       <c r="V17" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y17" t="n">
         <v>8.6</v>
@@ -2758,16 +2758,16 @@
         <v>22</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF17" t="n">
         <v>32</v>
@@ -2779,13 +2779,13 @@
         <v>20</v>
       </c>
       <c r="AI17" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ17" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL17" t="n">
         <v>70</v>
@@ -2794,10 +2794,10 @@
         <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AO17" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -2836,7 +2836,7 @@
         <v>2.64</v>
       </c>
       <c r="I18" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J18" t="n">
         <v>3.35</v>
@@ -2857,10 +2857,10 @@
         <v>1.41</v>
       </c>
       <c r="P18" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R18" t="n">
         <v>1.3</v>
@@ -2869,13 +2869,13 @@
         <v>4.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U18" t="n">
         <v>2.06</v>
       </c>
       <c r="V18" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W18" t="n">
         <v>1.47</v>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.81</v>
       </c>
-      <c r="I19" t="n">
-        <v>1.82</v>
-      </c>
       <c r="J19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K19" t="n">
         <v>4.4</v>
@@ -3010,10 +3010,10 @@
         <v>2.48</v>
       </c>
       <c r="V19" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="W19" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X19" t="n">
         <v>22</v>
@@ -3052,7 +3052,7 @@
         <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK19" t="n">
         <v>48</v>
@@ -3067,7 +3067,7 @@
         <v>40</v>
       </c>
       <c r="AO19" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G20" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H20" t="n">
         <v>7</v>
@@ -3109,10 +3109,10 @@
         <v>7.2</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K20" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.25</v>
@@ -3130,16 +3130,16 @@
         <v>3.05</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R20" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S20" t="n">
         <v>2.14</v>
       </c>
       <c r="T20" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U20" t="n">
         <v>2.56</v>
@@ -3148,22 +3148,22 @@
         <v>1.16</v>
       </c>
       <c r="W20" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="X20" t="n">
         <v>32</v>
       </c>
       <c r="Y20" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA20" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB20" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC20" t="n">
         <v>12.5</v>
@@ -3175,7 +3175,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG20" t="n">
         <v>10.5</v>
@@ -3184,7 +3184,7 @@
         <v>18.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="n">
         <v>15</v>
@@ -3196,13 +3196,13 @@
         <v>24</v>
       </c>
       <c r="AM20" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN20" t="n">
         <v>4.8</v>
       </c>
       <c r="AO20" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -3268,16 +3268,16 @@
         <v>1.39</v>
       </c>
       <c r="R21" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="T21" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U21" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V21" t="n">
         <v>1.1</v>
@@ -3325,7 +3325,7 @@
         <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL21" t="n">
         <v>25</v>
@@ -3370,13 +3370,13 @@
         <v>2.58</v>
       </c>
       <c r="G22" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H22" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I22" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="J22" t="n">
         <v>3.8</v>
@@ -3415,19 +3415,19 @@
         <v>2.4</v>
       </c>
       <c r="V22" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W22" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X22" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y22" t="n">
         <v>13.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA22" t="n">
         <v>42</v>
@@ -3436,7 +3436,7 @@
         <v>13</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD22" t="n">
         <v>12.5</v>
@@ -3469,7 +3469,7 @@
         <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO22" t="n">
         <v>21</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.09</v>
+        <v>4.7</v>
       </c>
       <c r="G2" t="n">
         <v>7</v>
@@ -706,13 +706,13 @@
         <v>1.14</v>
       </c>
       <c r="S2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
         <v>2.3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="V2" t="n">
         <v>1.92</v>
@@ -721,7 +721,7 @@
         <v>1.17</v>
       </c>
       <c r="X2" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="Y2" t="n">
         <v>6.2</v>
@@ -802,28 +802,28 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="G3" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="H3" t="n">
         <v>6.4</v>
       </c>
       <c r="I3" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J3" t="n">
         <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.29</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
         <v>4.2</v>
@@ -832,19 +832,19 @@
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S3" t="n">
         <v>3.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U3" t="n">
         <v>1.94</v>
@@ -853,13 +853,13 @@
         <v>1.15</v>
       </c>
       <c r="W3" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="X3" t="n">
         <v>20</v>
       </c>
       <c r="Y3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z3" t="n">
         <v>60</v>
@@ -868,10 +868,10 @@
         <v>240</v>
       </c>
       <c r="AB3" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AD3" t="n">
         <v>32</v>
@@ -892,13 +892,13 @@
         <v>110</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM3" t="n">
         <v>150</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="J4" t="n">
         <v>4.9</v>
@@ -961,40 +961,40 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R4" t="n">
         <v>1.58</v>
       </c>
       <c r="S4" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T4" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U4" t="n">
         <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="W4" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X4" t="n">
         <v>25</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
         <v>10.5</v>
@@ -1003,10 +1003,10 @@
         <v>14.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
         <v>9.800000000000001</v>
@@ -1018,7 +1018,7 @@
         <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
         <v>20</v>
@@ -1027,7 +1027,7 @@
         <v>28</v>
       </c>
       <c r="AJ4" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AK4" t="n">
         <v>75</v>
@@ -1039,10 +1039,10 @@
         <v>90</v>
       </c>
       <c r="AN4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="5">
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="H5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
         <v>4.2</v>
@@ -1114,7 +1114,7 @@
         <v>2.68</v>
       </c>
       <c r="T5" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U5" t="n">
         <v>2.34</v>
@@ -1123,7 +1123,7 @@
         <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="X5" t="n">
         <v>22</v>
@@ -1150,7 +1150,7 @@
         <v>38</v>
       </c>
       <c r="AF5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG5" t="n">
         <v>11.5</v>
@@ -1162,7 +1162,7 @@
         <v>44</v>
       </c>
       <c r="AJ5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK5" t="n">
         <v>21</v>
@@ -1285,7 +1285,7 @@
         <v>65</v>
       </c>
       <c r="AF6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG6" t="n">
         <v>12.5</v>
@@ -1300,10 +1300,10 @@
         <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
         <v>70</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
         <v>8.199999999999999</v>
@@ -1387,7 +1387,7 @@
         <v>1.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
         <v>3.45</v>
@@ -1411,7 +1411,7 @@
         <v>48</v>
       </c>
       <c r="AC7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
@@ -1447,7 +1447,7 @@
         <v>65</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="8">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="G8" t="n">
         <v>2.9</v>
@@ -1486,13 +1486,13 @@
         <v>2.62</v>
       </c>
       <c r="I8" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L8" t="n">
         <v>1.46</v>
@@ -1510,25 +1510,25 @@
         <v>1.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R8" t="n">
         <v>1.29</v>
       </c>
       <c r="S8" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="n">
         <v>2.02</v>
       </c>
       <c r="V8" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W8" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X8" t="n">
         <v>14</v>
@@ -1549,13 +1549,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
         <v>34</v>
       </c>
       <c r="AF8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG8" t="n">
         <v>13.5</v>
@@ -1579,7 +1579,7 @@
         <v>130</v>
       </c>
       <c r="AN8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO8" t="n">
         <v>32</v>
@@ -1618,10 +1618,10 @@
         <v>2.08</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I9" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J9" t="n">
         <v>3.5</v>
@@ -1642,7 +1642,7 @@
         <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q9" t="n">
         <v>1.96</v>
@@ -1660,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W9" t="n">
         <v>1.92</v>
@@ -1684,7 +1684,7 @@
         <v>970</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AE9" t="n">
         <v>65</v>
@@ -1696,7 +1696,7 @@
         <v>970</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
         <v>75</v>
@@ -1750,7 +1750,7 @@
         <v>5.5</v>
       </c>
       <c r="G10" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H10" t="n">
         <v>1.54</v>
@@ -1765,13 +1765,13 @@
         <v>4.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="O10" t="n">
         <v>1.3</v>
@@ -1786,10 +1786,10 @@
         <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>2.66</v>
+        <v>2.96</v>
       </c>
       <c r="T10" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U10" t="n">
         <v>1.83</v>
@@ -1798,13 +1798,13 @@
         <v>2.48</v>
       </c>
       <c r="W10" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X10" t="n">
         <v>970</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="Z10" t="n">
         <v>970</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="G11" t="n">
         <v>1.63</v>
       </c>
       <c r="H11" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I11" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J11" t="n">
         <v>4.6</v>
       </c>
       <c r="K11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,22 +1906,22 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S11" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="T11" t="n">
         <v>1.66</v>
@@ -1930,16 +1930,16 @@
         <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W11" t="n">
         <v>2.58</v>
       </c>
       <c r="X11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y11" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Z11" t="n">
         <v>60</v>
@@ -1951,19 +1951,19 @@
         <v>970</v>
       </c>
       <c r="AC11" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
         <v>970</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>970</v>
@@ -1978,13 +1978,13 @@
         <v>18</v>
       </c>
       <c r="AL11" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AM11" t="n">
         <v>90</v>
       </c>
       <c r="AN11" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO11" t="n">
         <v>60</v>
@@ -2020,19 +2020,19 @@
         <v>1.75</v>
       </c>
       <c r="G12" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="H12" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I12" t="n">
         <v>5.2</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.28</v>
@@ -2050,13 +2050,13 @@
         <v>2.18</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R12" t="n">
         <v>1.46</v>
       </c>
       <c r="S12" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T12" t="n">
         <v>1.71</v>
@@ -2068,13 +2068,13 @@
         <v>1.24</v>
       </c>
       <c r="W12" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="X12" t="n">
         <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z12" t="n">
         <v>46</v>
@@ -2092,7 +2092,7 @@
         <v>970</v>
       </c>
       <c r="AE12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF12" t="n">
         <v>970</v>
@@ -2119,10 +2119,10 @@
         <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
         <v>3.2</v>
@@ -2161,10 +2161,10 @@
         <v>2.34</v>
       </c>
       <c r="I13" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
         <v>3.95</v>
@@ -2176,16 +2176,16 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
         <v>2.16</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
         <v>1.46</v>
@@ -2194,13 +2194,13 @@
         <v>2.76</v>
       </c>
       <c r="T13" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U13" t="n">
         <v>2.32</v>
       </c>
       <c r="V13" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W13" t="n">
         <v>1.45</v>
@@ -2227,7 +2227,7 @@
         <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF13" t="n">
         <v>24</v>
@@ -2236,7 +2236,7 @@
         <v>14.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI13" t="n">
         <v>34</v>
@@ -2248,7 +2248,7 @@
         <v>34</v>
       </c>
       <c r="AL13" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="n">
         <v>75</v>
@@ -2299,10 +2299,10 @@
         <v>10.5</v>
       </c>
       <c r="J14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K14" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.29</v>
@@ -2314,19 +2314,19 @@
         <v>4.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q14" t="n">
         <v>1.7</v>
       </c>
       <c r="R14" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S14" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T14" t="n">
         <v>1.98</v>
@@ -2353,7 +2353,7 @@
         <v>380</v>
       </c>
       <c r="AB14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
         <v>14</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G15" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="H15" t="n">
         <v>3.05</v>
       </c>
       <c r="I15" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="J15" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K15" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>1.66</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>2.92</v>
       </c>
       <c r="G16" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H16" t="n">
         <v>2.54</v>
@@ -2569,10 +2569,10 @@
         <v>2.56</v>
       </c>
       <c r="J16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.75</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.8</v>
       </c>
       <c r="L16" t="n">
         <v>1.38</v>
@@ -2587,28 +2587,28 @@
         <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R16" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S16" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U16" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V16" t="n">
         <v>1.64</v>
       </c>
       <c r="W16" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X16" t="n">
         <v>17.5</v>
@@ -2617,10 +2617,10 @@
         <v>13</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB16" t="n">
         <v>13.5</v>
@@ -2632,7 +2632,7 @@
         <v>11.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF16" t="n">
         <v>21</v>
@@ -2647,7 +2647,7 @@
         <v>34</v>
       </c>
       <c r="AJ16" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK16" t="n">
         <v>30</v>
@@ -2662,7 +2662,7 @@
         <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="G17" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="J17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.65</v>
       </c>
       <c r="L17" t="n">
         <v>1.45</v>
@@ -2719,7 +2719,7 @@
         <v>3.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
         <v>1.87</v>
@@ -2731,19 +2731,19 @@
         <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T17" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U17" t="n">
         <v>2.04</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W17" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X17" t="n">
         <v>13</v>
@@ -2752,10 +2752,10 @@
         <v>8.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
         <v>14.5</v>
@@ -2782,7 +2782,7 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="n">
         <v>60</v>
@@ -2794,10 +2794,10 @@
         <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -2836,7 +2836,7 @@
         <v>2.64</v>
       </c>
       <c r="I18" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J18" t="n">
         <v>3.35</v>
@@ -2857,7 +2857,7 @@
         <v>1.41</v>
       </c>
       <c r="P18" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q18" t="n">
         <v>2.24</v>
@@ -2884,13 +2884,13 @@
         <v>11.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z18" t="n">
         <v>15.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB18" t="n">
         <v>10.5</v>
@@ -2905,7 +2905,7 @@
         <v>30</v>
       </c>
       <c r="AF18" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
         <v>13.5</v>
@@ -2914,10 +2914,10 @@
         <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ18" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK18" t="n">
         <v>38</v>
@@ -2929,7 +2929,7 @@
         <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO18" t="n">
         <v>29</v>
@@ -2968,10 +2968,10 @@
         <v>4.8</v>
       </c>
       <c r="H19" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.8</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.81</v>
       </c>
       <c r="J19" t="n">
         <v>4.3</v>
@@ -2992,16 +2992,16 @@
         <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q19" t="n">
         <v>1.64</v>
       </c>
       <c r="R19" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S19" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T19" t="n">
         <v>1.65</v>
@@ -3025,19 +3025,19 @@
         <v>12.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
         <v>9.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF19" t="n">
         <v>38</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="G20" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
         <v>7</v>
       </c>
       <c r="I20" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J20" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K20" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L20" t="n">
         <v>1.25</v>
@@ -3121,34 +3121,34 @@
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.14</v>
       </c>
       <c r="P20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="R20" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S20" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T20" t="n">
         <v>1.63</v>
       </c>
       <c r="U20" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="V20" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W20" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
         <v>32</v>
@@ -3157,10 +3157,10 @@
         <v>38</v>
       </c>
       <c r="Z20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA20" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
         <v>14.5</v>
@@ -3169,7 +3169,7 @@
         <v>12.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE20" t="n">
         <v>75</v>
@@ -3187,10 +3187,10 @@
         <v>65</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>24</v>
@@ -3199,7 +3199,7 @@
         <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AO20" t="n">
         <v>60</v>
@@ -3244,10 +3244,10 @@
         <v>10.5</v>
       </c>
       <c r="J21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K21" t="n">
         <v>6.8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>7</v>
       </c>
       <c r="L21" t="n">
         <v>1.22</v>
@@ -3256,28 +3256,28 @@
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="O21" t="n">
         <v>1.12</v>
       </c>
       <c r="P21" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q21" t="n">
         <v>1.39</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="S21" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="T21" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U21" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V21" t="n">
         <v>1.1</v>
@@ -3286,10 +3286,10 @@
         <v>4</v>
       </c>
       <c r="X21" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y21" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z21" t="n">
         <v>110</v>
@@ -3334,7 +3334,7 @@
         <v>90</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO21" t="n">
         <v>90</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="G22" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="H22" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="I22" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J22" t="n">
         <v>3.8</v>
@@ -3400,7 +3400,7 @@
         <v>2.22</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R22" t="n">
         <v>1.47</v>
@@ -3409,7 +3409,7 @@
         <v>3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U22" t="n">
         <v>2.4</v>
@@ -3418,10 +3418,10 @@
         <v>1.53</v>
       </c>
       <c r="W22" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y22" t="n">
         <v>13.5</v>
@@ -3436,7 +3436,7 @@
         <v>13</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD22" t="n">
         <v>12.5</v>
@@ -3445,7 +3445,7 @@
         <v>28</v>
       </c>
       <c r="AF22" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG22" t="n">
         <v>12</v>
@@ -3469,7 +3469,7 @@
         <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO22" t="n">
         <v>21</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -670,16 +670,16 @@
         <v>4.7</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="H2" t="n">
         <v>1.75</v>
       </c>
       <c r="I2" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="K2" t="n">
         <v>3.7</v>
@@ -715,10 +715,10 @@
         <v>1.55</v>
       </c>
       <c r="V2" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X2" t="n">
         <v>8.6</v>
@@ -763,7 +763,7 @@
         <v>170</v>
       </c>
       <c r="AL2" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AM2" t="n">
         <v>500</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="G3" t="n">
         <v>1.59</v>
       </c>
       <c r="H3" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I3" t="n">
         <v>7.8</v>
@@ -817,10 +817,10 @@
         <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -844,10 +844,10 @@
         <v>3.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U3" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
         <v>1.15</v>
@@ -856,7 +856,7 @@
         <v>2.68</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
         <v>28</v>
@@ -871,7 +871,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
         <v>32</v>
@@ -880,10 +880,10 @@
         <v>130</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>28</v>
@@ -892,7 +892,7 @@
         <v>110</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK3" t="n">
         <v>21</v>
@@ -904,7 +904,7 @@
         <v>150</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AO3" t="n">
         <v>150</v>
@@ -943,22 +943,22 @@
         <v>6.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="I4" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="J4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K4" t="n">
         <v>4.9</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5</v>
       </c>
       <c r="L4" t="n">
         <v>1.32</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
         <v>5.3</v>
@@ -967,43 +967,43 @@
         <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T4" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V4" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="W4" t="n">
         <v>1.19</v>
       </c>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
         <v>10.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
@@ -1021,13 +1021,13 @@
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
       </c>
       <c r="AJ4" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
         <v>75</v>
@@ -1039,7 +1039,7 @@
         <v>90</v>
       </c>
       <c r="AN4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO4" t="n">
         <v>6.8</v>
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="G5" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1102,13 +1102,13 @@
         <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
         <v>2.68</v>
@@ -1117,25 +1117,25 @@
         <v>1.62</v>
       </c>
       <c r="U5" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V5" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="n">
         <v>32</v>
       </c>
       <c r="AA5" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="n">
         <v>12.5</v>
@@ -1147,10 +1147,10 @@
         <v>16</v>
       </c>
       <c r="AE5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG5" t="n">
         <v>11.5</v>
@@ -1162,10 +1162,10 @@
         <v>44</v>
       </c>
       <c r="AJ5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="n">
         <v>32</v>
@@ -1174,10 +1174,10 @@
         <v>70</v>
       </c>
       <c r="AN5" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="G6" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="I6" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K6" t="n">
         <v>5.3</v>
@@ -1237,28 +1237,28 @@
         <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="Q6" t="n">
         <v>1.48</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S6" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T6" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U6" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="V6" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="W6" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="X6" t="n">
         <v>32</v>
@@ -1270,37 +1270,37 @@
         <v>60</v>
       </c>
       <c r="AA6" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AB6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC6" t="n">
         <v>12.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF6" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="n">
         <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
         <v>26</v>
@@ -1309,10 +1309,10 @@
         <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AO6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G7" t="n">
         <v>8</v>
-      </c>
-      <c r="G7" t="n">
-        <v>8.199999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>1.4</v>
@@ -1375,16 +1375,16 @@
         <v>3.45</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R7" t="n">
         <v>1.99</v>
       </c>
       <c r="S7" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="T7" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U7" t="n">
         <v>2.5</v>
@@ -1399,7 +1399,7 @@
         <v>44</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z7" t="n">
         <v>12</v>
@@ -1408,10 +1408,10 @@
         <v>13.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
@@ -1429,7 +1429,7 @@
         <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ7" t="n">
         <v>250</v>
@@ -1447,7 +1447,7 @@
         <v>65</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="H8" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.46</v>
@@ -1522,13 +1522,13 @@
         <v>1.85</v>
       </c>
       <c r="U8" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
         <v>1.59</v>
       </c>
       <c r="W8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X8" t="n">
         <v>14</v>
@@ -1540,7 +1540,7 @@
         <v>18.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AB8" t="n">
         <v>11</v>
@@ -1552,10 +1552,10 @@
         <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AF8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG8" t="n">
         <v>13.5</v>
@@ -1570,19 +1570,19 @@
         <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AL8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
         <v>130</v>
       </c>
       <c r="AN8" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AO8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1615,13 +1615,13 @@
         <v>1.9</v>
       </c>
       <c r="G9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J9" t="n">
         <v>3.5</v>
@@ -1633,10 +1633,10 @@
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -1651,10 +1651,10 @@
         <v>1.32</v>
       </c>
       <c r="S9" t="n">
-        <v>2.26</v>
+        <v>3.25</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U9" t="n">
         <v>2</v>
@@ -1663,7 +1663,7 @@
         <v>1.27</v>
       </c>
       <c r="W9" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X9" t="n">
         <v>970</v>
@@ -1672,7 +1672,7 @@
         <v>970</v>
       </c>
       <c r="Z9" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1696,19 +1696,19 @@
         <v>970</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI9" t="n">
         <v>75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AL9" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
         <v>8.800000000000001</v>
@@ -1756,16 +1756,16 @@
         <v>1.54</v>
       </c>
       <c r="I10" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K10" t="n">
         <v>4.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1777,7 +1777,7 @@
         <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q10" t="n">
         <v>1.89</v>
@@ -1813,7 +1813,7 @@
         <v>970</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AC10" t="n">
         <v>970</v>
@@ -1828,13 +1828,13 @@
         <v>70</v>
       </c>
       <c r="AG10" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AI10" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.57</v>
       </c>
-      <c r="G11" t="n">
-        <v>1.63</v>
-      </c>
       <c r="H11" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I11" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J11" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1912,34 +1912,34 @@
         <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R11" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="T11" t="n">
         <v>1.66</v>
       </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V11" t="n">
         <v>1.19</v>
       </c>
       <c r="W11" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="X11" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="Y11" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="Z11" t="n">
         <v>60</v>
@@ -1951,34 +1951,34 @@
         <v>970</v>
       </c>
       <c r="AC11" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH11" t="n">
         <v>24</v>
       </c>
-      <c r="AE11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>970</v>
-      </c>
       <c r="AI11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AL11" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AM11" t="n">
         <v>90</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="G12" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="H12" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I12" t="n">
         <v>5.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.28</v>
@@ -2068,16 +2068,16 @@
         <v>1.24</v>
       </c>
       <c r="W12" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Y12" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Z12" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AA12" t="n">
         <v>130</v>
@@ -2092,7 +2092,7 @@
         <v>970</v>
       </c>
       <c r="AE12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF12" t="n">
         <v>970</v>
@@ -2101,28 +2101,28 @@
         <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
         <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AK12" t="n">
         <v>970</v>
       </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AM12" t="n">
         <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AO12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="G13" t="n">
         <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="I13" t="n">
         <v>2.44</v>
@@ -2167,7 +2167,7 @@
         <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
         <v>1.29</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="G14" t="n">
         <v>1.46</v>
       </c>
       <c r="H14" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I14" t="n">
         <v>10.5</v>
@@ -2302,7 +2302,7 @@
         <v>4.9</v>
       </c>
       <c r="K14" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L14" t="n">
         <v>1.29</v>
@@ -2320,16 +2320,16 @@
         <v>2.18</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="R14" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S14" t="n">
         <v>2.76</v>
       </c>
       <c r="T14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
         <v>1.83</v>
@@ -2344,7 +2344,7 @@
         <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="Z14" t="n">
         <v>90</v>
@@ -2359,7 +2359,7 @@
         <v>14</v>
       </c>
       <c r="AD14" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AE14" t="n">
         <v>170</v>
@@ -2380,7 +2380,7 @@
         <v>12.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AL14" t="n">
         <v>44</v>
@@ -2437,7 +2437,7 @@
         <v>3.15</v>
       </c>
       <c r="K15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="G16" t="n">
         <v>2.94</v>
@@ -2569,16 +2569,16 @@
         <v>2.56</v>
       </c>
       <c r="J16" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L16" t="n">
         <v>1.38</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
         <v>4.6</v>
@@ -2599,7 +2599,7 @@
         <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U16" t="n">
         <v>2.42</v>
@@ -2608,7 +2608,7 @@
         <v>1.64</v>
       </c>
       <c r="W16" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X16" t="n">
         <v>17.5</v>
@@ -2647,16 +2647,16 @@
         <v>34</v>
       </c>
       <c r="AJ16" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN16" t="n">
         <v>23</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G17" t="n">
         <v>4.3</v>
       </c>
-      <c r="G17" t="n">
-        <v>4.4</v>
-      </c>
       <c r="H17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I17" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="J17" t="n">
         <v>3.55</v>
@@ -2719,13 +2719,13 @@
         <v>3.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P17" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R17" t="n">
         <v>1.33</v>
@@ -2740,10 +2740,10 @@
         <v>2.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X17" t="n">
         <v>13</v>
@@ -2755,10 +2755,10 @@
         <v>11.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC17" t="n">
         <v>7.8</v>
@@ -2770,13 +2770,13 @@
         <v>22</v>
       </c>
       <c r="AF17" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG17" t="n">
         <v>17.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI17" t="n">
         <v>40</v>
@@ -2794,10 +2794,10 @@
         <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO17" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="18">
@@ -2833,22 +2833,22 @@
         <v>3.1</v>
       </c>
       <c r="H18" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I18" t="n">
         <v>2.64</v>
       </c>
-      <c r="I18" t="n">
-        <v>2.68</v>
-      </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L18" t="n">
         <v>1.48</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
         <v>3.35</v>
@@ -2866,7 +2866,7 @@
         <v>1.3</v>
       </c>
       <c r="S18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T18" t="n">
         <v>1.88</v>
@@ -2881,16 +2881,16 @@
         <v>1.47</v>
       </c>
       <c r="X18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA18" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="n">
         <v>10.5</v>
@@ -2908,7 +2908,7 @@
         <v>19</v>
       </c>
       <c r="AG18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
         <v>19</v>
@@ -2926,7 +2926,7 @@
         <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
         <v>40</v>
@@ -2968,16 +2968,16 @@
         <v>4.8</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I19" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="J19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K19" t="n">
         <v>4.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.4</v>
       </c>
       <c r="L19" t="n">
         <v>1.32</v>
@@ -2995,7 +2995,7 @@
         <v>2.52</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R19" t="n">
         <v>1.61</v>
@@ -3010,7 +3010,7 @@
         <v>2.48</v>
       </c>
       <c r="V19" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="W19" t="n">
         <v>1.26</v>
@@ -3025,13 +3025,13 @@
         <v>12.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB19" t="n">
         <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
         <v>10</v>
@@ -3136,7 +3136,7 @@
         <v>1.85</v>
       </c>
       <c r="S20" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T20" t="n">
         <v>1.63</v>
@@ -3145,7 +3145,7 @@
         <v>2.5</v>
       </c>
       <c r="V20" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W20" t="n">
         <v>3</v>
@@ -3202,7 +3202,7 @@
         <v>4.7</v>
       </c>
       <c r="AO20" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
@@ -3241,7 +3241,7 @@
         <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
         <v>6.6</v>
@@ -3271,10 +3271,10 @@
         <v>1.99</v>
       </c>
       <c r="S21" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U21" t="n">
         <v>2.3</v>
@@ -3286,7 +3286,7 @@
         <v>4</v>
       </c>
       <c r="X21" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y21" t="n">
         <v>50</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="G22" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="H22" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I22" t="n">
         <v>2.86</v>
       </c>
-      <c r="I22" t="n">
-        <v>2.88</v>
-      </c>
       <c r="J22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.85</v>
       </c>
       <c r="L22" t="n">
         <v>1.36</v>
@@ -3409,7 +3409,7 @@
         <v>3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U22" t="n">
         <v>2.4</v>
@@ -3418,7 +3418,7 @@
         <v>1.53</v>
       </c>
       <c r="W22" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="X22" t="n">
         <v>18</v>
@@ -3445,7 +3445,7 @@
         <v>28</v>
       </c>
       <c r="AF22" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG22" t="n">
         <v>12</v>
@@ -3469,7 +3469,7 @@
         <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO22" t="n">
         <v>21</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -667,49 +667,49 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G2" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="O2" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="P2" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="R2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S2" t="n">
         <v>1.05</v>
       </c>
       <c r="T2" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="U2" t="n">
         <v>1.55</v>
@@ -718,37 +718,37 @@
         <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="X2" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
         <v>6.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
         <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF2" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AH2" t="n">
         <v>36</v>
@@ -757,22 +757,22 @@
         <v>90</v>
       </c>
       <c r="AJ2" t="n">
-        <v>270</v>
+        <v>900</v>
       </c>
       <c r="AK2" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="AL2" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AM2" t="n">
         <v>500</v>
       </c>
       <c r="AN2" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -805,109 +805,109 @@
         <v>1.52</v>
       </c>
       <c r="G3" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="H3" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I3" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
         <v>2.08</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R3" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
         <v>1.91</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V3" t="n">
         <v>1.15</v>
       </c>
       <c r="W3" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="Z3" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="AA3" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AE3" t="n">
+        <v>290</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>210</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL3" t="n">
         <v>130</v>
       </c>
-      <c r="AF3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>42</v>
-      </c>
       <c r="AM3" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN3" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="G4" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K4" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
         <v>1.32</v>
@@ -967,28 +967,28 @@
         <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q4" t="n">
         <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S4" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T4" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="W4" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="X4" t="n">
         <v>22</v>
@@ -997,16 +997,16 @@
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
         <v>9.800000000000001</v>
@@ -1021,13 +1021,13 @@
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK4" t="n">
         <v>75</v>
@@ -1039,10 +1039,10 @@
         <v>90</v>
       </c>
       <c r="AN4" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G5" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
         <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L5" t="n">
         <v>1.28</v>
@@ -1105,28 +1105,28 @@
         <v>2.26</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
         <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="T5" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U5" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W5" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
         <v>19</v>
@@ -1141,13 +1141,13 @@
         <v>12.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF5" t="n">
         <v>15</v>
@@ -1159,7 +1159,7 @@
         <v>16.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ5" t="n">
         <v>25</v>
@@ -1171,13 +1171,13 @@
         <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN5" t="n">
         <v>11.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1210,19 +1210,19 @@
         <v>1.52</v>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="H6" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="I6" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K6" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.22</v>
@@ -1231,61 +1231,61 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
         <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="T6" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="V6" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W6" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="X6" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y6" t="n">
         <v>32</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>34</v>
       </c>
       <c r="Z6" t="n">
         <v>60</v>
       </c>
       <c r="AA6" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="AB6" t="n">
         <v>13.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
         <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
@@ -1294,25 +1294,25 @@
         <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="n">
         <v>16</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL6" t="n">
         <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G7" t="n">
         <v>7.8</v>
       </c>
-      <c r="G7" t="n">
-        <v>8</v>
-      </c>
       <c r="H7" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="I7" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="n">
         <v>6.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.22</v>
@@ -1369,7 +1369,7 @@
         <v>8.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P7" t="n">
         <v>3.45</v>
@@ -1378,37 +1378,37 @@
         <v>1.38</v>
       </c>
       <c r="R7" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
         <v>1.97</v>
       </c>
       <c r="T7" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U7" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="V7" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="W7" t="n">
         <v>1.14</v>
       </c>
       <c r="X7" t="n">
+        <v>46</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB7" t="n">
         <v>44</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>46</v>
       </c>
       <c r="AC7" t="n">
         <v>15</v>
@@ -1420,31 +1420,31 @@
         <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI7" t="n">
         <v>22</v>
       </c>
       <c r="AJ7" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AK7" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AL7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
         <v>75</v>
       </c>
       <c r="AN7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO7" t="n">
         <v>4</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G8" t="n">
         <v>3.05</v>
@@ -1486,7 +1486,7 @@
         <v>2.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="n">
         <v>3.45</v>
@@ -1504,85 +1504,85 @@
         <v>3.35</v>
       </c>
       <c r="O8" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T8" t="n">
         <v>1.85</v>
       </c>
       <c r="U8" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V8" t="n">
         <v>1.59</v>
       </c>
       <c r="W8" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
         <v>18.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>970</v>
+        <v>170</v>
       </c>
       <c r="AB8" t="n">
         <v>11</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AF8" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AG8" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="AJ8" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AK8" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AM8" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AO8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1645,28 +1645,28 @@
         <v>1.84</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S9" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U9" t="n">
         <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W9" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="X9" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y9" t="n">
         <v>970</v>
@@ -1675,49 +1675,49 @@
         <v>970</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB9" t="n">
         <v>970</v>
       </c>
       <c r="AC9" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AD9" t="n">
         <v>970</v>
       </c>
       <c r="AE9" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AF9" t="n">
         <v>970</v>
       </c>
       <c r="AG9" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AH9" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI9" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AJ9" t="n">
-        <v>970</v>
+        <v>130</v>
       </c>
       <c r="AK9" t="n">
-        <v>970</v>
+        <v>150</v>
       </c>
       <c r="AL9" t="n">
         <v>970</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AO9" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10">
@@ -1756,25 +1756,25 @@
         <v>1.54</v>
       </c>
       <c r="I10" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="J10" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
         <v>3.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
         <v>1.9</v>
@@ -1786,10 +1786,10 @@
         <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="T10" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U10" t="n">
         <v>1.83</v>
@@ -1801,10 +1801,10 @@
         <v>1.15</v>
       </c>
       <c r="X10" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y10" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Z10" t="n">
         <v>970</v>
@@ -1816,16 +1816,16 @@
         <v>970</v>
       </c>
       <c r="AC10" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AE10" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="n">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="AG10" t="n">
         <v>970</v>
@@ -1840,19 +1840,19 @@
         <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AN10" t="n">
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="G11" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H11" t="n">
         <v>5.5</v>
@@ -1894,7 +1894,7 @@
         <v>6.4</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K11" t="n">
         <v>5.8</v>
@@ -1906,88 +1906,88 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S11" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="T11" t="n">
         <v>1.66</v>
       </c>
       <c r="U11" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W11" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="X11" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y11" t="n">
         <v>970</v>
       </c>
       <c r="Z11" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="AA11" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>420</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>500</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO11" t="n">
         <v>150</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -2017,43 +2017,43 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="G12" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="H12" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I12" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K12" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R12" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S12" t="n">
         <v>2.74</v>
@@ -2062,67 +2062,67 @@
         <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W12" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="X12" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y12" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="Z12" t="n">
-        <v>970</v>
+        <v>190</v>
       </c>
       <c r="AA12" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AC12" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AD12" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AF12" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AG12" t="n">
         <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="AI12" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AJ12" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AK12" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AL12" t="n">
         <v>970</v>
       </c>
       <c r="AM12" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO12" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13">
@@ -2152,37 +2152,37 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
         <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I13" t="n">
         <v>2.44</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O13" t="n">
         <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q13" t="n">
         <v>1.7</v>
@@ -2191,10 +2191,10 @@
         <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T13" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U13" t="n">
         <v>2.32</v>
@@ -2206,34 +2206,34 @@
         <v>1.45</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA13" t="n">
         <v>34</v>
       </c>
       <c r="AB13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH13" t="n">
         <v>16.5</v>
@@ -2245,7 +2245,7 @@
         <v>50</v>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL13" t="n">
         <v>40</v>
@@ -2257,7 +2257,7 @@
         <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -2290,7 +2290,7 @@
         <v>1.38</v>
       </c>
       <c r="G14" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="H14" t="n">
         <v>8.800000000000001</v>
@@ -2305,10 +2305,10 @@
         <v>5.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
         <v>4.4</v>
@@ -2320,76 +2320,76 @@
         <v>2.18</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="R14" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S14" t="n">
         <v>2.76</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U14" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V14" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W14" t="n">
         <v>3.15</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="Z14" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AA14" t="n">
         <v>380</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AC14" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="AE14" t="n">
         <v>170</v>
       </c>
       <c r="AF14" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>140</v>
+        <v>520</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="n">
-        <v>170</v>
+        <v>430</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AO14" t="n">
         <v>230</v>
@@ -2425,16 +2425,16 @@
         <v>2.42</v>
       </c>
       <c r="G15" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="H15" t="n">
         <v>3.05</v>
       </c>
       <c r="I15" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="J15" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
         <v>3.45</v>
@@ -2455,7 +2455,7 @@
         <v>1.66</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2560,13 +2560,13 @@
         <v>2.9</v>
       </c>
       <c r="G16" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H16" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I16" t="n">
         <v>2.54</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.56</v>
       </c>
       <c r="J16" t="n">
         <v>3.75</v>
@@ -2578,7 +2578,7 @@
         <v>1.38</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
         <v>4.6</v>
@@ -2599,10 +2599,10 @@
         <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U16" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V16" t="n">
         <v>1.64</v>
@@ -2620,7 +2620,7 @@
         <v>17.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB16" t="n">
         <v>13.5</v>
@@ -2644,10 +2644,10 @@
         <v>15.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ16" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK16" t="n">
         <v>29</v>
@@ -2659,7 +2659,7 @@
         <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>17</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G17" t="n">
         <v>4.2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4.3</v>
       </c>
       <c r="H17" t="n">
         <v>2.06</v>
       </c>
       <c r="I17" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J17" t="n">
         <v>3.55</v>
@@ -2716,7 +2716,7 @@
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O17" t="n">
         <v>1.37</v>
@@ -2725,10 +2725,10 @@
         <v>1.85</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R17" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S17" t="n">
         <v>3.9</v>
@@ -2740,10 +2740,10 @@
         <v>2.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="W17" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X17" t="n">
         <v>13</v>
@@ -2752,7 +2752,7 @@
         <v>8.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA17" t="n">
         <v>24</v>
@@ -2761,19 +2761,19 @@
         <v>14</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD17" t="n">
         <v>10.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF17" t="n">
         <v>29</v>
       </c>
       <c r="AG17" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH17" t="n">
         <v>19.5</v>
@@ -2782,13 +2782,13 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AK17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL17" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM17" t="n">
         <v>120</v>
@@ -2797,7 +2797,7 @@
         <v>65</v>
       </c>
       <c r="AO17" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
         <v>3.1</v>
       </c>
       <c r="H18" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I18" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J18" t="n">
         <v>3.4</v>
@@ -2848,7 +2848,7 @@
         <v>1.48</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
         <v>3.35</v>
@@ -2857,7 +2857,7 @@
         <v>1.41</v>
       </c>
       <c r="P18" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q18" t="n">
         <v>2.24</v>
@@ -2866,10 +2866,10 @@
         <v>1.3</v>
       </c>
       <c r="S18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U18" t="n">
         <v>2.06</v>
@@ -2878,7 +2878,7 @@
         <v>1.6</v>
       </c>
       <c r="W18" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X18" t="n">
         <v>11</v>
@@ -2887,10 +2887,10 @@
         <v>9.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB18" t="n">
         <v>10.5</v>
@@ -2926,7 +2926,7 @@
         <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
         <v>40</v>
@@ -2968,16 +2968,16 @@
         <v>4.8</v>
       </c>
       <c r="H19" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.8</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.81</v>
       </c>
       <c r="J19" t="n">
         <v>4.2</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
         <v>1.32</v>
@@ -2992,7 +2992,7 @@
         <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q19" t="n">
         <v>1.63</v>
@@ -3010,7 +3010,7 @@
         <v>2.48</v>
       </c>
       <c r="V19" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="W19" t="n">
         <v>1.26</v>
@@ -3028,7 +3028,7 @@
         <v>19.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC19" t="n">
         <v>9.800000000000001</v>
@@ -3040,7 +3040,7 @@
         <v>16</v>
       </c>
       <c r="AF19" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG19" t="n">
         <v>18.5</v>
@@ -3049,10 +3049,10 @@
         <v>16.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="n">
         <v>48</v>
@@ -3064,7 +3064,7 @@
         <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO19" t="n">
         <v>8</v>
@@ -3103,10 +3103,10 @@
         <v>1.5</v>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I20" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J20" t="n">
         <v>5.2</v>
@@ -3151,16 +3151,16 @@
         <v>3</v>
       </c>
       <c r="X20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y20" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z20" t="n">
         <v>70</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB20" t="n">
         <v>14.5</v>
@@ -3184,10 +3184,10 @@
         <v>18.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ20" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK20" t="n">
         <v>13</v>
@@ -3202,7 +3202,7 @@
         <v>4.7</v>
       </c>
       <c r="AO20" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -3241,7 +3241,7 @@
         <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J21" t="n">
         <v>6.6</v>
@@ -3271,10 +3271,10 @@
         <v>1.99</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T21" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U21" t="n">
         <v>2.3</v>
@@ -3286,10 +3286,10 @@
         <v>4</v>
       </c>
       <c r="X21" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Y21" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z21" t="n">
         <v>110</v>
@@ -3331,13 +3331,13 @@
         <v>25</v>
       </c>
       <c r="AM21" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G22" t="n">
         <v>2.6</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2.62</v>
       </c>
       <c r="H22" t="n">
         <v>2.84</v>
@@ -3388,7 +3388,7 @@
         <v>1.36</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
         <v>4.6</v>
@@ -3397,13 +3397,13 @@
         <v>1.26</v>
       </c>
       <c r="P22" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R22" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S22" t="n">
         <v>3</v>
@@ -3412,13 +3412,13 @@
         <v>1.66</v>
       </c>
       <c r="U22" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V22" t="n">
         <v>1.53</v>
       </c>
       <c r="W22" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X22" t="n">
         <v>18</v>
@@ -3430,7 +3430,7 @@
         <v>20</v>
       </c>
       <c r="AA22" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB22" t="n">
         <v>13</v>
@@ -3463,13 +3463,13 @@
         <v>26</v>
       </c>
       <c r="AL22" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
         <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO22" t="n">
         <v>21</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -667,94 +667,94 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="G2" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="H2" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>3.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N2" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="O2" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="P2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.48</v>
+        <v>2.94</v>
       </c>
       <c r="R2" t="n">
         <v>1.13</v>
       </c>
       <c r="S2" t="n">
-        <v>1.05</v>
+        <v>6.8</v>
       </c>
       <c r="T2" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="U2" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="W2" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
         <v>8.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF2" t="n">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AH2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI2" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="AJ2" t="n">
         <v>900</v>
@@ -772,7 +772,7 @@
         <v>500</v>
       </c>
       <c r="AO2" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -805,10 +805,10 @@
         <v>1.52</v>
       </c>
       <c r="G3" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="H3" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I3" t="n">
         <v>7.6</v>
@@ -832,19 +832,19 @@
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="U3" t="n">
         <v>1.94</v>
@@ -853,7 +853,7 @@
         <v>1.15</v>
       </c>
       <c r="W3" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="X3" t="n">
         <v>34</v>
@@ -865,7 +865,7 @@
         <v>210</v>
       </c>
       <c r="AA3" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AB3" t="n">
         <v>9.6</v>
@@ -901,13 +901,13 @@
         <v>130</v>
       </c>
       <c r="AM3" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AO3" t="n">
         <v>160</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>170</v>
       </c>
     </row>
     <row r="4">
@@ -943,10 +943,10 @@
         <v>6.4</v>
       </c>
       <c r="H4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I4" t="n">
         <v>1.56</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.57</v>
       </c>
       <c r="J4" t="n">
         <v>4.9</v>
@@ -958,7 +958,7 @@
         <v>1.32</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
         <v>5.3</v>
@@ -970,10 +970,10 @@
         <v>2.46</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R4" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
         <v>2.66</v>
@@ -982,10 +982,10 @@
         <v>1.79</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V4" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="W4" t="n">
         <v>1.18</v>
@@ -997,7 +997,7 @@
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AA4" t="n">
         <v>14.5</v>
@@ -1018,7 +1018,7 @@
         <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="H5" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>4.3</v>
@@ -1096,46 +1096,46 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S5" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T5" t="n">
         <v>1.61</v>
       </c>
       <c r="U5" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
         <v>1.32</v>
       </c>
       <c r="W5" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="X5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z5" t="n">
         <v>32</v>
       </c>
       <c r="AA5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB5" t="n">
         <v>12.5</v>
@@ -1147,19 +1147,19 @@
         <v>16.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AF5" t="n">
         <v>15</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
         <v>16.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AJ5" t="n">
         <v>25</v>
@@ -1168,16 +1168,16 @@
         <v>20</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM5" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="AN5" t="n">
         <v>11.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1219,7 +1219,7 @@
         <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="n">
         <v>5.2</v>
@@ -1237,13 +1237,13 @@
         <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
         <v>2.22</v>
@@ -1261,7 +1261,7 @@
         <v>2.72</v>
       </c>
       <c r="X6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y6" t="n">
         <v>32</v>
@@ -1303,7 +1303,7 @@
         <v>14</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
         <v>80</v>
@@ -1369,7 +1369,7 @@
         <v>8.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P7" t="n">
         <v>3.45</v>
@@ -1381,13 +1381,13 @@
         <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="T7" t="n">
         <v>1.61</v>
       </c>
       <c r="U7" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="V7" t="n">
         <v>3.35</v>
@@ -1408,7 +1408,7 @@
         <v>14</v>
       </c>
       <c r="AB7" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC7" t="n">
         <v>15</v>
@@ -1420,7 +1420,7 @@
         <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG7" t="n">
         <v>28</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G8" t="n">
         <v>3.05</v>
@@ -1486,7 +1486,7 @@
         <v>2.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J8" t="n">
         <v>3.45</v>
@@ -1504,10 +1504,10 @@
         <v>3.35</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q8" t="n">
         <v>2.1</v>
@@ -1516,7 +1516,7 @@
         <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
         <v>1.85</v>
@@ -1534,13 +1534,13 @@
         <v>13.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
         <v>18.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="AB8" t="n">
         <v>11</v>
@@ -1561,7 +1561,7 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
         <v>500</v>
@@ -1621,7 +1621,7 @@
         <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
         <v>3.2</v>
@@ -1681,7 +1681,7 @@
         <v>970</v>
       </c>
       <c r="AC9" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AD9" t="n">
         <v>970</v>
@@ -1696,7 +1696,7 @@
         <v>40</v>
       </c>
       <c r="AH9" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AI9" t="n">
         <v>500</v>
@@ -1705,10 +1705,10 @@
         <v>130</v>
       </c>
       <c r="AK9" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AL9" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AM9" t="n">
         <v>580</v>
@@ -1765,7 +1765,7 @@
         <v>4.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -1792,7 +1792,7 @@
         <v>1.97</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V10" t="n">
         <v>2.48</v>
@@ -1897,7 +1897,7 @@
         <v>5.1</v>
       </c>
       <c r="K11" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1918,10 +1918,10 @@
         <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="T11" t="n">
         <v>1.66</v>
@@ -1960,7 +1960,7 @@
         <v>420</v>
       </c>
       <c r="AF11" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
         <v>16</v>
@@ -1972,7 +1972,7 @@
         <v>250</v>
       </c>
       <c r="AJ11" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="AK11" t="n">
         <v>28</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="G12" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K12" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L12" t="n">
         <v>1.27</v>
@@ -2047,10 +2047,10 @@
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R12" t="n">
         <v>1.47</v>
@@ -2065,16 +2065,16 @@
         <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="W12" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="X12" t="n">
         <v>90</v>
       </c>
       <c r="Y12" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="Z12" t="n">
         <v>190</v>
@@ -2089,7 +2089,7 @@
         <v>14</v>
       </c>
       <c r="AD12" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="AE12" t="n">
         <v>500</v>
@@ -2119,7 +2119,7 @@
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO12" t="n">
         <v>500</v>
@@ -2170,7 +2170,7 @@
         <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2185,13 +2185,13 @@
         <v>2.14</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R13" t="n">
         <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="T13" t="n">
         <v>1.62</v>
@@ -2206,7 +2206,7 @@
         <v>1.45</v>
       </c>
       <c r="X13" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" t="n">
         <v>13.5</v>
@@ -2221,7 +2221,7 @@
         <v>15.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD13" t="n">
         <v>11.5</v>
@@ -2329,16 +2329,16 @@
         <v>2.76</v>
       </c>
       <c r="T14" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U14" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V14" t="n">
         <v>1.11</v>
       </c>
       <c r="W14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="X14" t="n">
         <v>21</v>
@@ -2371,7 +2371,7 @@
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AI14" t="n">
         <v>520</v>
@@ -2425,10 +2425,10 @@
         <v>2.42</v>
       </c>
       <c r="G15" t="n">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="H15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
         <v>3.45</v>
@@ -2560,13 +2560,13 @@
         <v>2.9</v>
       </c>
       <c r="G16" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H16" t="n">
         <v>2.52</v>
       </c>
       <c r="I16" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="J16" t="n">
         <v>3.75</v>
@@ -2602,7 +2602,7 @@
         <v>1.66</v>
       </c>
       <c r="U16" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="V16" t="n">
         <v>1.64</v>
@@ -2611,7 +2611,7 @@
         <v>1.52</v>
       </c>
       <c r="X16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y16" t="n">
         <v>13</v>
@@ -2620,7 +2620,7 @@
         <v>17.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AB16" t="n">
         <v>13.5</v>
@@ -2659,7 +2659,7 @@
         <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>17</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G17" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H17" t="n">
         <v>2.06</v>
       </c>
       <c r="I17" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J17" t="n">
         <v>3.55</v>
@@ -2731,7 +2731,7 @@
         <v>1.32</v>
       </c>
       <c r="S17" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T17" t="n">
         <v>1.91</v>
@@ -2743,16 +2743,16 @@
         <v>1.92</v>
       </c>
       <c r="W17" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X17" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y17" t="n">
         <v>8.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA17" t="n">
         <v>24</v>
@@ -2767,13 +2767,13 @@
         <v>10.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF17" t="n">
         <v>29</v>
       </c>
       <c r="AG17" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>19.5</v>
@@ -2797,7 +2797,7 @@
         <v>65</v>
       </c>
       <c r="AO17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="18">
@@ -2830,19 +2830,19 @@
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H18" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I18" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.45</v>
       </c>
       <c r="L18" t="n">
         <v>1.48</v>
@@ -2851,7 +2851,7 @@
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O18" t="n">
         <v>1.41</v>
@@ -2860,7 +2860,7 @@
         <v>1.78</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R18" t="n">
         <v>1.3</v>
@@ -2869,25 +2869,25 @@
         <v>4.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U18" t="n">
         <v>2.06</v>
       </c>
       <c r="V18" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W18" t="n">
         <v>1.48</v>
       </c>
       <c r="X18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
         <v>9.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA18" t="n">
         <v>40</v>
@@ -2932,7 +2932,7 @@
         <v>40</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G19" t="n">
         <v>4.7</v>
       </c>
-      <c r="G19" t="n">
-        <v>4.8</v>
-      </c>
       <c r="H19" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I19" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="J19" t="n">
         <v>4.2</v>
@@ -3010,10 +3010,10 @@
         <v>2.48</v>
       </c>
       <c r="V19" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="W19" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X19" t="n">
         <v>22</v>
@@ -3040,7 +3040,7 @@
         <v>16</v>
       </c>
       <c r="AF19" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG19" t="n">
         <v>18.5</v>
@@ -3103,7 +3103,7 @@
         <v>1.5</v>
       </c>
       <c r="H20" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I20" t="n">
         <v>7.2</v>
@@ -3112,7 +3112,7 @@
         <v>5.2</v>
       </c>
       <c r="K20" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L20" t="n">
         <v>1.25</v>
@@ -3133,10 +3133,10 @@
         <v>1.46</v>
       </c>
       <c r="R20" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="S20" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T20" t="n">
         <v>1.63</v>
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="Y20" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z20" t="n">
         <v>70</v>
@@ -3187,13 +3187,13 @@
         <v>60</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK20" t="n">
         <v>13</v>
       </c>
       <c r="AL20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM20" t="n">
         <v>70</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G21" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H21" t="n">
         <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K21" t="n">
         <v>6.6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>6.8</v>
       </c>
       <c r="L21" t="n">
         <v>1.22</v>
@@ -3283,7 +3283,7 @@
         <v>1.1</v>
       </c>
       <c r="W21" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="X21" t="n">
         <v>44</v>
@@ -3319,10 +3319,10 @@
         <v>23</v>
       </c>
       <c r="AI21" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ21" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK21" t="n">
         <v>13</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G22" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H22" t="n">
         <v>2.84</v>
@@ -3400,7 +3400,7 @@
         <v>2.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R22" t="n">
         <v>1.48</v>
@@ -3418,7 +3418,7 @@
         <v>1.53</v>
       </c>
       <c r="W22" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X22" t="n">
         <v>18</v>
@@ -3469,7 +3469,7 @@
         <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO22" t="n">
         <v>21</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -667,40 +667,40 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
         <v>7.2</v>
       </c>
       <c r="H2" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="I2" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K2" t="n">
         <v>3.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="M2" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N2" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
         <v>1.13</v>
@@ -712,13 +712,13 @@
         <v>2.52</v>
       </c>
       <c r="U2" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="V2" t="n">
         <v>2.08</v>
       </c>
       <c r="W2" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="X2" t="n">
         <v>7.6</v>
@@ -727,13 +727,13 @@
         <v>5.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA2" t="n">
         <v>23</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8.4</v>
@@ -745,7 +745,7 @@
         <v>32</v>
       </c>
       <c r="AF2" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AG2" t="n">
         <v>32</v>
@@ -802,61 +802,61 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="G3" t="n">
         <v>1.59</v>
       </c>
       <c r="H3" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I3" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J3" t="n">
         <v>4.4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="R3" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T3" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U3" t="n">
         <v>1.94</v>
       </c>
       <c r="V3" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="X3" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="Y3" t="n">
         <v>970</v>
@@ -880,10 +880,10 @@
         <v>290</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.4</v>
+        <v>19.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH3" t="n">
         <v>210</v>
@@ -892,7 +892,7 @@
         <v>290</v>
       </c>
       <c r="AJ3" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK3" t="n">
         <v>36</v>
@@ -901,10 +901,10 @@
         <v>130</v>
       </c>
       <c r="AM3" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AO3" t="n">
         <v>160</v>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="G4" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="I4" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="J4" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O4" t="n">
         <v>1.21</v>
@@ -970,55 +970,55 @@
         <v>2.46</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="S4" t="n">
         <v>2.66</v>
       </c>
       <c r="T4" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U4" t="n">
         <v>2.18</v>
       </c>
       <c r="V4" t="n">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="W4" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X4" t="n">
         <v>22</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
         <v>9.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC4" t="n">
         <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
@@ -1027,22 +1027,22 @@
         <v>28</v>
       </c>
       <c r="AJ4" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL4" t="n">
         <v>75</v>
       </c>
-      <c r="AL4" t="n">
-        <v>70</v>
-      </c>
       <c r="AM4" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN4" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="G5" t="n">
         <v>2.12</v>
@@ -1081,46 +1081,46 @@
         <v>3.65</v>
       </c>
       <c r="I5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.1</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S5" t="n">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
       <c r="T5" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V5" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
         <v>1.9</v>
@@ -1132,7 +1132,7 @@
         <v>18.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA5" t="n">
         <v>70</v>
@@ -1144,7 +1144,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
         <v>100</v>
@@ -1156,10 +1156,10 @@
         <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AJ5" t="n">
         <v>25</v>
@@ -1168,13 +1168,13 @@
         <v>20</v>
       </c>
       <c r="AL5" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AM5" t="n">
         <v>330</v>
       </c>
       <c r="AN5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
         <v>32</v>
@@ -1207,55 +1207,55 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="G6" t="n">
         <v>1.58</v>
       </c>
       <c r="H6" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
         <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="T6" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U6" t="n">
         <v>2.42</v>
       </c>
       <c r="V6" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W6" t="n">
         <v>2.72</v>
@@ -1264,13 +1264,13 @@
         <v>29</v>
       </c>
       <c r="Y6" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AA6" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="AB6" t="n">
         <v>13.5</v>
@@ -1282,19 +1282,19 @@
         <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
         <v>16</v>
@@ -1303,13 +1303,13 @@
         <v>14</v>
       </c>
       <c r="AL6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AO6" t="n">
         <v>60</v>
@@ -1366,37 +1366,37 @@
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P7" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="S7" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="T7" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U7" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="V7" t="n">
         <v>3.35</v>
       </c>
       <c r="W7" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X7" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y7" t="n">
         <v>15.5</v>
@@ -1414,7 +1414,7 @@
         <v>15</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
@@ -1429,25 +1429,25 @@
         <v>19.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
         <v>220</v>
       </c>
       <c r="AK7" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM7" t="n">
         <v>65</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>75</v>
       </c>
       <c r="AN7" t="n">
         <v>60</v>
       </c>
       <c r="AO7" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="G8" t="n">
         <v>3.05</v>
       </c>
       <c r="H8" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="I8" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.46</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.38</v>
-      </c>
       <c r="P8" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="R8" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="U8" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="V8" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W8" t="n">
         <v>1.48</v>
       </c>
       <c r="X8" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC8" t="n">
         <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE8" t="n">
         <v>34</v>
       </c>
       <c r="AF8" t="n">
-        <v>36</v>
+        <v>18.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL8" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AO8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1612,40 +1612,40 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G9" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I9" t="n">
         <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
         <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P9" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="R9" t="n">
         <v>1.31</v>
@@ -1660,10 +1660,10 @@
         <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W9" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="X9" t="n">
         <v>90</v>
@@ -1681,7 +1681,7 @@
         <v>970</v>
       </c>
       <c r="AC9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AD9" t="n">
         <v>970</v>
@@ -1705,7 +1705,7 @@
         <v>130</v>
       </c>
       <c r="AK9" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AL9" t="n">
         <v>500</v>
@@ -1747,58 +1747,58 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="G10" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="I10" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="J10" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
         <v>4.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="O10" t="n">
         <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="R10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S10" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="T10" t="n">
         <v>1.97</v>
       </c>
       <c r="U10" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V10" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="W10" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X10" t="n">
         <v>90</v>
@@ -1816,7 +1816,7 @@
         <v>970</v>
       </c>
       <c r="AC10" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AD10" t="n">
         <v>40</v>
@@ -1828,7 +1828,7 @@
         <v>240</v>
       </c>
       <c r="AG10" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AH10" t="n">
         <v>970</v>
@@ -1846,7 +1846,7 @@
         <v>430</v>
       </c>
       <c r="AM10" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
         <v>1000</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="G11" t="n">
         <v>1.55</v>
       </c>
       <c r="H11" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I11" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J11" t="n">
         <v>5.1</v>
@@ -1900,28 +1900,28 @@
         <v>5.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S11" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="T11" t="n">
         <v>1.66</v>
@@ -1936,7 +1936,7 @@
         <v>2.8</v>
       </c>
       <c r="X11" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Y11" t="n">
         <v>970</v>
@@ -1945,16 +1945,16 @@
         <v>350</v>
       </c>
       <c r="AA11" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB11" t="n">
         <v>22</v>
       </c>
       <c r="AC11" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AD11" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AE11" t="n">
         <v>420</v>
@@ -2017,61 +2017,61 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="G12" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H12" t="n">
         <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J12" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T12" t="n">
         <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="V12" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W12" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="X12" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="Y12" t="n">
         <v>110</v>
@@ -2086,22 +2086,22 @@
         <v>20</v>
       </c>
       <c r="AC12" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD12" t="n">
         <v>500</v>
       </c>
       <c r="AE12" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="AF12" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AG12" t="n">
         <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AI12" t="n">
         <v>500</v>
@@ -2110,7 +2110,7 @@
         <v>120</v>
       </c>
       <c r="AK12" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AL12" t="n">
         <v>970</v>
@@ -2119,7 +2119,7 @@
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.800000000000001</v>
+        <v>29</v>
       </c>
       <c r="AO12" t="n">
         <v>500</v>
@@ -2152,46 +2152,46 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H13" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="R13" t="n">
         <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="T13" t="n">
         <v>1.62</v>
@@ -2200,16 +2200,16 @@
         <v>2.32</v>
       </c>
       <c r="V13" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="W13" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X13" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
         <v>17.5</v>
@@ -2254,10 +2254,10 @@
         <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="14">
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="G14" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H14" t="n">
         <v>8.800000000000001</v>
@@ -2305,31 +2305,31 @@
         <v>5.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O14" t="n">
         <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R14" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S14" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="T14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
         <v>1.83</v>
@@ -2347,7 +2347,7 @@
         <v>80</v>
       </c>
       <c r="Z14" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AA14" t="n">
         <v>380</v>
@@ -2377,10 +2377,10 @@
         <v>520</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL14" t="n">
         <v>130</v>
@@ -2389,7 +2389,7 @@
         <v>430</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="AO14" t="n">
         <v>230</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="G15" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="H15" t="n">
         <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J15" t="n">
         <v>3.2</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G16" t="n">
         <v>2.94</v>
@@ -2566,7 +2566,7 @@
         <v>2.52</v>
       </c>
       <c r="I16" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J16" t="n">
         <v>3.75</v>
@@ -2578,7 +2578,7 @@
         <v>1.38</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
         <v>4.6</v>
@@ -2590,13 +2590,13 @@
         <v>2.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R16" t="n">
         <v>1.48</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T16" t="n">
         <v>1.66</v>
@@ -2605,10 +2605,10 @@
         <v>2.42</v>
       </c>
       <c r="V16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W16" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X16" t="n">
         <v>18</v>
@@ -2647,10 +2647,10 @@
         <v>32</v>
       </c>
       <c r="AJ16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL16" t="n">
         <v>36</v>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G17" t="n">
         <v>4.2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4.3</v>
       </c>
       <c r="H17" t="n">
         <v>2.06</v>
@@ -2704,10 +2704,10 @@
         <v>2.08</v>
       </c>
       <c r="J17" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L17" t="n">
         <v>1.45</v>
@@ -2743,10 +2743,10 @@
         <v>1.92</v>
       </c>
       <c r="W17" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y17" t="n">
         <v>8.6</v>
@@ -2758,22 +2758,22 @@
         <v>24</v>
       </c>
       <c r="AB17" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC17" t="n">
         <v>7.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
         <v>22</v>
       </c>
       <c r="AF17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH17" t="n">
         <v>19.5</v>
@@ -2833,7 +2833,7 @@
         <v>3.05</v>
       </c>
       <c r="H18" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I18" t="n">
         <v>2.68</v>
@@ -2842,37 +2842,37 @@
         <v>3.35</v>
       </c>
       <c r="K18" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L18" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P18" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S18" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="U18" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V18" t="n">
         <v>1.59</v>
@@ -2881,19 +2881,19 @@
         <v>1.48</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA18" t="n">
         <v>40</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC18" t="n">
         <v>7.2</v>
@@ -2905,7 +2905,7 @@
         <v>30</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
@@ -2914,10 +2914,10 @@
         <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AJ18" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK18" t="n">
         <v>38</v>
@@ -2932,7 +2932,7 @@
         <v>40</v>
       </c>
       <c r="AO18" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2965,19 +2965,19 @@
         <v>4.6</v>
       </c>
       <c r="G19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H19" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I19" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="J19" t="n">
         <v>4.2</v>
       </c>
       <c r="K19" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
         <v>1.32</v>
@@ -2986,7 +2986,7 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.21</v>
@@ -3001,7 +3001,7 @@
         <v>1.61</v>
       </c>
       <c r="S19" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T19" t="n">
         <v>1.65</v>
@@ -3013,7 +3013,7 @@
         <v>2.22</v>
       </c>
       <c r="W19" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X19" t="n">
         <v>22</v>
@@ -3025,13 +3025,13 @@
         <v>12.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB19" t="n">
         <v>22</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD19" t="n">
         <v>10</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G20" t="n">
         <v>1.49</v>
       </c>
-      <c r="G20" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I20" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J20" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K20" t="n">
         <v>5.4</v>
@@ -3130,10 +3130,10 @@
         <v>3.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R20" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S20" t="n">
         <v>2.12</v>
@@ -3145,10 +3145,10 @@
         <v>2.5</v>
       </c>
       <c r="V20" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W20" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X20" t="n">
         <v>34</v>
@@ -3184,7 +3184,7 @@
         <v>18.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="n">
         <v>14.5</v>
@@ -3199,7 +3199,7 @@
         <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AO20" t="n">
         <v>60</v>
@@ -3238,79 +3238,79 @@
         <v>1.34</v>
       </c>
       <c r="H21" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I21" t="n">
         <v>10</v>
       </c>
-      <c r="I21" t="n">
-        <v>11</v>
-      </c>
       <c r="J21" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K21" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M21" t="n">
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P21" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="R21" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="T21" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="U21" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="V21" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W21" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="X21" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Y21" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Z21" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA21" t="n">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="AB21" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD21" t="n">
         <v>38</v>
       </c>
       <c r="AE21" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
@@ -3319,7 +3319,7 @@
         <v>23</v>
       </c>
       <c r="AI21" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="n">
         <v>12.5</v>
@@ -3328,16 +3328,16 @@
         <v>13</v>
       </c>
       <c r="AL21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM21" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G22" t="n">
         <v>2.6</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2.62</v>
       </c>
       <c r="H22" t="n">
         <v>2.84</v>
@@ -3379,13 +3379,13 @@
         <v>2.86</v>
       </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K22" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L22" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -3400,7 +3400,7 @@
         <v>2.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R22" t="n">
         <v>1.48</v>
@@ -3415,10 +3415,10 @@
         <v>2.44</v>
       </c>
       <c r="V22" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W22" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X22" t="n">
         <v>18</v>
@@ -3427,10 +3427,10 @@
         <v>13.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB22" t="n">
         <v>13</v>
@@ -3448,7 +3448,7 @@
         <v>18</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH22" t="n">
         <v>15.5</v>
@@ -3460,7 +3460,7 @@
         <v>38</v>
       </c>
       <c r="AK22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL22" t="n">
         <v>34</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -667,91 +667,91 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="G2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S2" t="n">
         <v>7.2</v>
       </c>
-      <c r="H2" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S2" t="n">
-        <v>6.8</v>
-      </c>
       <c r="T2" t="n">
-        <v>2.52</v>
+        <v>2.34</v>
       </c>
       <c r="U2" t="n">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
       <c r="V2" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="X2" t="n">
-        <v>7.6</v>
+        <v>970</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.5</v>
+        <v>970</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.199999999999999</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>900</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>42</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="AE2" t="n">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="AF2" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AH2" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AI2" t="n">
         <v>200</v>
@@ -772,7 +772,7 @@
         <v>500</v>
       </c>
       <c r="AO2" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="G3" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="H3" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="I3" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="K3" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="R3" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="T3" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.89</v>
       </c>
-      <c r="U3" t="n">
-        <v>1.94</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W3" t="n">
-        <v>2.68</v>
+        <v>2.96</v>
       </c>
       <c r="X3" t="n">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="Y3" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="Z3" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="AA3" t="n">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="AF3" t="n">
-        <v>19.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>290</v>
+        <v>110</v>
       </c>
       <c r="AJ3" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL3" t="n">
         <v>36</v>
       </c>
-      <c r="AL3" t="n">
-        <v>130</v>
-      </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
@@ -943,10 +943,10 @@
         <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="J4" t="n">
         <v>5.1</v>
@@ -961,46 +961,46 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R4" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="T4" t="n">
         <v>1.81</v>
       </c>
       <c r="U4" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V4" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="W4" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X4" t="n">
         <v>22</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
         <v>9.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB4" t="n">
         <v>27</v>
@@ -1021,13 +1021,13 @@
         <v>25</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AK4" t="n">
         <v>85</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="G5" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="H5" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="I5" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
         <v>3.85</v>
@@ -1090,85 +1090,85 @@
         <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="T5" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="U5" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="V5" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="W5" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="n">
         <v>18.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="AB5" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
         <v>100</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
         <v>330</v>
@@ -1177,7 +1177,7 @@
         <v>11</v>
       </c>
       <c r="AO5" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -1210,49 +1210,49 @@
         <v>1.55</v>
       </c>
       <c r="G6" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H6" t="n">
         <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J6" t="n">
         <v>4.7</v>
       </c>
       <c r="K6" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S6" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="T6" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U6" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V6" t="n">
         <v>1.17</v>
@@ -1261,7 +1261,7 @@
         <v>2.72</v>
       </c>
       <c r="X6" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="n">
         <v>34</v>
@@ -1270,10 +1270,10 @@
         <v>150</v>
       </c>
       <c r="AA6" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC6" t="n">
         <v>12</v>
@@ -1282,16 +1282,16 @@
         <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="AF6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI6" t="n">
         <v>60</v>
@@ -1303,16 +1303,16 @@
         <v>14</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G7" t="n">
         <v>7.6</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7.8</v>
       </c>
       <c r="H7" t="n">
         <v>1.41</v>
@@ -1360,34 +1360,34 @@
         <v>6.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O7" t="n">
         <v>1.11</v>
       </c>
       <c r="P7" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="R7" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="T7" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="U7" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="V7" t="n">
         <v>3.35</v>
@@ -1396,25 +1396,25 @@
         <v>1.15</v>
       </c>
       <c r="X7" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Y7" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC7" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>46</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>15</v>
-      </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
@@ -1426,7 +1426,7 @@
         <v>28</v>
       </c>
       <c r="AH7" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
         <v>21</v>
@@ -1435,19 +1435,19 @@
         <v>220</v>
       </c>
       <c r="AK7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM7" t="n">
         <v>60</v>
       </c>
-      <c r="AM7" t="n">
-        <v>65</v>
-      </c>
       <c r="AN7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="8">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="G8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="I8" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="J8" t="n">
         <v>3.4</v>
@@ -1495,55 +1495,55 @@
         <v>3.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="O8" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="P8" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="R8" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="U8" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="V8" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="W8" t="n">
         <v>1.48</v>
       </c>
       <c r="X8" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA8" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AB8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC8" t="n">
         <v>7.4</v>
@@ -1555,16 +1555,16 @@
         <v>34</v>
       </c>
       <c r="AF8" t="n">
-        <v>18.5</v>
+        <v>36</v>
       </c>
       <c r="AG8" t="n">
         <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ8" t="n">
         <v>55</v>
@@ -1573,16 +1573,16 @@
         <v>40</v>
       </c>
       <c r="AL8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO8" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="G9" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H9" t="n">
         <v>3.85</v>
@@ -1627,7 +1627,7 @@
         <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>1.43</v>
@@ -1642,7 +1642,7 @@
         <v>1.34</v>
       </c>
       <c r="P9" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q9" t="n">
         <v>2.04</v>
@@ -1663,7 +1663,7 @@
         <v>1.29</v>
       </c>
       <c r="W9" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X9" t="n">
         <v>90</v>
@@ -1681,7 +1681,7 @@
         <v>970</v>
       </c>
       <c r="AC9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD9" t="n">
         <v>970</v>
@@ -1750,16 +1750,16 @@
         <v>6.2</v>
       </c>
       <c r="G10" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="H10" t="n">
         <v>1.56</v>
       </c>
       <c r="I10" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="J10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>4.7</v>
@@ -1771,19 +1771,19 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O10" t="n">
         <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q10" t="n">
         <v>1.96</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
         <v>3.45</v>
@@ -1795,10 +1795,10 @@
         <v>1.86</v>
       </c>
       <c r="V10" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="W10" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X10" t="n">
         <v>90</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G11" t="n">
         <v>1.55</v>
       </c>
       <c r="H11" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I11" t="n">
         <v>6.6</v>
@@ -1897,7 +1897,7 @@
         <v>5.1</v>
       </c>
       <c r="K11" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.28</v>
@@ -1906,7 +1906,7 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O11" t="n">
         <v>1.17</v>
@@ -1915,10 +1915,10 @@
         <v>2.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R11" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
         <v>2.38</v>
@@ -1927,16 +1927,16 @@
         <v>1.66</v>
       </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V11" t="n">
         <v>1.18</v>
       </c>
       <c r="W11" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="X11" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Y11" t="n">
         <v>970</v>
@@ -1948,7 +1948,7 @@
         <v>160</v>
       </c>
       <c r="AB11" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
         <v>16</v>
@@ -1984,7 +1984,7 @@
         <v>330</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AO11" t="n">
         <v>150</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="G12" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I12" t="n">
         <v>5.6</v>
       </c>
       <c r="J12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K12" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.32</v>
@@ -2041,7 +2041,7 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
         <v>1.22</v>
@@ -2050,16 +2050,16 @@
         <v>2.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="U12" t="n">
         <v>2.28</v>
@@ -2068,10 +2068,10 @@
         <v>1.22</v>
       </c>
       <c r="W12" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="X12" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="Y12" t="n">
         <v>110</v>
@@ -2086,7 +2086,7 @@
         <v>20</v>
       </c>
       <c r="AC12" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD12" t="n">
         <v>500</v>
@@ -2110,10 +2110,10 @@
         <v>120</v>
       </c>
       <c r="AK12" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AL12" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
         <v>580</v>
@@ -2158,7 +2158,7 @@
         <v>3.15</v>
       </c>
       <c r="H13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I13" t="n">
         <v>2.5</v>
@@ -2179,10 +2179,10 @@
         <v>4.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q13" t="n">
         <v>1.76</v>
@@ -2191,7 +2191,7 @@
         <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T13" t="n">
         <v>1.62</v>
@@ -2206,7 +2206,7 @@
         <v>1.47</v>
       </c>
       <c r="X13" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
         <v>13</v>
@@ -2287,61 +2287,61 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="G14" t="n">
         <v>1.44</v>
       </c>
       <c r="H14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="I14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J14" t="n">
+        <v>5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
         <v>4.9</v>
       </c>
-      <c r="K14" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4.6</v>
-      </c>
       <c r="O14" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R14" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="S14" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="U14" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V14" t="n">
         <v>1.11</v>
       </c>
       <c r="W14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y14" t="n">
         <v>80</v>
@@ -2350,22 +2350,22 @@
         <v>95</v>
       </c>
       <c r="AA14" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="AB14" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
         <v>95</v>
       </c>
       <c r="AE14" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
@@ -2380,7 +2380,7 @@
         <v>12.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL14" t="n">
         <v>130</v>
@@ -2392,7 +2392,7 @@
         <v>5.8</v>
       </c>
       <c r="AO14" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15">
@@ -2425,16 +2425,16 @@
         <v>2.46</v>
       </c>
       <c r="G15" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="H15" t="n">
         <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
         <v>3.45</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2575,37 +2575,37 @@
         <v>3.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R16" t="n">
         <v>1.48</v>
       </c>
       <c r="S16" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="T16" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U16" t="n">
         <v>2.42</v>
       </c>
       <c r="V16" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W16" t="n">
         <v>1.51</v>
@@ -2620,10 +2620,10 @@
         <v>17.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC16" t="n">
         <v>8</v>
@@ -2641,7 +2641,7 @@
         <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
         <v>32</v>
@@ -2659,10 +2659,10 @@
         <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="17">
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G17" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H17" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I17" t="n">
         <v>2.06</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.08</v>
       </c>
       <c r="J17" t="n">
         <v>3.6</v>
@@ -2710,46 +2710,46 @@
         <v>3.65</v>
       </c>
       <c r="L17" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="P17" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="R17" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="S17" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="U17" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="V17" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="W17" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="Z17" t="n">
         <v>11.5</v>
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="AB17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC17" t="n">
         <v>7.6</v>
@@ -2767,37 +2767,37 @@
         <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF17" t="n">
         <v>28</v>
       </c>
       <c r="AG17" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ17" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL17" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM17" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AO17" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="18">
@@ -2833,16 +2833,16 @@
         <v>3.05</v>
       </c>
       <c r="H18" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I18" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J18" t="n">
         <v>3.35</v>
       </c>
       <c r="K18" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L18" t="n">
         <v>1.5</v>
@@ -2863,13 +2863,13 @@
         <v>2.3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S18" t="n">
         <v>4.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U18" t="n">
         <v>2.04</v>
@@ -2908,13 +2908,13 @@
         <v>18.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ18" t="n">
         <v>50</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="G19" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H19" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I19" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="J19" t="n">
         <v>4.2</v>
@@ -2980,58 +2980,58 @@
         <v>4.3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="R19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T19" t="n">
         <v>1.61</v>
       </c>
-      <c r="S19" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.65</v>
-      </c>
       <c r="U19" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="V19" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="W19" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA19" t="n">
         <v>19</v>
       </c>
       <c r="AB19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
         <v>10</v>
@@ -3043,31 +3043,31 @@
         <v>38</v>
       </c>
       <c r="AG19" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI19" t="n">
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AK19" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL19" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM19" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN19" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO19" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="20">
@@ -3097,31 +3097,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="G20" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="H20" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="I20" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K20" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O20" t="n">
         <v>1.14</v>
@@ -3133,76 +3133,76 @@
         <v>1.45</v>
       </c>
       <c r="R20" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S20" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="U20" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="V20" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="W20" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="X20" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y20" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
         <v>14.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE20" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AF20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG20" t="n">
         <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ20" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK20" t="n">
         <v>13</v>
       </c>
       <c r="AL20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO20" t="n">
         <v>70</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -3241,52 +3241,52 @@
         <v>9.800000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J21" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K21" t="n">
         <v>6.6</v>
       </c>
-      <c r="K21" t="n">
-        <v>6.8</v>
-      </c>
       <c r="L21" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M21" t="n">
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P21" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="R21" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="S21" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U21" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="V21" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W21" t="n">
         <v>3.9</v>
       </c>
       <c r="X21" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="Y21" t="n">
         <v>55</v>
@@ -3295,28 +3295,28 @@
         <v>100</v>
       </c>
       <c r="AA21" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AB21" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE21" t="n">
         <v>110</v>
       </c>
       <c r="AF21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
         <v>80</v>
@@ -3325,19 +3325,19 @@
         <v>12.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM21" t="n">
         <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AO21" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
@@ -3367,28 +3367,28 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="G22" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="H22" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="J22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.85</v>
       </c>
       <c r="L22" t="n">
         <v>1.37</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
         <v>4.6</v>
@@ -3400,7 +3400,7 @@
         <v>2.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R22" t="n">
         <v>1.48</v>
@@ -3415,64 +3415,64 @@
         <v>2.44</v>
       </c>
       <c r="V22" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="W22" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X22" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC22" t="n">
         <v>8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF22" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
         <v>15.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM22" t="n">
         <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -667,94 +667,94 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>6.6</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
-        <v>1.93</v>
+        <v>2.3</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="J2" t="n">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="K2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N2" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="O2" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="P2" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="R2" t="n">
         <v>1.12</v>
       </c>
       <c r="S2" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="T2" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="W2" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="X2" t="n">
-        <v>970</v>
+        <v>6.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>970</v>
+        <v>6.2</v>
       </c>
       <c r="Z2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA2" t="n">
         <v>40</v>
       </c>
-      <c r="AA2" t="n">
-        <v>900</v>
-      </c>
       <c r="AB2" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AC2" t="n">
-        <v>42</v>
+        <v>7.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>40</v>
+        <v>14.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="AF2" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AH2" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AI2" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AJ2" t="n">
         <v>900</v>
@@ -769,10 +769,10 @@
         <v>500</v>
       </c>
       <c r="AN2" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO2" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G3" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H3" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="I3" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.54</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T3" t="n">
         <v>1.78</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.96</v>
-      </c>
       <c r="U3" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="V3" t="n">
         <v>1.14</v>
       </c>
       <c r="W3" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Y3" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AA3" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE3" t="n">
         <v>290</v>
       </c>
-      <c r="AB3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>120</v>
-      </c>
       <c r="AF3" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM3" t="n">
         <v>110</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>150</v>
-      </c>
       <c r="AN3" t="n">
-        <v>7.4</v>
+        <v>5.8</v>
       </c>
       <c r="AO3" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="H4" t="n">
         <v>1.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="J4" t="n">
         <v>5.1</v>
@@ -955,37 +955,37 @@
         <v>5.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S4" t="n">
         <v>2.54</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.56</v>
-      </c>
       <c r="T4" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V4" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="W4" t="n">
         <v>1.16</v>
@@ -994,7 +994,7 @@
         <v>22</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z4" t="n">
         <v>9.6</v>
@@ -1003,31 +1003,31 @@
         <v>13</v>
       </c>
       <c r="AB4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
         <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF4" t="n">
         <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AK4" t="n">
         <v>85</v>
@@ -1036,13 +1036,13 @@
         <v>75</v>
       </c>
       <c r="AM4" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="G5" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="H5" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="I5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.1</v>
       </c>
       <c r="L5" t="n">
         <v>1.36</v>
@@ -1099,82 +1099,82 @@
         <v>4.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q5" t="n">
         <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S5" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T5" t="n">
         <v>1.66</v>
       </c>
       <c r="U5" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V5" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="X5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y5" t="n">
         <v>20</v>
       </c>
-      <c r="Y5" t="n">
-        <v>18.5</v>
-      </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA5" t="n">
-        <v>260</v>
+        <v>95</v>
       </c>
       <c r="AB5" t="n">
         <v>11.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH5" t="n">
         <v>17</v>
       </c>
-      <c r="AE5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO5" t="n">
         <v>42</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="G6" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I6" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K6" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="S6" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="U6" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="V6" t="n">
         <v>1.17</v>
       </c>
       <c r="W6" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="X6" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y6" t="n">
         <v>32</v>
       </c>
-      <c r="Y6" t="n">
-        <v>34</v>
-      </c>
       <c r="Z6" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AA6" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
         <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK6" t="n">
         <v>14</v>
       </c>
       <c r="AL6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO6" t="n">
         <v>70</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1354,10 +1354,10 @@
         <v>1.42</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.2</v>
@@ -1366,10 +1366,10 @@
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P7" t="n">
         <v>3.9</v>
@@ -1378,13 +1378,13 @@
         <v>1.33</v>
       </c>
       <c r="R7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="S7" t="n">
         <v>1.82</v>
       </c>
       <c r="T7" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U7" t="n">
         <v>2.78</v>
@@ -1396,22 +1396,22 @@
         <v>1.15</v>
       </c>
       <c r="X7" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Y7" t="n">
         <v>18</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA7" t="n">
         <v>15</v>
       </c>
       <c r="AB7" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AC7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
@@ -1426,13 +1426,13 @@
         <v>28</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI7" t="n">
         <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AK7" t="n">
         <v>75</v>
@@ -1441,10 +1441,10 @@
         <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN7" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AO7" t="n">
         <v>3.65</v>
@@ -1477,73 +1477,73 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="H8" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="I8" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
         <v>3.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="S8" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="T8" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="U8" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="V8" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="W8" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
         <v>7.4</v>
@@ -1552,34 +1552,34 @@
         <v>12.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK8" t="n">
         <v>36</v>
       </c>
-      <c r="AG8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI8" t="n">
+      <c r="AL8" t="n">
         <v>48</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>55</v>
-      </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AO8" t="n">
         <v>30</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G9" t="n">
         <v>2.06</v>
       </c>
       <c r="H9" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I9" t="n">
         <v>4.5</v>
@@ -1636,10 +1636,10 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
         <v>1.87</v>
@@ -1681,7 +1681,7 @@
         <v>970</v>
       </c>
       <c r="AC9" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
         <v>970</v>
@@ -1705,7 +1705,7 @@
         <v>130</v>
       </c>
       <c r="AK9" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AL9" t="n">
         <v>500</v>
@@ -1717,7 +1717,7 @@
         <v>55</v>
       </c>
       <c r="AO9" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="G10" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="I10" t="n">
         <v>1.64</v>
@@ -1762,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.4</v>
@@ -1783,13 +1783,13 @@
         <v>1.96</v>
       </c>
       <c r="R10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S10" t="n">
         <v>3.45</v>
       </c>
       <c r="T10" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U10" t="n">
         <v>1.86</v>
@@ -1828,7 +1828,7 @@
         <v>240</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AH10" t="n">
         <v>970</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G11" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H11" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I11" t="n">
         <v>6.6</v>
@@ -1897,7 +1897,7 @@
         <v>5.1</v>
       </c>
       <c r="K11" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.28</v>
@@ -1906,28 +1906,28 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
         <v>2.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="U11" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V11" t="n">
         <v>1.18</v>
@@ -1948,7 +1948,7 @@
         <v>160</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
         <v>16</v>
@@ -1966,7 +1966,7 @@
         <v>16</v>
       </c>
       <c r="AH11" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="n">
         <v>250</v>
@@ -1981,10 +1981,10 @@
         <v>500</v>
       </c>
       <c r="AM11" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AO11" t="n">
         <v>150</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G12" t="n">
         <v>1.75</v>
@@ -2035,34 +2035,34 @@
         <v>4.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="S12" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="T12" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="V12" t="n">
         <v>1.22</v>
@@ -2077,34 +2077,34 @@
         <v>110</v>
       </c>
       <c r="Z12" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="AA12" t="n">
         <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="AC12" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AD12" t="n">
         <v>500</v>
       </c>
       <c r="AE12" t="n">
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="AF12" t="n">
         <v>55</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH12" t="n">
         <v>60</v>
       </c>
       <c r="AI12" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="AJ12" t="n">
         <v>120</v>
@@ -2113,7 +2113,7 @@
         <v>65</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AM12" t="n">
         <v>580</v>
@@ -2122,7 +2122,7 @@
         <v>29</v>
       </c>
       <c r="AO12" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G13" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I13" t="n">
         <v>2.5</v>
@@ -2167,7 +2167,7 @@
         <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
         <v>1.35</v>
@@ -2179,10 +2179,10 @@
         <v>4.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q13" t="n">
         <v>1.76</v>
@@ -2206,7 +2206,7 @@
         <v>1.47</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="n">
         <v>13</v>
@@ -2221,7 +2221,7 @@
         <v>15.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
         <v>11.5</v>
@@ -2293,7 +2293,7 @@
         <v>1.44</v>
       </c>
       <c r="H14" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="I14" t="n">
         <v>10</v>
@@ -2311,28 +2311,28 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="R14" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T14" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U14" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V14" t="n">
         <v>1.11</v>
@@ -2341,28 +2341,28 @@
         <v>3.25</v>
       </c>
       <c r="X14" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="Y14" t="n">
         <v>80</v>
       </c>
       <c r="Z14" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AA14" t="n">
         <v>340</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD14" t="n">
         <v>95</v>
       </c>
       <c r="AE14" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF14" t="n">
         <v>9</v>
@@ -2371,7 +2371,7 @@
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="n">
         <v>520</v>
@@ -2383,7 +2383,7 @@
         <v>15.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AM14" t="n">
         <v>430</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="G15" t="n">
         <v>2.64</v>
@@ -2431,10 +2431,10 @@
         <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
         <v>3.45</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q15" t="n">
         <v>2.3</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G16" t="n">
         <v>2.92</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.94</v>
       </c>
       <c r="H16" t="n">
         <v>2.52</v>
@@ -2569,13 +2569,13 @@
         <v>2.54</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2587,16 +2587,16 @@
         <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R16" t="n">
         <v>1.48</v>
       </c>
       <c r="S16" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
         <v>1.65</v>
@@ -2605,10 +2605,10 @@
         <v>2.42</v>
       </c>
       <c r="V16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W16" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X16" t="n">
         <v>18</v>
@@ -2641,7 +2641,7 @@
         <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI16" t="n">
         <v>32</v>
@@ -2698,61 +2698,61 @@
         <v>4.3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I17" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="J17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.6</v>
       </c>
-      <c r="K17" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L17" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P17" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="R17" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S17" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="U17" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="V17" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="W17" t="n">
         <v>1.3</v>
       </c>
       <c r="X17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA17" t="n">
         <v>24</v>
@@ -2767,19 +2767,19 @@
         <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF17" t="n">
         <v>28</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH17" t="n">
         <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ17" t="n">
         <v>95</v>
@@ -2794,10 +2794,10 @@
         <v>140</v>
       </c>
       <c r="AN17" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AO17" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="18">
@@ -2827,28 +2827,28 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="G18" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="H18" t="n">
-        <v>2.66</v>
+        <v>2.94</v>
       </c>
       <c r="I18" t="n">
-        <v>2.7</v>
+        <v>2.96</v>
       </c>
       <c r="J18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.35</v>
       </c>
-      <c r="K18" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L18" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
         <v>3.25</v>
@@ -2857,82 +2857,82 @@
         <v>1.43</v>
       </c>
       <c r="P18" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R18" t="n">
         <v>1.28</v>
       </c>
       <c r="S18" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T18" t="n">
         <v>1.94</v>
       </c>
       <c r="U18" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V18" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="W18" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="X18" t="n">
         <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z18" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AB18" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC18" t="n">
         <v>7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AF18" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL18" t="n">
         <v>50</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>55</v>
       </c>
       <c r="AM18" t="n">
         <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AO18" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -2965,10 +2965,10 @@
         <v>4.5</v>
       </c>
       <c r="G19" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H19" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="I19" t="n">
         <v>1.84</v>
@@ -2980,34 +2980,34 @@
         <v>4.3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S19" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="T19" t="n">
         <v>1.61</v>
       </c>
       <c r="U19" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V19" t="n">
         <v>2.18</v>
@@ -3016,7 +3016,7 @@
         <v>1.27</v>
       </c>
       <c r="X19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y19" t="n">
         <v>13</v>
@@ -3034,7 +3034,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3046,28 +3046,28 @@
         <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ19" t="n">
         <v>90</v>
       </c>
       <c r="AK19" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL19" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM19" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN19" t="n">
         <v>34</v>
       </c>
       <c r="AO19" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="20">
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G20" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="I20" t="n">
         <v>8.199999999999999</v>
@@ -3118,52 +3118,52 @@
         <v>1.24</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P20" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="R20" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="S20" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="T20" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="U20" t="n">
         <v>2.44</v>
       </c>
       <c r="V20" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W20" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="X20" t="n">
         <v>36</v>
       </c>
       <c r="Y20" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z20" t="n">
         <v>75</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB20" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
         <v>13</v>
@@ -3175,7 +3175,7 @@
         <v>85</v>
       </c>
       <c r="AF20" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG20" t="n">
         <v>10.5</v>
@@ -3184,22 +3184,22 @@
         <v>19.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL20" t="n">
         <v>24</v>
       </c>
       <c r="AM20" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AO20" t="n">
         <v>70</v>
@@ -3235,10 +3235,10 @@
         <v>1.33</v>
       </c>
       <c r="G21" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="H21" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I21" t="n">
         <v>10.5</v>
@@ -3256,7 +3256,7 @@
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O21" t="n">
         <v>1.12</v>
@@ -3265,19 +3265,19 @@
         <v>3.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R21" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="S21" t="n">
         <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U21" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V21" t="n">
         <v>1.1</v>
@@ -3289,13 +3289,13 @@
         <v>42</v>
       </c>
       <c r="Y21" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z21" t="n">
         <v>100</v>
       </c>
       <c r="AA21" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AB21" t="n">
         <v>14.5</v>
@@ -3307,7 +3307,7 @@
         <v>36</v>
       </c>
       <c r="AE21" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF21" t="n">
         <v>11</v>
@@ -3319,7 +3319,7 @@
         <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ21" t="n">
         <v>12.5</v>
@@ -3379,10 +3379,10 @@
         <v>3.05</v>
       </c>
       <c r="J22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.75</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.8</v>
       </c>
       <c r="L22" t="n">
         <v>1.37</v>
@@ -3397,10 +3397,10 @@
         <v>1.26</v>
       </c>
       <c r="P22" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R22" t="n">
         <v>1.48</v>
@@ -3409,10 +3409,10 @@
         <v>3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U22" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="V22" t="n">
         <v>1.48</v>
@@ -3421,7 +3421,7 @@
         <v>1.67</v>
       </c>
       <c r="X22" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y22" t="n">
         <v>14.5</v>
@@ -3469,7 +3469,7 @@
         <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO22" t="n">
         <v>24</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="I2" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="J2" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
@@ -691,76 +691,76 @@
         <v>1.18</v>
       </c>
       <c r="N2" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="O2" t="n">
         <v>1.79</v>
       </c>
       <c r="P2" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="R2" t="n">
         <v>1.12</v>
       </c>
       <c r="S2" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="U2" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="W2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X2" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Y2" t="n">
         <v>6.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AF2" t="n">
         <v>30</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH2" t="n">
         <v>36</v>
       </c>
       <c r="AI2" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="AJ2" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AK2" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AL2" t="n">
         <v>500</v>
@@ -772,7 +772,7 @@
         <v>600</v>
       </c>
       <c r="AO2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K3" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O3" t="n">
         <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U3" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="V3" t="n">
         <v>1.14</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
         <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AA3" t="n">
         <v>250</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="AE3" t="n">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="AF3" t="n">
         <v>10.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AI3" t="n">
-        <v>85</v>
+        <v>290</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK3" t="n">
         <v>14</v>
       </c>
       <c r="AL3" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AO3" t="n">
-        <v>95</v>
+        <v>970</v>
       </c>
     </row>
     <row r="4">
@@ -946,7 +946,7 @@
         <v>1.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="J4" t="n">
         <v>5.1</v>
@@ -955,22 +955,22 @@
         <v>5.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O4" t="n">
         <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R4" t="n">
         <v>1.64</v>
@@ -979,28 +979,28 @@
         <v>2.54</v>
       </c>
       <c r="T4" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U4" t="n">
         <v>2.18</v>
       </c>
       <c r="V4" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="W4" t="n">
         <v>1.16</v>
       </c>
       <c r="X4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
         <v>9.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB4" t="n">
         <v>29</v>
@@ -1009,7 +1009,7 @@
         <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>13.5</v>
@@ -1027,7 +1027,7 @@
         <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AK4" t="n">
         <v>85</v>
@@ -1036,13 +1036,13 @@
         <v>75</v>
       </c>
       <c r="AM4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN4" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="G5" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
         <v>1.36</v>
@@ -1099,40 +1099,40 @@
         <v>4.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
         <v>2.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R5" t="n">
         <v>1.51</v>
       </c>
       <c r="S5" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T5" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U5" t="n">
         <v>2.3</v>
       </c>
       <c r="V5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W5" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X5" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
         <v>95</v>
@@ -1141,13 +1141,13 @@
         <v>11.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
         <v>17.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF5" t="n">
         <v>13</v>
@@ -1156,16 +1156,16 @@
         <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI5" t="n">
         <v>50</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK5" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>29</v>
@@ -1174,10 +1174,10 @@
         <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -1207,82 +1207,82 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="G6" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="J6" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="K6" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P6" t="n">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="R6" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="S6" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U6" t="n">
         <v>2.3</v>
       </c>
-      <c r="T6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.42</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W6" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="X6" t="n">
         <v>27</v>
       </c>
       <c r="Y6" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Z6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA6" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF6" t="n">
         <v>12</v>
@@ -1291,28 +1291,28 @@
         <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI6" t="n">
         <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="G7" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="H7" t="n">
         <v>1.41</v>
@@ -1354,10 +1354,10 @@
         <v>1.42</v>
       </c>
       <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="n">
         <v>6.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.2</v>
@@ -1375,7 +1375,7 @@
         <v>3.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="R7" t="n">
         <v>2.2</v>
@@ -1393,13 +1393,13 @@
         <v>3.35</v>
       </c>
       <c r="W7" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X7" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Y7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z7" t="n">
         <v>14</v>
@@ -1411,7 +1411,7 @@
         <v>48</v>
       </c>
       <c r="AC7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
@@ -1423,7 +1423,7 @@
         <v>85</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH7" t="n">
         <v>19.5</v>
@@ -1432,7 +1432,7 @@
         <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AK7" t="n">
         <v>75</v>
@@ -1444,7 +1444,7 @@
         <v>55</v>
       </c>
       <c r="AN7" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AO7" t="n">
         <v>3.65</v>
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="G8" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.7</v>
+        <v>2.46</v>
       </c>
       <c r="I8" t="n">
-        <v>2.78</v>
+        <v>2.54</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R8" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S8" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="T8" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U8" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="W8" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y8" t="n">
         <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
         <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF8" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL8" t="n">
         <v>50</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AM8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN8" t="n">
         <v>36</v>
       </c>
-      <c r="AL8" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>32</v>
-      </c>
       <c r="AO8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G9" t="n">
         <v>2.06</v>
@@ -1621,7 +1621,7 @@
         <v>3.95</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J9" t="n">
         <v>3.5</v>
@@ -1630,22 +1630,22 @@
         <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O9" t="n">
         <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
         <v>1.31</v>
@@ -1654,10 +1654,10 @@
         <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
         <v>1.29</v>
@@ -1681,7 +1681,7 @@
         <v>970</v>
       </c>
       <c r="AC9" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AD9" t="n">
         <v>970</v>
@@ -1699,10 +1699,10 @@
         <v>970</v>
       </c>
       <c r="AI9" t="n">
+        <v>430</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>500</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>130</v>
       </c>
       <c r="AK9" t="n">
         <v>500</v>
@@ -1750,7 +1750,7 @@
         <v>6.4</v>
       </c>
       <c r="G10" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="H10" t="n">
         <v>1.57</v>
@@ -1759,25 +1759,25 @@
         <v>1.64</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
         <v>4.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O10" t="n">
         <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
         <v>1.96</v>
@@ -1789,13 +1789,13 @@
         <v>3.45</v>
       </c>
       <c r="T10" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U10" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V10" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="W10" t="n">
         <v>1.15</v>
@@ -1804,7 +1804,7 @@
         <v>90</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Z10" t="n">
         <v>970</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="G11" t="n">
         <v>1.57</v>
@@ -1891,13 +1891,13 @@
         <v>5.9</v>
       </c>
       <c r="I11" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J11" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="L11" t="n">
         <v>1.28</v>
@@ -1906,13 +1906,13 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="Q11" t="n">
         <v>1.56</v>
@@ -1927,13 +1927,13 @@
         <v>1.71</v>
       </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W11" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="X11" t="n">
         <v>90</v>
@@ -1945,7 +1945,7 @@
         <v>350</v>
       </c>
       <c r="AA11" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AB11" t="n">
         <v>23</v>
@@ -1954,28 +1954,28 @@
         <v>16</v>
       </c>
       <c r="AD11" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AE11" t="n">
         <v>420</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AI11" t="n">
         <v>250</v>
       </c>
       <c r="AJ11" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AK11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
         <v>500</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="G12" t="n">
         <v>1.75</v>
@@ -2026,7 +2026,7 @@
         <v>5.1</v>
       </c>
       <c r="I12" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="J12" t="n">
         <v>4.2</v>
@@ -2035,7 +2035,7 @@
         <v>4.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2047,22 +2047,22 @@
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="Q12" t="n">
         <v>1.71</v>
       </c>
       <c r="R12" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="T12" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U12" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="V12" t="n">
         <v>1.22</v>
@@ -2083,10 +2083,10 @@
         <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="AC12" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AD12" t="n">
         <v>500</v>
@@ -2095,16 +2095,16 @@
         <v>500</v>
       </c>
       <c r="AF12" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.6</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="AJ12" t="n">
         <v>120</v>
@@ -2122,7 +2122,7 @@
         <v>29</v>
       </c>
       <c r="AO12" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="G13" t="n">
         <v>3.1</v>
@@ -2161,7 +2161,7 @@
         <v>2.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="J13" t="n">
         <v>3.75</v>
@@ -2179,19 +2179,19 @@
         <v>4.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R13" t="n">
         <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="T13" t="n">
         <v>1.62</v>
@@ -2200,7 +2200,7 @@
         <v>2.32</v>
       </c>
       <c r="V13" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W13" t="n">
         <v>1.47</v>
@@ -2209,7 +2209,7 @@
         <v>19</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z13" t="n">
         <v>17.5</v>
@@ -2218,7 +2218,7 @@
         <v>34</v>
       </c>
       <c r="AB13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC13" t="n">
         <v>9</v>
@@ -2242,7 +2242,7 @@
         <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AK13" t="n">
         <v>32</v>
@@ -2257,7 +2257,7 @@
         <v>24</v>
       </c>
       <c r="AO13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -2290,28 +2290,28 @@
         <v>1.39</v>
       </c>
       <c r="G14" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H14" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K14" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O14" t="n">
         <v>1.22</v>
@@ -2320,19 +2320,19 @@
         <v>2.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="R14" t="n">
         <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="T14" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U14" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V14" t="n">
         <v>1.11</v>
@@ -2341,37 +2341,37 @@
         <v>3.25</v>
       </c>
       <c r="X14" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z14" t="n">
         <v>85</v>
       </c>
       <c r="AA14" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC14" t="n">
         <v>12.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AE14" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AF14" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AI14" t="n">
         <v>520</v>
@@ -2380,7 +2380,7 @@
         <v>12.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL14" t="n">
         <v>110</v>
@@ -2392,7 +2392,7 @@
         <v>5.8</v>
       </c>
       <c r="AO14" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15">
@@ -2425,16 +2425,16 @@
         <v>2.5</v>
       </c>
       <c r="G15" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H15" t="n">
         <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
         <v>3.45</v>
@@ -2560,7 +2560,7 @@
         <v>2.9</v>
       </c>
       <c r="G16" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H16" t="n">
         <v>2.52</v>
@@ -2581,37 +2581,37 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="R16" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="T16" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U16" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V16" t="n">
         <v>1.65</v>
       </c>
       <c r="W16" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X16" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="Y16" t="n">
         <v>13</v>
@@ -2626,7 +2626,7 @@
         <v>14</v>
       </c>
       <c r="AC16" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
         <v>11.5</v>
@@ -2641,7 +2641,7 @@
         <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
         <v>32</v>
@@ -2653,16 +2653,16 @@
         <v>28</v>
       </c>
       <c r="AL16" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H17" t="n">
         <v>2.06</v>
@@ -2704,46 +2704,46 @@
         <v>2.08</v>
       </c>
       <c r="J17" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.5</v>
       </c>
-      <c r="K17" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L17" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P17" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U17" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V17" t="n">
         <v>1.92</v>
       </c>
       <c r="W17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X17" t="n">
         <v>11</v>
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="AB17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
         <v>7.6</v>
@@ -2776,28 +2776,28 @@
         <v>17.5</v>
       </c>
       <c r="AH17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>85</v>
+      </c>
+      <c r="AO17" t="n">
         <v>21</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>19.5</v>
       </c>
     </row>
     <row r="18">
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G18" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="H18" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="I18" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="J18" t="n">
         <v>3.3</v>
@@ -2845,13 +2845,13 @@
         <v>3.35</v>
       </c>
       <c r="L18" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M18" t="n">
         <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O18" t="n">
         <v>1.43</v>
@@ -2863,22 +2863,22 @@
         <v>2.32</v>
       </c>
       <c r="R18" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S18" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U18" t="n">
         <v>2.02</v>
       </c>
       <c r="V18" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W18" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X18" t="n">
         <v>11</v>
@@ -2890,10 +2890,10 @@
         <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC18" t="n">
         <v>7.2</v>
@@ -2917,7 +2917,7 @@
         <v>55</v>
       </c>
       <c r="AJ18" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK18" t="n">
         <v>34</v>
@@ -2932,7 +2932,7 @@
         <v>34</v>
       </c>
       <c r="AO18" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -2965,13 +2965,13 @@
         <v>4.5</v>
       </c>
       <c r="G19" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H19" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="I19" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="J19" t="n">
         <v>4.2</v>
@@ -2986,7 +2986,7 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
         <v>1.19</v>
@@ -2998,19 +2998,19 @@
         <v>1.58</v>
       </c>
       <c r="R19" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
         <v>2.46</v>
       </c>
       <c r="T19" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U19" t="n">
         <v>2.56</v>
       </c>
       <c r="V19" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W19" t="n">
         <v>1.27</v>
@@ -3022,7 +3022,7 @@
         <v>13</v>
       </c>
       <c r="Z19" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA19" t="n">
         <v>19</v>
@@ -3031,7 +3031,7 @@
         <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD19" t="n">
         <v>10.5</v>
@@ -3100,7 +3100,7 @@
         <v>1.44</v>
       </c>
       <c r="G20" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="H20" t="n">
         <v>7.8</v>
@@ -3109,46 +3109,46 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O20" t="n">
         <v>1.13</v>
       </c>
       <c r="P20" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R20" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="S20" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U20" t="n">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="V20" t="n">
         <v>1.14</v>
       </c>
       <c r="W20" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="X20" t="n">
         <v>36</v>
@@ -3157,31 +3157,31 @@
         <v>42</v>
       </c>
       <c r="Z20" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="n">
         <v>210</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD20" t="n">
         <v>28</v>
       </c>
       <c r="AE20" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG20" t="n">
         <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
         <v>65</v>
@@ -3199,10 +3199,10 @@
         <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AO20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
@@ -3238,7 +3238,7 @@
         <v>1.35</v>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I21" t="n">
         <v>10.5</v>
@@ -3250,7 +3250,7 @@
         <v>6.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M21" t="n">
         <v>1.02</v>
@@ -3259,10 +3259,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="O21" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P21" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q21" t="n">
         <v>1.4</v>
@@ -3271,10 +3271,10 @@
         <v>1.98</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="T21" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U21" t="n">
         <v>2.32</v>
@@ -3295,25 +3295,25 @@
         <v>100</v>
       </c>
       <c r="AA21" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AB21" t="n">
         <v>14.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD21" t="n">
         <v>36</v>
       </c>
       <c r="AE21" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF21" t="n">
         <v>11</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH21" t="n">
         <v>22</v>
@@ -3334,10 +3334,10 @@
         <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AO21" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="G22" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J22" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L22" t="n">
         <v>1.37</v>
@@ -3415,10 +3415,10 @@
         <v>2.4</v>
       </c>
       <c r="V22" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="W22" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X22" t="n">
         <v>17</v>
@@ -3427,7 +3427,7 @@
         <v>14.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA22" t="n">
         <v>48</v>
@@ -3439,7 +3439,7 @@
         <v>8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -667,37 +667,37 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H2" t="n">
         <v>2.36</v>
       </c>
       <c r="I2" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="L2" t="n">
         <v>1.76</v>
       </c>
       <c r="M2" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="N2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="O2" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="P2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q2" t="n">
         <v>3.5</v>
@@ -709,22 +709,22 @@
         <v>8.199999999999999</v>
       </c>
       <c r="T2" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="W2" t="n">
         <v>1.3</v>
       </c>
       <c r="X2" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="Z2" t="n">
         <v>13.5</v>
@@ -733,19 +733,19 @@
         <v>42</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC2" t="n">
         <v>7.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AF2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="n">
         <v>22</v>
@@ -754,16 +754,16 @@
         <v>36</v>
       </c>
       <c r="AI2" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AJ2" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AK2" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="AL2" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AM2" t="n">
         <v>500</v>
@@ -772,7 +772,7 @@
         <v>600</v>
       </c>
       <c r="AO2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -802,70 +802,70 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="G3" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="H3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I3" t="n">
         <v>7</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7.8</v>
       </c>
       <c r="J3" t="n">
         <v>5.2</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="T3" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V3" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="X3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y3" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Z3" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA3" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AB3" t="n">
         <v>10.5</v>
@@ -874,19 +874,19 @@
         <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
-        <v>95</v>
+        <v>290</v>
       </c>
       <c r="AF3" t="n">
         <v>10.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
         <v>290</v>
@@ -898,16 +898,16 @@
         <v>14</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>95</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AO3" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -943,10 +943,10 @@
         <v>7.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="I4" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="J4" t="n">
         <v>5.1</v>
@@ -961,43 +961,43 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="U4" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V4" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="W4" t="n">
         <v>1.16</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA4" t="n">
         <v>13.5</v>
@@ -1015,25 +1015,25 @@
         <v>13.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AK4" t="n">
         <v>85</v>
       </c>
       <c r="AL4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM4" t="n">
         <v>90</v>
@@ -1042,7 +1042,7 @@
         <v>90</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
         <v>4.2</v>
       </c>
-      <c r="I5" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="R5" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="S5" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="U5" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V5" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="W5" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="X5" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA5" t="n">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
         <v>48</v>
       </c>
       <c r="AF5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AJ5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="AN5" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -1225,34 +1225,34 @@
         <v>4.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R6" t="n">
         <v>1.66</v>
       </c>
       <c r="S6" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T6" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U6" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V6" t="n">
         <v>1.18</v>
@@ -1264,28 +1264,28 @@
         <v>27</v>
       </c>
       <c r="Y6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z6" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AA6" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AB6" t="n">
         <v>12</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD6" t="n">
         <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>70</v>
+        <v>420</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
@@ -1300,16 +1300,16 @@
         <v>16</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G7" t="n">
         <v>7.6</v>
       </c>
-      <c r="G7" t="n">
-        <v>7.8</v>
-      </c>
       <c r="H7" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="I7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="J7" t="n">
         <v>6</v>
@@ -1360,7 +1360,7 @@
         <v>6.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
@@ -1372,46 +1372,46 @@
         <v>1.1</v>
       </c>
       <c r="P7" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
         <v>1.32</v>
       </c>
       <c r="R7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S7" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T7" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U7" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="V7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="W7" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X7" t="n">
         <v>50</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB7" t="n">
         <v>48</v>
       </c>
       <c r="AC7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
@@ -1426,13 +1426,13 @@
         <v>29</v>
       </c>
       <c r="AH7" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ7" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="AK7" t="n">
         <v>75</v>
@@ -1441,13 +1441,13 @@
         <v>55</v>
       </c>
       <c r="AM7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN7" t="n">
         <v>55</v>
       </c>
-      <c r="AN7" t="n">
-        <v>50</v>
-      </c>
       <c r="AO7" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="8">
@@ -1477,73 +1477,73 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G8" t="n">
         <v>3.1</v>
       </c>
-      <c r="G8" t="n">
-        <v>3.2</v>
-      </c>
       <c r="H8" t="n">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="I8" t="n">
-        <v>2.54</v>
+        <v>2.76</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="R8" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S8" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T8" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
         <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="W8" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X8" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
         <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
         <v>7.4</v>
@@ -1552,37 +1552,37 @@
         <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF8" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>18</v>
       </c>
       <c r="AI8" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL8" t="n">
         <v>50</v>
       </c>
       <c r="AM8" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -1618,7 +1618,7 @@
         <v>2.06</v>
       </c>
       <c r="H9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>4.6</v>
@@ -1627,7 +1627,7 @@
         <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
         <v>1.45</v>
@@ -1642,7 +1642,7 @@
         <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q9" t="n">
         <v>2.06</v>
@@ -1654,10 +1654,10 @@
         <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>1.29</v>
@@ -1666,10 +1666,10 @@
         <v>1.94</v>
       </c>
       <c r="X9" t="n">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="Y9" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="Z9" t="n">
         <v>970</v>
@@ -1678,10 +1678,10 @@
         <v>500</v>
       </c>
       <c r="AB9" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AD9" t="n">
         <v>970</v>
@@ -1690,25 +1690,25 @@
         <v>500</v>
       </c>
       <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL9" t="n">
         <v>970</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>430</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>500</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>500</v>
       </c>
       <c r="AM9" t="n">
         <v>580</v>
@@ -1753,10 +1753,10 @@
         <v>7.8</v>
       </c>
       <c r="H10" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="I10" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="J10" t="n">
         <v>4.1</v>
@@ -1789,28 +1789,28 @@
         <v>3.45</v>
       </c>
       <c r="T10" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U10" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="W10" t="n">
         <v>1.15</v>
       </c>
       <c r="X10" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="Y10" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AB10" t="n">
         <v>970</v>
@@ -1819,7 +1819,7 @@
         <v>42</v>
       </c>
       <c r="AD10" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
         <v>65</v>
@@ -1849,7 +1849,7 @@
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AO10" t="n">
         <v>29</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G11" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="H11" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="I11" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K11" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.28</v>
@@ -1906,55 +1906,55 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
         <v>2.62</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T11" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U11" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V11" t="n">
         <v>1.17</v>
       </c>
       <c r="W11" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="X11" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Y11" t="n">
         <v>970</v>
       </c>
       <c r="Z11" t="n">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="AA11" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AE11" t="n">
         <v>420</v>
@@ -1966,19 +1966,19 @@
         <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
         <v>250</v>
       </c>
       <c r="AJ11" t="n">
-        <v>29</v>
+        <v>15.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
         <v>580</v>
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G12" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H12" t="n">
         <v>5.1</v>
       </c>
       <c r="I12" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2044,7 +2044,7 @@
         <v>4.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P12" t="n">
         <v>2.28</v>
@@ -2056,73 +2056,73 @@
         <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="T12" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U12" t="n">
         <v>2.32</v>
       </c>
       <c r="V12" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W12" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="X12" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="Y12" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="Z12" t="n">
-        <v>500</v>
+        <v>190</v>
       </c>
       <c r="AA12" t="n">
         <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>500</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="n">
         <v>500</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI12" t="n">
         <v>500</v>
       </c>
       <c r="AJ12" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AK12" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AL12" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="n">
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>29</v>
+        <v>9.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="G13" t="n">
         <v>3.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I13" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J13" t="n">
         <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.35</v>
@@ -2176,10 +2176,10 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
         <v>2.2</v>
@@ -2188,28 +2188,28 @@
         <v>1.75</v>
       </c>
       <c r="R13" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S13" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="T13" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U13" t="n">
         <v>2.32</v>
       </c>
       <c r="V13" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="W13" t="n">
         <v>1.47</v>
       </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
         <v>17.5</v>
@@ -2227,37 +2227,37 @@
         <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF13" t="n">
         <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI13" t="n">
         <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AK13" t="n">
         <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AN13" t="n">
         <v>24</v>
       </c>
       <c r="AO13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="G14" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="H14" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="J14" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="K14" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.31</v>
@@ -2311,88 +2311,88 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P14" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S14" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T14" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="V14" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="W14" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="X14" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="Z14" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AA14" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD14" t="n">
         <v>40</v>
       </c>
       <c r="AE14" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI14" t="n">
         <v>160</v>
       </c>
-      <c r="AF14" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG14" t="n">
+      <c r="AJ14" t="n">
         <v>11</v>
       </c>
-      <c r="AH14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>520</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL14" t="n">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="AM14" t="n">
         <v>430</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G15" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
         <v>3.45</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G16" t="n">
         <v>2.94</v>
@@ -2575,34 +2575,34 @@
         <v>3.85</v>
       </c>
       <c r="L16" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P16" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="R16" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="S16" t="n">
-        <v>2.92</v>
+        <v>2.78</v>
       </c>
       <c r="T16" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="U16" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="V16" t="n">
         <v>1.65</v>
@@ -2614,43 +2614,43 @@
         <v>19.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA16" t="n">
         <v>34</v>
       </c>
       <c r="AB16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD16" t="n">
         <v>11.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG16" t="n">
         <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ16" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL16" t="n">
         <v>34</v>
@@ -2659,10 +2659,10 @@
         <v>65</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G17" t="n">
         <v>4.3</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4.4</v>
       </c>
       <c r="H17" t="n">
         <v>2.06</v>
@@ -2710,46 +2710,46 @@
         <v>3.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M17" t="n">
         <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="P17" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="R17" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S17" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="T17" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U17" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V17" t="n">
         <v>1.92</v>
       </c>
       <c r="W17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X17" t="n">
         <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z17" t="n">
         <v>11</v>
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC17" t="n">
         <v>7.6</v>
@@ -2779,25 +2779,25 @@
         <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ17" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="n">
         <v>65</v>
       </c>
       <c r="AL17" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM17" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="n">
         <v>85</v>
       </c>
       <c r="AO17" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="18">
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="G18" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="I18" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="J18" t="n">
         <v>3.3</v>
@@ -2851,34 +2851,34 @@
         <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="n">
         <v>1.43</v>
       </c>
       <c r="P18" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="R18" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S18" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U18" t="n">
         <v>2.02</v>
       </c>
       <c r="V18" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W18" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X18" t="n">
         <v>11</v>
@@ -2887,7 +2887,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z18" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA18" t="n">
         <v>48</v>
@@ -2899,16 +2899,16 @@
         <v>7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF18" t="n">
         <v>16.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
         <v>19</v>
@@ -2920,7 +2920,7 @@
         <v>44</v>
       </c>
       <c r="AK18" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL18" t="n">
         <v>50</v>
@@ -2965,85 +2965,85 @@
         <v>4.5</v>
       </c>
       <c r="G19" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H19" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I19" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="J19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
       <c r="Q19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T19" t="n">
         <v>1.58</v>
       </c>
-      <c r="R19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.6</v>
-      </c>
       <c r="U19" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="V19" t="n">
         <v>2.2</v>
       </c>
       <c r="W19" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X19" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z19" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA19" t="n">
         <v>19</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD19" t="n">
         <v>10.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH19" t="n">
         <v>15.5</v>
@@ -3052,22 +3052,22 @@
         <v>24</v>
       </c>
       <c r="AJ19" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK19" t="n">
         <v>44</v>
       </c>
       <c r="AL19" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN19" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="G20" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="H20" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="K20" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="L20" t="n">
         <v>1.23</v>
@@ -3121,88 +3121,88 @@
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="R20" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T20" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U20" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="V20" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="W20" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="X20" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Y20" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Z20" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AA20" t="n">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="AB20" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AE20" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AF20" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
         <v>12.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM20" t="n">
         <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="AO20" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -3235,10 +3235,10 @@
         <v>1.33</v>
       </c>
       <c r="G21" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H21" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I21" t="n">
         <v>10.5</v>
@@ -3250,58 +3250,58 @@
         <v>6.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M21" t="n">
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P21" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="T21" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="U21" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V21" t="n">
         <v>1.1</v>
       </c>
       <c r="W21" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="X21" t="n">
         <v>42</v>
       </c>
       <c r="Y21" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z21" t="n">
         <v>100</v>
       </c>
       <c r="AA21" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AB21" t="n">
         <v>14.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD21" t="n">
         <v>36</v>
@@ -3316,7 +3316,7 @@
         <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
         <v>85</v>
@@ -3325,7 +3325,7 @@
         <v>12.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL21" t="n">
         <v>24</v>
@@ -3334,10 +3334,10 @@
         <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G22" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
@@ -3391,40 +3391,40 @@
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O22" t="n">
         <v>1.26</v>
       </c>
       <c r="P22" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R22" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T22" t="n">
         <v>1.67</v>
       </c>
       <c r="U22" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V22" t="n">
         <v>1.46</v>
       </c>
       <c r="W22" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X22" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z22" t="n">
         <v>22</v>
@@ -3457,7 +3457,7 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK22" t="n">
         <v>23</v>
@@ -3469,7 +3469,7 @@
         <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO22" t="n">
         <v>24</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.95</v>
+        <v>110</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3</v>
+        <v>950</v>
       </c>
       <c r="H2" t="n">
-        <v>2.36</v>
+        <v>1.03</v>
       </c>
       <c r="I2" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.84</v>
+        <v>11</v>
       </c>
       <c r="K2" t="n">
-        <v>2.98</v>
+        <v>38</v>
       </c>
       <c r="L2" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.16</v>
+        <v>1.11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.83</v>
+        <v>2.42</v>
       </c>
       <c r="P2" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.5</v>
+        <v>100</v>
       </c>
       <c r="R2" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>8.199999999999999</v>
+        <v>100</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>1.39</v>
       </c>
       <c r="U2" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.66</v>
+        <v>1.26</v>
       </c>
       <c r="W2" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,73 +802,73 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="G3" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="H3" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="J3" t="n">
         <v>5.2</v>
       </c>
       <c r="K3" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="R3" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="S3" t="n">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="T3" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="U3" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="V3" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W3" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Y3" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Z3" t="n">
-        <v>65</v>
+        <v>960</v>
       </c>
       <c r="AA3" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
         <v>12</v>
@@ -877,25 +877,25 @@
         <v>26</v>
       </c>
       <c r="AE3" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>10.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="n">
         <v>14</v>
       </c>
       <c r="AK3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL3" t="n">
         <v>27</v>
@@ -904,10 +904,10 @@
         <v>95</v>
       </c>
       <c r="AN3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -943,10 +943,10 @@
         <v>7.2</v>
       </c>
       <c r="H4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I4" t="n">
         <v>1.51</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.52</v>
       </c>
       <c r="J4" t="n">
         <v>5.1</v>
@@ -955,37 +955,37 @@
         <v>5.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="S4" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="T4" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="U4" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="V4" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="W4" t="n">
         <v>1.16</v>
@@ -994,25 +994,25 @@
         <v>25</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AE4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF4" t="n">
         <v>65</v>
@@ -1027,22 +1027,22 @@
         <v>28</v>
       </c>
       <c r="AJ4" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AK4" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AL4" t="n">
         <v>70</v>
       </c>
       <c r="AM4" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN4" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="5">
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="G5" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -1084,100 +1084,100 @@
         <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>2.16</v>
+        <v>2.44</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
-        <v>3.05</v>
+        <v>2.66</v>
       </c>
       <c r="T5" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="U5" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="V5" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W5" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="X5" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD5" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AE5" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG5" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD5" t="n">
+      <c r="AH5" t="n">
         <v>16</v>
       </c>
-      <c r="AE5" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AI5" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AM5" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AN5" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1210,7 +1210,7 @@
         <v>1.57</v>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="H6" t="n">
         <v>5.9</v>
@@ -1231,7 +1231,7 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
         <v>1.18</v>
@@ -1243,61 +1243,61 @@
         <v>1.58</v>
       </c>
       <c r="R6" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="S6" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T6" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="U6" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
         <v>1.18</v>
       </c>
       <c r="W6" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="X6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z6" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AA6" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
         <v>420</v>
       </c>
       <c r="AF6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
         <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK6" t="n">
         <v>14.5</v>
@@ -1306,13 +1306,13 @@
         <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN6" t="n">
         <v>6.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -1342,31 +1342,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="G7" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="I7" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="K7" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.19</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.1</v>
@@ -1378,10 +1378,10 @@
         <v>1.32</v>
       </c>
       <c r="R7" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="S7" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="T7" t="n">
         <v>1.52</v>
@@ -1390,64 +1390,64 @@
         <v>2.84</v>
       </c>
       <c r="V7" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="W7" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X7" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Y7" t="n">
         <v>18.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="n">
         <v>48</v>
       </c>
       <c r="AC7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
         <v>20</v>
       </c>
       <c r="AJ7" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AK7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="n">
         <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,28 +1477,28 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H8" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I8" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.47</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
         <v>3.55</v>
@@ -1507,19 +1507,19 @@
         <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q8" t="n">
         <v>2.16</v>
       </c>
       <c r="R8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U8" t="n">
         <v>2.16</v>
@@ -1537,7 +1537,7 @@
         <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA8" t="n">
         <v>40</v>
@@ -1546,7 +1546,7 @@
         <v>11</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
         <v>12</v>
@@ -1576,10 +1576,10 @@
         <v>50</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO8" t="n">
         <v>27</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="G9" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I9" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
         <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
         <v>1.45</v>
@@ -1636,16 +1636,16 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
         <v>1.84</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
         <v>1.31</v>
@@ -1654,16 +1654,16 @@
         <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="U9" t="n">
         <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="W9" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="X9" t="n">
         <v>26</v>
@@ -1672,7 +1672,7 @@
         <v>46</v>
       </c>
       <c r="Z9" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AA9" t="n">
         <v>500</v>
@@ -1681,34 +1681,34 @@
         <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AE9" t="n">
         <v>500</v>
       </c>
       <c r="AF9" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AG9" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AI9" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="AJ9" t="n">
         <v>90</v>
       </c>
       <c r="AK9" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AL9" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AM9" t="n">
         <v>580</v>
@@ -1750,7 +1750,7 @@
         <v>6.4</v>
       </c>
       <c r="G10" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="H10" t="n">
         <v>1.56</v>
@@ -1774,10 +1774,10 @@
         <v>3.85</v>
       </c>
       <c r="O10" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q10" t="n">
         <v>1.96</v>
@@ -1789,16 +1789,16 @@
         <v>3.45</v>
       </c>
       <c r="T10" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V10" t="n">
         <v>2.58</v>
       </c>
       <c r="W10" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X10" t="n">
         <v>29</v>
@@ -1807,37 +1807,37 @@
         <v>13.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE10" t="n">
         <v>36</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>65</v>
       </c>
       <c r="AF10" t="n">
         <v>240</v>
       </c>
       <c r="AG10" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI10" t="n">
         <v>970</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AK10" t="n">
         <v>420</v>
@@ -1849,7 +1849,7 @@
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AO10" t="n">
         <v>29</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="G11" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="H11" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="I11" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
         <v>4.9</v>
       </c>
       <c r="K11" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.28</v>
@@ -1906,22 +1906,22 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
         <v>2.62</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S11" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="T11" t="n">
         <v>1.73</v>
@@ -1930,64 +1930,64 @@
         <v>2.26</v>
       </c>
       <c r="V11" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W11" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="X11" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y11" t="n">
         <v>80</v>
       </c>
-      <c r="Y11" t="n">
-        <v>970</v>
-      </c>
       <c r="Z11" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AA11" t="n">
         <v>170</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
         <v>12.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AE11" t="n">
-        <v>420</v>
+        <v>130</v>
       </c>
       <c r="AF11" t="n">
         <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="AK11" t="n">
         <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM11" t="n">
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G12" t="n">
         <v>1.76</v>
@@ -2026,13 +2026,13 @@
         <v>5.1</v>
       </c>
       <c r="I12" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J12" t="n">
         <v>4.1</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.34</v>
@@ -2041,52 +2041,52 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R12" t="n">
         <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="T12" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
         <v>2.32</v>
       </c>
       <c r="V12" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W12" t="n">
         <v>2.3</v>
       </c>
       <c r="X12" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="Y12" t="n">
         <v>40</v>
       </c>
       <c r="Z12" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AA12" t="n">
         <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
         <v>38</v>
@@ -2095,31 +2095,31 @@
         <v>500</v>
       </c>
       <c r="AF12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH12" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
         <v>500</v>
       </c>
       <c r="AJ12" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AK12" t="n">
         <v>30</v>
       </c>
       <c r="AL12" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="AM12" t="n">
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO12" t="n">
         <v>600</v>
@@ -2158,7 +2158,7 @@
         <v>3.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I13" t="n">
         <v>2.5</v>
@@ -2191,19 +2191,19 @@
         <v>1.48</v>
       </c>
       <c r="S13" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T13" t="n">
         <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="V13" t="n">
         <v>1.66</v>
       </c>
       <c r="W13" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X13" t="n">
         <v>18.5</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="G14" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="H14" t="n">
         <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K14" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="L14" t="n">
         <v>1.31</v>
@@ -2311,49 +2311,49 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.21</v>
       </c>
       <c r="P14" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q14" t="n">
         <v>1.65</v>
       </c>
       <c r="R14" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S14" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V14" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W14" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="X14" t="n">
         <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="Z14" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA14" t="n">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC14" t="n">
         <v>13.5</v>
@@ -2362,19 +2362,19 @@
         <v>40</v>
       </c>
       <c r="AE14" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AF14" t="n">
         <v>8.6</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI14" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="AJ14" t="n">
         <v>11</v>
@@ -2383,16 +2383,16 @@
         <v>14</v>
       </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM14" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="G15" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H15" t="n">
         <v>3.15</v>
       </c>
       <c r="I15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
         <v>3.45</v>
@@ -2455,7 +2455,7 @@
         <v>1.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="G16" t="n">
         <v>2.94</v>
       </c>
       <c r="H16" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I16" t="n">
         <v>2.54</v>
@@ -2593,7 +2593,7 @@
         <v>1.7</v>
       </c>
       <c r="R16" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S16" t="n">
         <v>2.78</v>
@@ -2602,7 +2602,7 @@
         <v>1.6</v>
       </c>
       <c r="U16" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="V16" t="n">
         <v>1.65</v>
@@ -2611,10 +2611,10 @@
         <v>1.51</v>
       </c>
       <c r="X16" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z16" t="n">
         <v>18</v>
@@ -2626,7 +2626,7 @@
         <v>15</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD16" t="n">
         <v>11.5</v>
@@ -2656,10 +2656,10 @@
         <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO16" t="n">
         <v>15</v>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H17" t="n">
         <v>2.06</v>
@@ -2704,52 +2704,52 @@
         <v>2.08</v>
       </c>
       <c r="J17" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L17" t="n">
         <v>1.51</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P17" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R17" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S17" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T17" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U17" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V17" t="n">
         <v>1.92</v>
       </c>
       <c r="W17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X17" t="n">
         <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z17" t="n">
         <v>11</v>
@@ -2773,19 +2773,19 @@
         <v>28</v>
       </c>
       <c r="AG17" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ17" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL17" t="n">
         <v>75</v>
@@ -2794,10 +2794,10 @@
         <v>140</v>
       </c>
       <c r="AN17" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AO17" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="18">
@@ -2827,97 +2827,97 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="H18" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="I18" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="J18" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L18" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M18" t="n">
         <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="R18" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S18" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U18" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="W18" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="X18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z18" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD18" t="n">
         <v>13.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI18" t="n">
         <v>55</v>
       </c>
       <c r="AJ18" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK18" t="n">
         <v>32</v>
@@ -2926,7 +2926,7 @@
         <v>50</v>
       </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN18" t="n">
         <v>34</v>
@@ -2965,13 +2965,13 @@
         <v>4.5</v>
       </c>
       <c r="G19" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H19" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="I19" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="J19" t="n">
         <v>4.3</v>
@@ -2992,43 +2992,43 @@
         <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R19" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="S19" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="T19" t="n">
         <v>1.58</v>
       </c>
       <c r="U19" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="V19" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W19" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z19" t="n">
         <v>14</v>
       </c>
       <c r="AA19" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC19" t="n">
         <v>10.5</v>
@@ -3043,16 +3043,16 @@
         <v>40</v>
       </c>
       <c r="AG19" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH19" t="n">
         <v>15.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ19" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AK19" t="n">
         <v>44</v>
@@ -3064,7 +3064,7 @@
         <v>55</v>
       </c>
       <c r="AN19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO19" t="n">
         <v>7</v>
@@ -3097,31 +3097,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="G20" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H20" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J20" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K20" t="n">
         <v>5.9</v>
       </c>
-      <c r="K20" t="n">
-        <v>6</v>
-      </c>
       <c r="L20" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O20" t="n">
         <v>1.12</v>
@@ -3136,73 +3136,73 @@
         <v>2.04</v>
       </c>
       <c r="S20" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="T20" t="n">
         <v>1.63</v>
       </c>
       <c r="U20" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="V20" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W20" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="X20" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y20" t="n">
         <v>48</v>
       </c>
       <c r="Z20" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AA20" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="AB20" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC20" t="n">
         <v>14.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE20" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF20" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG20" t="n">
         <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK20" t="n">
         <v>12.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO20" t="n">
         <v>70</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -3256,7 +3256,7 @@
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="O21" t="n">
         <v>1.12</v>
@@ -3268,10 +3268,10 @@
         <v>1.39</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="S21" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="T21" t="n">
         <v>1.69</v>
@@ -3283,10 +3283,10 @@
         <v>1.1</v>
       </c>
       <c r="W21" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="X21" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Y21" t="n">
         <v>48</v>
@@ -3298,7 +3298,7 @@
         <v>300</v>
       </c>
       <c r="AB21" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC21" t="n">
         <v>15.5</v>
@@ -3307,16 +3307,16 @@
         <v>36</v>
       </c>
       <c r="AE21" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF21" t="n">
         <v>11</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
         <v>85</v>
@@ -3325,16 +3325,16 @@
         <v>12.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM21" t="n">
         <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AO21" t="n">
         <v>95</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G22" t="n">
         <v>2.42</v>
       </c>
-      <c r="G22" t="n">
-        <v>2.44</v>
-      </c>
       <c r="H22" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I22" t="n">
         <v>3.1</v>
       </c>
-      <c r="I22" t="n">
-        <v>3.15</v>
-      </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K22" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L22" t="n">
         <v>1.37</v>
@@ -3397,7 +3397,7 @@
         <v>1.26</v>
       </c>
       <c r="P22" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q22" t="n">
         <v>1.78</v>
@@ -3406,22 +3406,22 @@
         <v>1.49</v>
       </c>
       <c r="S22" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U22" t="n">
         <v>2.44</v>
       </c>
       <c r="V22" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W22" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X22" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y22" t="n">
         <v>15</v>
@@ -3448,13 +3448,13 @@
         <v>16.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH22" t="n">
         <v>15.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ22" t="n">
         <v>32</v>
@@ -3472,7 +3472,7 @@
         <v>15.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kairouan</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Stade Tunisien</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="G2" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="J2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="K2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,31 +691,31 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>2.22</v>
       </c>
       <c r="T2" t="n">
-        <v>1.39</v>
+        <v>5.7</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="V2" t="n">
-        <v>1.26</v>
+        <v>500</v>
       </c>
       <c r="W2" t="n">
         <v>1.01</v>
@@ -724,13 +724,13 @@
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.1</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>1.91</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
@@ -742,7 +742,7 @@
         <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="3">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:05:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.48</v>
+        <v>1.96</v>
       </c>
       <c r="G3" t="n">
-        <v>1.49</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>7.4</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.72</v>
+        <v>2.46</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="R3" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="T3" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="U3" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="V3" t="n">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="Z3" t="n">
-        <v>960</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF3" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AJ3" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AL3" t="n">
         <v>27</v>
       </c>
       <c r="AM3" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO3" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>1.54</v>
       </c>
       <c r="G4" t="n">
-        <v>7.2</v>
+        <v>1.55</v>
       </c>
       <c r="H4" t="n">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1.51</v>
+        <v>6.8</v>
       </c>
       <c r="J4" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="K4" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>2.48</v>
+        <v>2.64</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.66</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.58</v>
-      </c>
       <c r="S4" t="n">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="T4" t="n">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="V4" t="n">
-        <v>2.96</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>1.16</v>
+        <v>2.8</v>
       </c>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.4</v>
+        <v>60</v>
       </c>
       <c r="AA4" t="n">
-        <v>13</v>
+        <v>260</v>
       </c>
       <c r="AB4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL4" t="n">
         <v>27</v>
       </c>
-      <c r="AC4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>70</v>
-      </c>
       <c r="AM4" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN4" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.94</v>
+        <v>7.6</v>
       </c>
       <c r="G5" t="n">
-        <v>1.98</v>
+        <v>7.8</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>1.41</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="L5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.33</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.67</v>
-      </c>
       <c r="R5" t="n">
-        <v>1.57</v>
+        <v>2.16</v>
       </c>
       <c r="S5" t="n">
-        <v>2.66</v>
+        <v>1.84</v>
       </c>
       <c r="T5" t="n">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="U5" t="n">
-        <v>2.46</v>
+        <v>2.88</v>
       </c>
       <c r="V5" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="W5" t="n">
-        <v>2.02</v>
+        <v>1.14</v>
       </c>
       <c r="X5" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="Y5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="AB5" t="n">
-        <v>12.5</v>
+        <v>46</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.800000000000001</v>
+        <v>16</v>
       </c>
       <c r="AD5" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>44</v>
+        <v>11.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>14.5</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>27</v>
       </c>
       <c r="AH5" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="AK5" t="n">
-        <v>18.5</v>
+        <v>70</v>
       </c>
       <c r="AL5" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.4</v>
+        <v>60</v>
       </c>
       <c r="AO5" t="n">
-        <v>34</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.57</v>
+        <v>3.05</v>
       </c>
       <c r="G6" t="n">
-        <v>1.61</v>
+        <v>3.15</v>
       </c>
       <c r="H6" t="n">
-        <v>5.9</v>
+        <v>2.68</v>
       </c>
       <c r="I6" t="n">
-        <v>6.4</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="n">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>4.9</v>
+        <v>3.35</v>
       </c>
       <c r="L6" t="n">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>3.55</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>2.64</v>
+        <v>1.84</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.58</v>
+        <v>2.16</v>
       </c>
       <c r="R6" t="n">
-        <v>1.69</v>
+        <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>2.42</v>
+        <v>3.95</v>
       </c>
       <c r="T6" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>2.38</v>
+        <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.18</v>
+        <v>1.59</v>
       </c>
       <c r="W6" t="n">
-        <v>2.62</v>
+        <v>1.47</v>
       </c>
       <c r="X6" t="n">
-        <v>28</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE6" t="n">
         <v>30</v>
       </c>
-      <c r="Z6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>420</v>
-      </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16.5</v>
+        <v>50</v>
       </c>
       <c r="AK6" t="n">
-        <v>14.5</v>
+        <v>36</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="AM6" t="n">
-        <v>330</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.2</v>
+        <v>36</v>
       </c>
       <c r="AO6" t="n">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7.8</v>
+        <v>2.04</v>
       </c>
       <c r="G7" t="n">
-        <v>8.199999999999999</v>
+        <v>2.16</v>
       </c>
       <c r="H7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.38</v>
       </c>
-      <c r="I7" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.1</v>
-      </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>1.87</v>
       </c>
       <c r="Q7" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.32</v>
       </c>
-      <c r="R7" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="V7" t="n">
-        <v>3.55</v>
-      </c>
       <c r="W7" t="n">
-        <v>1.14</v>
+        <v>1.87</v>
       </c>
       <c r="X7" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>500</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH7" t="n">
         <v>60</v>
       </c>
-      <c r="Y7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>48</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>95</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>20</v>
-      </c>
       <c r="AI7" t="n">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c r="AJ7" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="AK7" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AL7" t="n">
+        <v>500</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN7" t="n">
         <v>55</v>
       </c>
-      <c r="AM7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>60</v>
-      </c>
       <c r="AO7" t="n">
-        <v>3.5</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.05</v>
+        <v>1.55</v>
       </c>
       <c r="G8" t="n">
-        <v>3.15</v>
+        <v>1.57</v>
       </c>
       <c r="H8" t="n">
-        <v>2.7</v>
+        <v>6.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.74</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>3.55</v>
+        <v>5.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>1.83</v>
+        <v>2.68</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.16</v>
+        <v>1.56</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.68</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="U8" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="V8" t="n">
-        <v>1.57</v>
+        <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>1.47</v>
+        <v>2.76</v>
       </c>
       <c r="X8" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB8" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AC8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG8" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13</v>
-      </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AJ8" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="AL8" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>36</v>
+        <v>5.9</v>
       </c>
       <c r="AO8" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Inverness CT</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.02</v>
+        <v>6.4</v>
       </c>
       <c r="G9" t="n">
-        <v>2.14</v>
+        <v>7.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>1.57</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>1.63</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="P9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.84</v>
       </c>
-      <c r="Q9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.32</v>
+        <v>2.6</v>
       </c>
       <c r="W9" t="n">
-        <v>1.87</v>
+        <v>1.16</v>
       </c>
       <c r="X9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y9" t="n">
-        <v>46</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>500</v>
+        <v>28</v>
       </c>
       <c r="AB9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AC9" t="n">
         <v>15</v>
       </c>
-      <c r="AC9" t="n">
-        <v>14</v>
-      </c>
       <c r="AD9" t="n">
-        <v>48</v>
+        <v>10.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>500</v>
+        <v>36</v>
       </c>
       <c r="AF9" t="n">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AH9" t="n">
         <v>60</v>
       </c>
       <c r="AI9" t="n">
-        <v>330</v>
+        <v>970</v>
       </c>
       <c r="AJ9" t="n">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="AK9" t="n">
-        <v>65</v>
+        <v>420</v>
       </c>
       <c r="AL9" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="AM9" t="n">
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="AO9" t="n">
-        <v>600</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Inverness CT</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6.4</v>
+        <v>1.73</v>
       </c>
       <c r="G10" t="n">
-        <v>7.4</v>
+        <v>1.76</v>
       </c>
       <c r="H10" t="n">
-        <v>1.56</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.62</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
         <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>1.94</v>
+        <v>2.34</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>3.45</v>
+        <v>2.74</v>
       </c>
       <c r="T10" t="n">
-        <v>1.98</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
-        <v>1.84</v>
+        <v>2.32</v>
       </c>
       <c r="V10" t="n">
-        <v>2.58</v>
+        <v>1.22</v>
       </c>
       <c r="W10" t="n">
-        <v>1.16</v>
+        <v>2.28</v>
       </c>
       <c r="X10" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>320</v>
+      </c>
+      <c r="AF10" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>48</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>240</v>
-      </c>
       <c r="AG10" t="n">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="AH10" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AI10" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AJ10" t="n">
-        <v>270</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>420</v>
+        <v>30</v>
       </c>
       <c r="AL10" t="n">
-        <v>430</v>
+        <v>46</v>
       </c>
       <c r="AM10" t="n">
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>190</v>
+        <v>9</v>
       </c>
       <c r="AO10" t="n">
-        <v>29</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.55</v>
+        <v>2.96</v>
       </c>
       <c r="G11" t="n">
-        <v>1.6</v>
+        <v>3.05</v>
       </c>
       <c r="H11" t="n">
-        <v>5.4</v>
+        <v>2.46</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>2.52</v>
       </c>
       <c r="J11" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.62</v>
+        <v>2.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="R11" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.64</v>
       </c>
-      <c r="S11" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.73</v>
-      </c>
       <c r="U11" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
-        <v>1.2</v>
+        <v>1.66</v>
       </c>
       <c r="W11" t="n">
-        <v>2.66</v>
+        <v>1.49</v>
       </c>
       <c r="X11" t="n">
-        <v>75</v>
+        <v>18.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>90</v>
+        <v>17.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="AB11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG11" t="n">
         <v>13</v>
       </c>
-      <c r="AC11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
       <c r="AH11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN11" t="n">
         <v>24</v>
       </c>
-      <c r="AI11" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>6</v>
-      </c>
       <c r="AO11" t="n">
-        <v>600</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="12">
@@ -2008,67 +2008,67 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.72</v>
+        <v>1.35</v>
       </c>
       <c r="G12" t="n">
-        <v>1.76</v>
+        <v>1.36</v>
       </c>
       <c r="H12" t="n">
-        <v>5.1</v>
+        <v>11</v>
       </c>
       <c r="I12" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>2.02</v>
       </c>
       <c r="U12" t="n">
-        <v>2.32</v>
+        <v>1.83</v>
       </c>
       <c r="V12" t="n">
-        <v>1.22</v>
+        <v>1.09</v>
       </c>
       <c r="W12" t="n">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="X12" t="n">
         <v>23</v>
@@ -2077,52 +2077,52 @@
         <v>40</v>
       </c>
       <c r="Z12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>490</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM12" t="n">
         <v>160</v>
       </c>
-      <c r="AA12" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>580</v>
-      </c>
       <c r="AN12" t="n">
-        <v>9.199999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="AO12" t="n">
-        <v>600</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.94</v>
+        <v>2.48</v>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>2.54</v>
       </c>
       <c r="H13" t="n">
-        <v>2.44</v>
+        <v>3.15</v>
       </c>
       <c r="I13" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.2</v>
+        <v>1.71</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.75</v>
+        <v>2.28</v>
       </c>
       <c r="R13" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.36</v>
+        <v>2.9</v>
       </c>
       <c r="G14" t="n">
-        <v>1.37</v>
+        <v>2.92</v>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="I14" t="n">
-        <v>11</v>
+        <v>2.52</v>
       </c>
       <c r="J14" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="K14" t="n">
-        <v>5.9</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
         <v>5.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="Q14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.65</v>
       </c>
-      <c r="R14" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.1</v>
-      </c>
       <c r="W14" t="n">
-        <v>3.75</v>
+        <v>1.51</v>
       </c>
       <c r="X14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>55</v>
+        <v>13.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="AA14" t="n">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.4</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>13.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>40</v>
+        <v>11.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.6</v>
+        <v>22</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>520</v>
+        <v>30</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="AK14" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AL14" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.2</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
-        <v>190</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,126 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.46</v>
+        <v>4.2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.62</v>
+        <v>4.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.15</v>
+        <v>2.06</v>
       </c>
       <c r="I15" t="n">
-        <v>3.35</v>
+        <v>2.08</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P15" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.9</v>
+        <v>2.76</v>
       </c>
       <c r="G16" t="n">
-        <v>2.94</v>
+        <v>2.78</v>
       </c>
       <c r="H16" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.54</v>
+        <v>3.05</v>
       </c>
       <c r="J16" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="L16" t="n">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>5.2</v>
+        <v>3.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
-        <v>2.38</v>
+        <v>1.73</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.7</v>
+        <v>2.34</v>
       </c>
       <c r="R16" t="n">
-        <v>1.54</v>
+        <v>1.27</v>
       </c>
       <c r="S16" t="n">
-        <v>2.78</v>
+        <v>4.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.6</v>
+        <v>1.97</v>
       </c>
       <c r="U16" t="n">
-        <v>2.62</v>
+        <v>2.02</v>
       </c>
       <c r="V16" t="n">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="W16" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z16" t="n">
         <v>18</v>
       </c>
       <c r="AA16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN16" t="n">
         <v>34</v>
       </c>
-      <c r="AB16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F17" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J17" t="n">
         <v>4.3</v>
       </c>
-      <c r="G17" t="n">
+      <c r="K17" t="n">
         <v>4.4</v>
       </c>
-      <c r="H17" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L17" t="n">
-        <v>1.51</v>
+        <v>1.29</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>3.25</v>
+        <v>6.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>1.76</v>
+        <v>2.78</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.3</v>
+        <v>1.54</v>
       </c>
       <c r="R17" t="n">
-        <v>1.29</v>
+        <v>1.72</v>
       </c>
       <c r="S17" t="n">
-        <v>4.3</v>
+        <v>2.34</v>
       </c>
       <c r="T17" t="n">
-        <v>2.02</v>
+        <v>1.58</v>
       </c>
       <c r="U17" t="n">
-        <v>1.95</v>
+        <v>2.68</v>
       </c>
       <c r="V17" t="n">
-        <v>1.92</v>
+        <v>2.22</v>
       </c>
       <c r="W17" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="Y17" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="Z17" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AA17" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AI17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK17" t="n">
         <v>44</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>60</v>
-      </c>
       <c r="AL17" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AM17" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="AN17" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO17" t="n">
-        <v>18.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="G18" t="n">
-        <v>2.74</v>
+        <v>1.41</v>
       </c>
       <c r="H18" t="n">
-        <v>3.05</v>
+        <v>8.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.15</v>
+        <v>8.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="K18" t="n">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.53</v>
+        <v>1.23</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>3.15</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O18" t="n">
-        <v>1.44</v>
+        <v>1.12</v>
       </c>
       <c r="P18" t="n">
-        <v>1.72</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.34</v>
+        <v>1.39</v>
       </c>
       <c r="R18" t="n">
-        <v>1.27</v>
+        <v>2.02</v>
       </c>
       <c r="S18" t="n">
-        <v>4.5</v>
+        <v>1.96</v>
       </c>
       <c r="T18" t="n">
-        <v>1.96</v>
+        <v>1.65</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>2.48</v>
       </c>
       <c r="V18" t="n">
-        <v>1.47</v>
+        <v>1.13</v>
       </c>
       <c r="W18" t="n">
-        <v>1.57</v>
+        <v>3.45</v>
       </c>
       <c r="X18" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="Y18" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.5</v>
+        <v>90</v>
       </c>
       <c r="AA18" t="n">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.199999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>7</v>
+        <v>14.5</v>
       </c>
       <c r="AD18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE18" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>42</v>
-      </c>
       <c r="AK18" t="n">
-        <v>32</v>
+        <v>12.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="AM18" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="AN18" t="n">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.5</v>
+        <v>1.35</v>
       </c>
       <c r="G19" t="n">
-        <v>4.7</v>
+        <v>1.36</v>
       </c>
       <c r="H19" t="n">
-        <v>1.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>1.81</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="K19" t="n">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="P19" t="n">
-        <v>2.78</v>
+        <v>3.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="R19" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>2.36</v>
+        <v>1.97</v>
       </c>
       <c r="T19" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="U19" t="n">
-        <v>2.66</v>
+        <v>2.38</v>
       </c>
       <c r="V19" t="n">
-        <v>2.22</v>
+        <v>1.11</v>
       </c>
       <c r="W19" t="n">
-        <v>1.27</v>
+        <v>3.75</v>
       </c>
       <c r="X19" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.5</v>
+        <v>46</v>
       </c>
       <c r="Z19" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.5</v>
+        <v>300</v>
       </c>
       <c r="AB19" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>10.5</v>
+        <v>34</v>
       </c>
       <c r="AE19" t="n">
-        <v>15.5</v>
+        <v>110</v>
       </c>
       <c r="AF19" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="n">
-        <v>90</v>
+        <v>12.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>44</v>
+        <v>12.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AM19" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>32</v>
+        <v>3.65</v>
       </c>
       <c r="AO19" t="n">
-        <v>7</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
@@ -3088,390 +3088,120 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.41</v>
+        <v>2.44</v>
       </c>
       <c r="G20" t="n">
-        <v>1.42</v>
+        <v>2.46</v>
       </c>
       <c r="H20" t="n">
-        <v>8.199999999999999</v>
+        <v>3.05</v>
       </c>
       <c r="I20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC20" t="n">
         <v>8.4</v>
       </c>
-      <c r="J20" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W20" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="X20" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AD20" t="n">
-        <v>30</v>
+        <v>13.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AF20" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="AK20" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AM20" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.75</v>
+        <v>15.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>UEFA Champions League</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Real Madrid</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Monaco</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K21" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N21" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W21" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="X21" t="n">
-        <v>46</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>300</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>UEFA Champions League</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Olympiakos</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Leverkusen</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X22" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AO22" t="n">
         <v>23</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:30:06</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="I2" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="J2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>500</v>
+        <v>16.5</v>
       </c>
       <c r="W2" t="n">
         <v>1.01</v>
@@ -730,7 +730,7 @@
         <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.91</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
@@ -742,7 +742,7 @@
         <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
@@ -769,10 +769,10 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.94</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="3">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:30:34</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.02</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>220</v>
       </c>
       <c r="I3" t="n">
-        <v>4.1</v>
+        <v>950</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>160</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="S3" t="n">
-        <v>2.64</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>18</v>
+        <v>1.82</v>
       </c>
       <c r="AL3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.800000000000001</v>
+        <v>4.3</v>
       </c>
       <c r="AO3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.54</v>
+        <v>1.07</v>
       </c>
       <c r="G4" t="n">
-        <v>1.55</v>
+        <v>1.08</v>
       </c>
       <c r="H4" t="n">
-        <v>6.6</v>
+        <v>60</v>
       </c>
       <c r="I4" t="n">
-        <v>6.8</v>
+        <v>70</v>
       </c>
       <c r="J4" t="n">
-        <v>4.7</v>
+        <v>17</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>17.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>14</v>
+        <v>3.1</v>
       </c>
       <c r="AL4" t="n">
-        <v>27</v>
+        <v>5.1</v>
       </c>
       <c r="AM4" t="n">
-        <v>85</v>
+        <v>19.5</v>
       </c>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>2.58</v>
       </c>
       <c r="AO4" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.6</v>
+        <v>3.2</v>
       </c>
       <c r="G5" t="n">
-        <v>7.8</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
-        <v>1.4</v>
+        <v>2.58</v>
       </c>
       <c r="I5" t="n">
-        <v>1.41</v>
+        <v>2.6</v>
       </c>
       <c r="J5" t="n">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>6.4</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>3.65</v>
       </c>
       <c r="O5" t="n">
-        <v>1.1</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>3.95</v>
+        <v>1.88</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.33</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.16</v>
       </c>
-      <c r="S5" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.88</v>
-      </c>
       <c r="V5" t="n">
-        <v>3.4</v>
+        <v>1.63</v>
       </c>
       <c r="W5" t="n">
-        <v>1.14</v>
+        <v>1.45</v>
       </c>
       <c r="X5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>55</v>
       </c>
-      <c r="Y5" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>46</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>210</v>
-      </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM5" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AN5" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AO5" t="n">
-        <v>3.8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,40 +1198,40 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.05</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>3.15</v>
+        <v>2.06</v>
       </c>
       <c r="H6" t="n">
-        <v>2.68</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.38</v>
@@ -1240,85 +1240,85 @@
         <v>1.84</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R6" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U6" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.59</v>
+        <v>1.31</v>
       </c>
       <c r="W6" t="n">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="X6" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>46</v>
       </c>
       <c r="Z6" t="n">
-        <v>16</v>
+        <v>500</v>
       </c>
       <c r="AA6" t="n">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="AB6" t="n">
         <v>11</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>48</v>
       </c>
       <c r="AE6" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>17.5</v>
+        <v>40</v>
       </c>
       <c r="AI6" t="n">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="AJ6" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AK6" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AM6" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AO6" t="n">
-        <v>27</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,118 +1333,118 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.04</v>
+        <v>1.55</v>
       </c>
       <c r="G7" t="n">
-        <v>2.16</v>
+        <v>1.58</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>6.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>1.87</v>
+        <v>2.66</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>1.55</v>
       </c>
       <c r="R7" t="n">
-        <v>1.3</v>
+        <v>1.69</v>
       </c>
       <c r="S7" t="n">
-        <v>4.2</v>
+        <v>2.38</v>
       </c>
       <c r="T7" t="n">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="V7" t="n">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>1.87</v>
+        <v>2.74</v>
       </c>
       <c r="X7" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y7" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Z7" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AA7" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="AB7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>15</v>
       </c>
-      <c r="AC7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>330</v>
-      </c>
-      <c r="AJ7" t="n">
+      <c r="AK7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM7" t="n">
         <v>90</v>
       </c>
-      <c r="AK7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>500</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>580</v>
-      </c>
       <c r="AN7" t="n">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="AO7" t="n">
         <v>600</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Inverness CT</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.55</v>
+        <v>6.6</v>
       </c>
       <c r="G8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.57</v>
       </c>
-      <c r="H8" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>1.62</v>
       </c>
       <c r="J8" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>5.9</v>
+        <v>3.85</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="P8" t="n">
-        <v>2.68</v>
+        <v>1.98</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.56</v>
+        <v>1.96</v>
       </c>
       <c r="R8" t="n">
-        <v>1.68</v>
+        <v>1.38</v>
       </c>
       <c r="S8" t="n">
-        <v>2.4</v>
+        <v>3.45</v>
       </c>
       <c r="T8" t="n">
-        <v>1.75</v>
+        <v>2.02</v>
       </c>
       <c r="U8" t="n">
-        <v>2.26</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>2.6</v>
       </c>
       <c r="W8" t="n">
-        <v>2.76</v>
+        <v>1.16</v>
       </c>
       <c r="X8" t="n">
-        <v>25</v>
+        <v>16.5</v>
       </c>
       <c r="Y8" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG8" t="n">
         <v>32</v>
       </c>
-      <c r="Z8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG8" t="n">
+      <c r="AH8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>420</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>430</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AO8" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Inverness CT</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6.4</v>
+        <v>1.72</v>
       </c>
       <c r="G9" t="n">
-        <v>7.4</v>
+        <v>1.74</v>
       </c>
       <c r="H9" t="n">
-        <v>1.57</v>
+        <v>5.2</v>
       </c>
       <c r="I9" t="n">
-        <v>1.63</v>
+        <v>5.6</v>
       </c>
       <c r="J9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.85</v>
+        <v>5.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.96</v>
+        <v>1.69</v>
       </c>
       <c r="R9" t="n">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="S9" t="n">
-        <v>3.45</v>
+        <v>2.76</v>
       </c>
       <c r="T9" t="n">
-        <v>1.98</v>
+        <v>1.71</v>
       </c>
       <c r="U9" t="n">
-        <v>1.84</v>
+        <v>2.3</v>
       </c>
       <c r="V9" t="n">
-        <v>2.6</v>
+        <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>1.16</v>
+        <v>2.34</v>
       </c>
       <c r="X9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL9" t="n">
         <v>29</v>
       </c>
-      <c r="Y9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>48</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>240</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>970</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>270</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>420</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>430</v>
-      </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>95</v>
       </c>
       <c r="AN9" t="n">
-        <v>180</v>
+        <v>8.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
+        <v>2.96</v>
       </c>
       <c r="G10" t="n">
-        <v>1.76</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>2.44</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>2.58</v>
       </c>
       <c r="J10" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="K10" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
         <v>1.34</v>
@@ -1771,88 +1771,88 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="S10" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>1.05</v>
       </c>
       <c r="U10" t="n">
-        <v>2.32</v>
+        <v>1.05</v>
       </c>
       <c r="V10" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>40</v>
+        <v>13.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="n">
-        <v>900</v>
+        <v>170</v>
       </c>
       <c r="AB10" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>38</v>
+        <v>11.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>320</v>
+        <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>13.5</v>
+        <v>44</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>15.5</v>
       </c>
       <c r="AI10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM10" t="n">
         <v>500</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>580</v>
-      </c>
       <c r="AN10" t="n">
-        <v>9</v>
+        <v>600</v>
       </c>
       <c r="AO10" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.96</v>
+        <v>1.35</v>
       </c>
       <c r="G11" t="n">
-        <v>3.05</v>
+        <v>1.37</v>
       </c>
       <c r="H11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P11" t="n">
         <v>2.46</v>
       </c>
-      <c r="I11" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.2</v>
-      </c>
       <c r="Q11" t="n">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="R11" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="S11" t="n">
-        <v>2.92</v>
+        <v>2.64</v>
       </c>
       <c r="T11" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>1.86</v>
       </c>
       <c r="V11" t="n">
-        <v>1.66</v>
+        <v>1.09</v>
       </c>
       <c r="W11" t="n">
-        <v>1.49</v>
+        <v>3.7</v>
       </c>
       <c r="X11" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>490</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC11" t="n">
         <v>13</v>
       </c>
-      <c r="Z11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9</v>
-      </c>
       <c r="AD11" t="n">
-        <v>11.5</v>
+        <v>40</v>
       </c>
       <c r="AE11" t="n">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="AI11" t="n">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AJ11" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="AL11" t="n">
         <v>38</v>
       </c>
       <c r="AM11" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AN11" t="n">
-        <v>24</v>
+        <v>5.1</v>
       </c>
       <c r="AO11" t="n">
-        <v>16.5</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.35</v>
+        <v>2.5</v>
       </c>
       <c r="G12" t="n">
-        <v>1.36</v>
+        <v>2.62</v>
       </c>
       <c r="H12" t="n">
-        <v>11</v>
+        <v>3.15</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>3.35</v>
       </c>
       <c r="J12" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>6</v>
+        <v>3.45</v>
       </c>
       <c r="L12" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.44</v>
+        <v>1.71</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.48</v>
+        <v>2.86</v>
       </c>
       <c r="G13" t="n">
-        <v>2.54</v>
+        <v>2.88</v>
       </c>
       <c r="H13" t="n">
-        <v>3.15</v>
+        <v>2.62</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>2.64</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P13" t="n">
-        <v>1.71</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.28</v>
+        <v>1.81</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.92</v>
+        <v>4.3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.5</v>
+        <v>2.06</v>
       </c>
       <c r="I14" t="n">
-        <v>2.52</v>
+        <v>2.08</v>
       </c>
       <c r="J14" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="L14" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
       <c r="P14" t="n">
-        <v>2.4</v>
+        <v>1.78</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.7</v>
+        <v>2.26</v>
       </c>
       <c r="R14" t="n">
-        <v>1.56</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>2.74</v>
+        <v>4.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.6</v>
+        <v>2.04</v>
       </c>
       <c r="U14" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="V14" t="n">
-        <v>1.65</v>
+        <v>1.92</v>
       </c>
       <c r="W14" t="n">
-        <v>1.51</v>
+        <v>1.3</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="Z14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AO14" t="n">
         <v>18</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="G15" t="n">
-        <v>4.3</v>
+        <v>2.84</v>
       </c>
       <c r="H15" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U15" t="n">
         <v>2.06</v>
       </c>
-      <c r="I15" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.96</v>
-      </c>
       <c r="V15" t="n">
-        <v>1.92</v>
+        <v>1.51</v>
       </c>
       <c r="W15" t="n">
-        <v>1.3</v>
+        <v>1.54</v>
       </c>
       <c r="X15" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AA15" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AB15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD15" t="n">
         <v>13</v>
       </c>
-      <c r="AC15" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE15" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AF15" t="n">
-        <v>28</v>
+        <v>16.5</v>
       </c>
       <c r="AG15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH15" t="n">
         <v>18</v>
       </c>
-      <c r="AH15" t="n">
-        <v>21</v>
-      </c>
       <c r="AI15" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AJ15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM15" t="n">
         <v>100</v>
       </c>
-      <c r="AK15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>140</v>
-      </c>
       <c r="AN15" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AO15" t="n">
-        <v>18.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.76</v>
+        <v>4.7</v>
       </c>
       <c r="G16" t="n">
-        <v>2.78</v>
+        <v>4.8</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>1.79</v>
       </c>
       <c r="I16" t="n">
-        <v>3.05</v>
+        <v>1.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.52</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
       <c r="P16" t="n">
-        <v>1.73</v>
+        <v>2.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.34</v>
+        <v>1.54</v>
       </c>
       <c r="R16" t="n">
-        <v>1.27</v>
+        <v>1.74</v>
       </c>
       <c r="S16" t="n">
-        <v>4.4</v>
+        <v>2.32</v>
       </c>
       <c r="T16" t="n">
-        <v>1.97</v>
+        <v>1.57</v>
       </c>
       <c r="U16" t="n">
-        <v>2.02</v>
+        <v>2.66</v>
       </c>
       <c r="V16" t="n">
-        <v>1.48</v>
+        <v>2.24</v>
       </c>
       <c r="W16" t="n">
-        <v>1.56</v>
+        <v>1.26</v>
       </c>
       <c r="X16" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC16" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA16" t="n">
+      <c r="AD16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM16" t="n">
         <v>55</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>130</v>
       </c>
       <c r="AN16" t="n">
         <v>34</v>
       </c>
       <c r="AO16" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.6</v>
+        <v>1.39</v>
       </c>
       <c r="G17" t="n">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1.8</v>
+        <v>8.4</v>
       </c>
       <c r="I17" t="n">
-        <v>1.81</v>
+        <v>8.6</v>
       </c>
       <c r="J17" t="n">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="K17" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="P17" t="n">
-        <v>2.78</v>
+        <v>3.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="R17" t="n">
-        <v>1.72</v>
+        <v>2.06</v>
       </c>
       <c r="S17" t="n">
-        <v>2.34</v>
+        <v>1.91</v>
       </c>
       <c r="T17" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="U17" t="n">
-        <v>2.68</v>
+        <v>2.54</v>
       </c>
       <c r="V17" t="n">
-        <v>2.22</v>
+        <v>1.13</v>
       </c>
       <c r="W17" t="n">
-        <v>1.26</v>
+        <v>3.5</v>
       </c>
       <c r="X17" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="Y17" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="Z17" t="n">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="AA17" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH17" t="n">
         <v>19.5</v>
       </c>
-      <c r="AB17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AI17" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="AJ17" t="n">
-        <v>90</v>
+        <v>13.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>44</v>
+        <v>12.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AM17" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN17" t="n">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="AO17" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -2818,103 +2818,103 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="G18" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="H18" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="I18" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
         <v>1.12</v>
       </c>
       <c r="P18" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="R18" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="S18" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="T18" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="U18" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="V18" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W18" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="X18" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y18" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Z18" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AA18" t="n">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="AB18" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC18" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE18" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AF18" t="n">
         <v>12</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ18" t="n">
         <v>13.5</v>
@@ -2923,16 +2923,16 @@
         <v>12.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM18" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
@@ -2953,256 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.35</v>
+        <v>2.38</v>
       </c>
       <c r="G19" t="n">
-        <v>1.36</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
-        <v>9.800000000000001</v>
+        <v>3.15</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>3.2</v>
       </c>
       <c r="J19" t="n">
-        <v>6.2</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
-        <v>6.4</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>8.4</v>
+        <v>4.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>3.5</v>
+        <v>2.16</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.39</v>
+        <v>1.85</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="S19" t="n">
-        <v>1.97</v>
+        <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U19" t="n">
         <v>2.38</v>
       </c>
       <c r="V19" t="n">
-        <v>1.11</v>
+        <v>1.45</v>
       </c>
       <c r="W19" t="n">
-        <v>3.75</v>
+        <v>1.71</v>
       </c>
       <c r="X19" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
-        <v>46</v>
+        <v>14.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="AA19" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="AB19" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH19" t="n">
         <v>15.5</v>
       </c>
-      <c r="AD19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>22</v>
-      </c>
       <c r="AI19" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12.5</v>
+        <v>32</v>
       </c>
       <c r="AK19" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
         <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.65</v>
+        <v>16</v>
       </c>
       <c r="AO19" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>UEFA Champions League</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Olympiakos</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Leverkusen</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="X20" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30:06</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>65</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>190</v>
+        <v>1.01</v>
       </c>
       <c r="H2" t="n">
-        <v>1.05</v>
+        <v>320</v>
       </c>
       <c r="I2" t="n">
-        <v>1.06</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="K2" t="n">
-        <v>24</v>
+        <v>790</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="V2" t="n">
-        <v>16.5</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>100</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -757,28 +757,28 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>170</v>
+        <v>1.85</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.08</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,33 +788,33 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:34</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F3" t="n">
+        <v>240</v>
+      </c>
+      <c r="G3" t="n">
+        <v>950</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.01</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>1.02</v>
       </c>
-      <c r="H3" t="n">
-        <v>220</v>
-      </c>
-      <c r="I3" t="n">
-        <v>950</v>
-      </c>
       <c r="J3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
         <v>160</v>
@@ -838,23 +838,23 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.8</v>
+        <v>2.92</v>
       </c>
       <c r="S3" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V3" t="n">
+        <v>34</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.01</v>
       </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W3" t="n">
-        <v>50</v>
-      </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
@@ -865,7 +865,7 @@
         <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
@@ -877,7 +877,7 @@
         <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -889,31 +889,31 @@
         <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.82</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="G4" t="n">
-        <v>1.08</v>
+        <v>1.47</v>
       </c>
       <c r="H4" t="n">
-        <v>60</v>
+        <v>5.8</v>
       </c>
       <c r="I4" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>6.4</v>
       </c>
       <c r="K4" t="n">
-        <v>17.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="W4" t="n">
-        <v>11</v>
+        <v>1.31</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1030,25 +1030,25 @@
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>19.5</v>
+        <v>990</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.58</v>
+        <v>980</v>
       </c>
       <c r="AO4" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,121 +1063,121 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S5" t="n">
+        <v>12</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y5" t="n">
         <v>3.2</v>
       </c>
-      <c r="G5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X5" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>10.5</v>
-      </c>
       <c r="Z5" t="n">
-        <v>15.5</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>990</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
         <v>7.4</v>
       </c>
-      <c r="AD5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>13</v>
-      </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
         <v>42</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>36</v>
-      </c>
       <c r="AL5" t="n">
-        <v>48</v>
+        <v>440</v>
       </c>
       <c r="AM5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>36</v>
+        <v>260</v>
       </c>
       <c r="AO5" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Inverness CT</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="G6" t="n">
-        <v>2.06</v>
+        <v>240</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.4</v>
+        <v>1.12</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>11.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3.5</v>
+        <v>1.76</v>
       </c>
       <c r="O6" t="n">
-        <v>1.38</v>
+        <v>2.22</v>
       </c>
       <c r="P6" t="n">
-        <v>1.84</v>
+        <v>1.13</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.12</v>
+        <v>7.8</v>
       </c>
       <c r="R6" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="S6" t="n">
-        <v>4.1</v>
+        <v>42</v>
       </c>
       <c r="T6" t="n">
-        <v>1.87</v>
+        <v>5.8</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.18</v>
       </c>
       <c r="V6" t="n">
-        <v>1.31</v>
+        <v>9</v>
       </c>
       <c r="W6" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>46</v>
+        <v>1.82</v>
       </c>
       <c r="Z6" t="n">
-        <v>500</v>
+        <v>4.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>310</v>
+        <v>30</v>
       </c>
       <c r="AB6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AE6" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="AF6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>230</v>
       </c>
       <c r="AH6" t="n">
-        <v>40</v>
+        <v>990</v>
       </c>
       <c r="AI6" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="G7" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="H7" t="n">
-        <v>6.2</v>
+        <v>200</v>
       </c>
       <c r="I7" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>4.8</v>
+        <v>12</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.68</v>
+        <v>4.5</v>
       </c>
       <c r="U7" t="n">
-        <v>2.28</v>
+        <v>1.25</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>2.74</v>
+        <v>100</v>
       </c>
       <c r="X7" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Inverness CT</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.6</v>
+        <v>1.34</v>
       </c>
       <c r="G8" t="n">
-        <v>7.4</v>
+        <v>1.36</v>
       </c>
       <c r="H8" t="n">
-        <v>1.57</v>
+        <v>23</v>
       </c>
       <c r="I8" t="n">
-        <v>1.62</v>
+        <v>27</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.85</v>
+        <v>2.04</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.92</v>
       </c>
       <c r="P8" t="n">
-        <v>1.98</v>
+        <v>1.18</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.96</v>
+        <v>6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.38</v>
+        <v>1.03</v>
       </c>
       <c r="S8" t="n">
-        <v>3.45</v>
+        <v>29</v>
       </c>
       <c r="T8" t="n">
-        <v>2.02</v>
+        <v>2.92</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="V8" t="n">
-        <v>2.6</v>
+        <v>1.02</v>
       </c>
       <c r="W8" t="n">
-        <v>1.16</v>
+        <v>3.9</v>
       </c>
       <c r="X8" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>2.22</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>5</v>
       </c>
       <c r="AD8" t="n">
-        <v>10.5</v>
+        <v>32</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>340</v>
       </c>
       <c r="AF8" t="n">
-        <v>160</v>
+        <v>6.4</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AH8" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="AI8" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AK8" t="n">
-        <v>420</v>
+        <v>140</v>
       </c>
       <c r="AL8" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="AO8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.72</v>
+        <v>95</v>
       </c>
       <c r="G9" t="n">
-        <v>1.74</v>
+        <v>380</v>
       </c>
       <c r="H9" t="n">
-        <v>5.2</v>
+        <v>1.07</v>
       </c>
       <c r="I9" t="n">
-        <v>5.6</v>
+        <v>1.08</v>
       </c>
       <c r="J9" t="n">
-        <v>4.2</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>16</v>
       </c>
       <c r="L9" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>5.1</v>
+        <v>3.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="P9" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.69</v>
+        <v>2.94</v>
       </c>
       <c r="R9" t="n">
-        <v>1.54</v>
+        <v>1.11</v>
       </c>
       <c r="S9" t="n">
-        <v>2.76</v>
+        <v>9.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.71</v>
+        <v>5.9</v>
       </c>
       <c r="U9" t="n">
-        <v>2.3</v>
+        <v>1.17</v>
       </c>
       <c r="V9" t="n">
-        <v>1.22</v>
+        <v>13</v>
       </c>
       <c r="W9" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>24</v>
+        <v>3.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>44</v>
+        <v>3.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>130</v>
+        <v>6.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.6</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF9" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.800000000000001</v>
+        <v>280</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>55</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.96</v>
+        <v>13.5</v>
       </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>2.44</v>
+        <v>1.42</v>
       </c>
       <c r="I10" t="n">
-        <v>2.58</v>
+        <v>1.43</v>
       </c>
       <c r="J10" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.46</v>
+        <v>3.5</v>
       </c>
       <c r="S10" t="n">
-        <v>2.8</v>
+        <v>1.39</v>
       </c>
       <c r="T10" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN10" t="n">
         <v>65</v>
       </c>
-      <c r="AC10" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>600</v>
-      </c>
       <c r="AO10" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.35</v>
+        <v>7.8</v>
       </c>
       <c r="G11" t="n">
-        <v>1.37</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>10.5</v>
+        <v>1.79</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>1.8</v>
       </c>
       <c r="J11" t="n">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>5.9</v>
+        <v>3.15</v>
       </c>
       <c r="L11" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="S11" t="n">
+        <v>17</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X11" t="n">
         <v>5.3</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="X11" t="n">
-        <v>22</v>
-      </c>
       <c r="Y11" t="n">
-        <v>40</v>
+        <v>3.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>110</v>
+        <v>7.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>490</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC11" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AC11" t="n">
-        <v>13</v>
-      </c>
       <c r="AD11" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AE11" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.199999999999999</v>
+        <v>100</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>65</v>
       </c>
       <c r="AH11" t="n">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AI11" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>190</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,36 +2003,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.5</v>
+        <v>1.21</v>
       </c>
       <c r="G12" t="n">
-        <v>2.62</v>
+        <v>1.24</v>
       </c>
       <c r="H12" t="n">
-        <v>3.15</v>
+        <v>16.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3.35</v>
+        <v>34</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.45</v>
+        <v>8</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2041,88 +2041,88 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.86</v>
+        <v>1.01</v>
       </c>
       <c r="G13" t="n">
-        <v>2.88</v>
+        <v>1.01</v>
       </c>
       <c r="H13" t="n">
-        <v>2.62</v>
+        <v>1000</v>
       </c>
       <c r="I13" t="n">
-        <v>2.64</v>
+        <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>550</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="L13" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.66</v>
+        <v>2.38</v>
       </c>
       <c r="U13" t="n">
-        <v>2.44</v>
+        <v>1.67</v>
       </c>
       <c r="V13" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>1.53</v>
+        <v>100</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>1.01</v>
       </c>
       <c r="AO13" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.2</v>
+        <v>1.03</v>
       </c>
       <c r="G14" t="n">
-        <v>4.3</v>
+        <v>1.04</v>
       </c>
       <c r="H14" t="n">
-        <v>2.06</v>
+        <v>150</v>
       </c>
       <c r="I14" t="n">
-        <v>2.08</v>
+        <v>220</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>38</v>
       </c>
       <c r="K14" t="n">
+        <v>46</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>3.55</v>
       </c>
-      <c r="L14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.78</v>
-      </c>
       <c r="Q14" t="n">
-        <v>2.26</v>
+        <v>1.38</v>
       </c>
       <c r="R14" t="n">
-        <v>1.29</v>
+        <v>1.52</v>
       </c>
       <c r="S14" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="T14" t="n">
-        <v>2.04</v>
+        <v>3.4</v>
       </c>
       <c r="U14" t="n">
-        <v>1.95</v>
+        <v>1.37</v>
       </c>
       <c r="V14" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="W14" t="n">
-        <v>1.3</v>
+        <v>29</v>
       </c>
       <c r="X14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AG14" t="n">
         <v>11</v>
       </c>
-      <c r="Y14" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>17</v>
-      </c>
       <c r="AH14" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AI14" t="n">
-        <v>44</v>
+        <v>320</v>
       </c>
       <c r="AJ14" t="n">
-        <v>90</v>
+        <v>3.8</v>
       </c>
       <c r="AK14" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="AL14" t="n">
-        <v>70</v>
+        <v>990</v>
       </c>
       <c r="AM14" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>70</v>
+        <v>5.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2413,661 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="G15" t="n">
-        <v>2.84</v>
+        <v>1.11</v>
       </c>
       <c r="H15" t="n">
-        <v>2.92</v>
+        <v>40</v>
       </c>
       <c r="I15" t="n">
-        <v>2.96</v>
+        <v>48</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>12</v>
       </c>
       <c r="K15" t="n">
-        <v>3.3</v>
+        <v>13.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.79</v>
+        <v>3.45</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.26</v>
+        <v>1.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="S15" t="n">
-        <v>4.1</v>
+        <v>2.78</v>
       </c>
       <c r="T15" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="U15" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="V15" t="n">
-        <v>1.51</v>
+        <v>1.02</v>
       </c>
       <c r="W15" t="n">
-        <v>1.54</v>
+        <v>8.6</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AH15" t="n">
         <v>16.5</v>
       </c>
-      <c r="AG15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>18</v>
-      </c>
       <c r="AI15" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AJ15" t="n">
-        <v>42</v>
+        <v>6.4</v>
       </c>
       <c r="AK15" t="n">
-        <v>32</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AL15" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AM15" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="n">
-        <v>36</v>
+        <v>11.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>UEFA Champions League</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Sporting Lisbon</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Paris St-G</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="X16" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>UEFA Champions League</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Villarreal</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Ajax</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K17" t="n">
-        <v>6</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N17" t="n">
-        <v>9</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="X17" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>UEFA Champions League</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Real Madrid</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Monaco</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="H18" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J18" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N18" t="n">
-        <v>9</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="X18" t="n">
-        <v>44</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>290</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>UEFA Champions League</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Olympiakos</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Leverkusen</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="X19" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>26</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
